--- a/Exp 2023/Exp_2023.xlsx
+++ b/Exp 2023/Exp_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="782" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="782" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Марш 2" sheetId="15" r:id="rId1"/>
@@ -23,8 +23,6 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Участники!$A$1:$AD$27</definedName>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="432">
   <si>
     <t>СПИСОК ГРУППЫ</t>
   </si>
@@ -1122,6 +1120,9 @@
     <t>ГУВД СПб и Ленинградской области. 09.10.2003</t>
   </si>
   <si>
+    <t>172-081-418 44</t>
+  </si>
+  <si>
     <t>Нужина</t>
   </si>
   <si>
@@ -1394,15 +1395,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="#\ ##0"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="183" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="184" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="#\ ##0"/>
+    <numFmt numFmtId="182" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="183" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="184" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
   </numFmts>
   <fonts count="54">
     <font>
@@ -1411,6 +1412,11 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1433,11 +1439,6 @@
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1606,131 +1607,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1746,14 +1623,138 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1798,31 +1799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,67 +1823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,7 +1841,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,19 +1931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,37 +1949,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,41 +2159,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2203,6 +2174,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2223,6 +2203,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2237,215 +2256,197 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2455,13 +2456,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2470,7 +2471,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2484,15 +2485,15 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2506,8 +2507,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2521,16 +2522,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2546,7 +2547,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2566,7 +2567,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2596,16 +2597,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2624,18 +2625,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2658,7 +2659,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2765,11 +2766,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2891,48 +2887,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Шаблон"/>
-      <sheetName val="Охрана"/>
-      <sheetName val="Пожертвования"/>
-      <sheetName val="Справочник"/>
-      <sheetName val="Восстановл_Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Шаблон"/>
-      <sheetName val="Охрана"/>
-      <sheetName val="Пожертвования"/>
-      <sheetName val="Справочник"/>
-      <sheetName val="Восстановл_Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4065,10 +4019,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71296296296296" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="40.712962962963" style="6" customWidth="1"/>
-    <col min="2" max="3" width="13" style="6" customWidth="1"/>
-    <col min="4" max="4" width="35.5740740740741" style="6" customWidth="1"/>
-    <col min="5" max="16360" width="9.71296296296296" style="6"/>
+    <col min="1" max="1" width="40.712962962963" style="7" customWidth="1"/>
+    <col min="2" max="3" width="13" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.5740740740741" style="7" customWidth="1"/>
+    <col min="5" max="16360" width="9.71296296296296" style="7"/>
     <col min="16361" max="16384" width="9.71296296296296" style="15"/>
   </cols>
   <sheetData>
@@ -4085,8 +4039,8 @@
       <c r="D1" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
@@ -4095,160 +4049,160 @@
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="8">
         <v>40100</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>9119433692</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="8">
         <v>39367</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>9817122479</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>364</v>
+      <c r="D4" s="7" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="8">
         <v>39849</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>9291040939</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>402</v>
+      <c r="A6" s="7" t="s">
+        <v>403</v>
       </c>
       <c r="B6" s="18">
         <v>39166</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>9522270284</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="8">
         <v>38917</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>9214136722</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>376</v>
+      <c r="D7" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" s="8">
         <v>40363</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>9219845986</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="8">
         <v>40421</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="7">
         <v>9312784188</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="D9" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" s="8">
         <v>38982</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>9818723635</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="8">
         <v>40469</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="7">
         <v>9045564762</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>408</v>
+    <row r="12" s="7" customFormat="1" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="B12" s="18">
         <v>40195</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>9657737525</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="8">
         <v>39529</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>9817032760</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4258,204 +4212,204 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="A17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="8">
         <v>39646</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>9602540838</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="8">
         <v>40579</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="7">
         <v>9602540838</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="A19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="8">
         <v>39849</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="7">
         <v>9291040939</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
-        <v>402</v>
+      <c r="A20" s="7" t="s">
+        <v>403</v>
       </c>
       <c r="B20" s="18">
         <v>39166</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="7">
         <v>9522270284</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="8">
         <v>38917</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>9214136722</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>376</v>
+      <c r="D21" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="A22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="8">
         <v>40363</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="7">
         <v>9219845986</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
-        <v>412</v>
+      <c r="A23" s="7" t="s">
+        <v>413</v>
       </c>
       <c r="B23" s="18">
         <v>39581</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>9259175393</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="A24" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B24" s="8">
         <v>39916</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="7">
         <v>9218718088</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
-        <v>414</v>
+      <c r="A25" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="B25" s="18">
         <v>40070</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="7">
         <v>9213409406</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:4">
-      <c r="A26" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B26" s="7">
+    <row r="26" s="7" customFormat="1" spans="1:4">
+      <c r="A26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B26" s="8">
         <v>38982</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="7">
         <v>9818723635</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>408</v>
+    <row r="27" s="7" customFormat="1" spans="1:4">
+      <c r="A27" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="B27" s="18">
         <v>40195</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="7">
         <v>9657737525</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="A28" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B28" s="8">
         <v>39529</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>9817032760</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>415</v>
+    <row r="29" s="7" customFormat="1" spans="1:4">
+      <c r="A29" s="7" t="s">
+        <v>416</v>
       </c>
       <c r="B29" s="18">
         <v>38989</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>9213026506</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="A30" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B30" s="8">
         <v>39987</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>9819793731</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="31" s="6" customFormat="1" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>418</v>
+      </c>
+    </row>
+    <row r="31" s="7" customFormat="1" spans="1:4">
+      <c r="A31" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="B31" s="20">
         <v>38933</v>
@@ -4467,9 +4421,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>419</v>
+    <row r="32" s="7" customFormat="1" spans="1:4">
+      <c r="A32" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="B32" s="23">
         <v>39810</v>
@@ -4493,662 +4447,662 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.8518518518519" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.4259259259259" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.4259259259259" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.287037037037" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.287037037037" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1388888888889" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85185185185185" style="1"/>
+    <col min="1" max="1" width="18.8518518518519" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.4259259259259" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.4259259259259" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.287037037037" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.287037037037" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.1388888888889" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.85185185185185" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>422</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" ht="15.6" spans="1:9">
-      <c r="A3" s="6" t="str">
+      <c r="A3" s="7" t="str">
         <f>'Информация для бумаг_1'!B5</f>
         <v>Аудах</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="7" t="str">
         <f>'Информация для бумаг_1'!C5</f>
         <v>Никита</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="7" t="str">
         <f>'Информация для бумаг_1'!D5</f>
         <v>Яхияевич</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <f>'Информация для бумаг_1'!P5</f>
         <v>40100</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8" t="str">
+      <c r="E3" s="7"/>
+      <c r="F3" s="9" t="str">
         <f>'Информация для бумаг_1'!O5</f>
         <v>V-АК 731292</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" ht="15.6" spans="1:9">
-      <c r="A4" s="6" t="str">
+      <c r="A4" s="7" t="str">
         <f>'Информация для бумаг_1'!B6</f>
         <v>Бритиков</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="7" t="str">
         <f>'Информация для бумаг_1'!C6</f>
         <v>Александр</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="7" t="str">
         <f>'Информация для бумаг_1'!D6</f>
         <v>Ильич</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <f>'Информация для бумаг_1'!P6</f>
         <v>39849</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8">
+      <c r="E4" s="7"/>
+      <c r="F4" s="9">
         <f>'Информация для бумаг_1'!O6</f>
         <v>4022381251</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:9">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="7" t="str">
         <f>'Информация для бумаг_1'!B7</f>
         <v>Киселев</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" s="7" t="str">
         <f>'Информация для бумаг_1'!C7</f>
         <v>Вениамин</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="7" t="str">
         <f>'Информация для бумаг_1'!D7</f>
         <v>Алексеевич</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <f>'Информация для бумаг_1'!P7</f>
         <v>40363</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8" t="str">
+      <c r="E5" s="7"/>
+      <c r="F5" s="9" t="str">
         <f>'Информация для бумаг_1'!O7</f>
         <v>II-AK 798373</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" ht="15.6" spans="1:9">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="7" t="str">
         <f>'Информация для бумаг_1'!B8</f>
         <v>Сайчик</v>
       </c>
-      <c r="B6" s="6" t="str">
+      <c r="B6" s="7" t="str">
         <f>'Информация для бумаг_1'!C8</f>
         <v>Мария</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="7" t="str">
         <f>'Информация для бумаг_1'!D8</f>
         <v>Владимировна</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <f>'Информация для бумаг_1'!P8</f>
         <v>38982</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8">
+      <c r="E6" s="7"/>
+      <c r="F6" s="9">
         <f>'Информация для бумаг_1'!O8</f>
         <v>4020691039</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" ht="15.6" spans="1:9">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="7" t="str">
         <f>'Информация для бумаг_1'!B9</f>
         <v>Тихонов</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="7" t="str">
         <f>'Информация для бумаг_1'!C9</f>
         <v>Иван</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="7" t="str">
         <f>'Информация для бумаг_1'!D9</f>
         <v>Андреевич</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <f>'Информация для бумаг_1'!P9</f>
         <v>40469</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8" t="str">
+      <c r="E7" s="7"/>
+      <c r="F7" s="9" t="str">
         <f>'Информация для бумаг_1'!O9</f>
         <v>II-АК 864038</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" ht="15.6" spans="1:9">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="7" t="str">
         <f>'Информация для бумаг_1'!B10</f>
         <v>Федорова</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="7" t="str">
         <f>'Информация для бумаг_1'!C10</f>
         <v>Ксения</v>
       </c>
-      <c r="C8" s="6" t="str">
+      <c r="C8" s="7" t="str">
         <f>'Информация для бумаг_1'!D10</f>
         <v>Сергеевна</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <f>'Информация для бумаг_1'!P10</f>
         <v>40195</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="str">
+      <c r="E8" s="7"/>
+      <c r="F8" s="9" t="str">
         <f>'Информация для бумаг_1'!O10</f>
         <v>II-АК 789060</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" ht="15.6" spans="1:9">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="7" t="str">
         <f>'Информация для бумаг_1'!B11</f>
         <v>Шеламова</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="7" t="str">
         <f>'Информация для бумаг_1'!C11</f>
         <v>Виктория</v>
       </c>
-      <c r="C9" s="6" t="str">
+      <c r="C9" s="7" t="str">
         <f>'Информация для бумаг_1'!D11</f>
         <v>Сергеевна</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <f>'Информация для бумаг_1'!P11</f>
         <v>39529</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8">
+      <c r="E9" s="7"/>
+      <c r="F9" s="9">
         <f>'Информация для бумаг_1'!O11</f>
         <v>4022149794</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" ht="15.6" spans="1:9">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="7" t="str">
         <f>'Информация для бумаг_1'!B12</f>
         <v>Шилонцев</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="7" t="str">
         <f>'Информация для бумаг_1'!C12</f>
         <v>Андрей</v>
       </c>
-      <c r="C10" s="6" t="str">
+      <c r="C10" s="7" t="str">
         <f>'Информация для бумаг_1'!D12</f>
         <v>Александрович</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <f>'Информация для бумаг_1'!P12</f>
         <v>38989</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8">
+      <c r="E10" s="7"/>
+      <c r="F10" s="9">
         <f>'Информация для бумаг_1'!O12</f>
         <v>4020684651</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" ht="15.6" spans="1:9">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="7" t="str">
         <f>'Информация для бумаг_1'!B13</f>
         <v>Бекасов</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" s="7" t="str">
         <f>'Информация для бумаг_1'!C13</f>
         <v>Емельян</v>
       </c>
-      <c r="C11" s="6" t="str">
+      <c r="C11" s="7" t="str">
         <f>'Информация для бумаг_1'!D13</f>
         <v>Игоревич</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <f>'Информация для бумаг_1'!P13</f>
         <v>39857</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8">
+      <c r="E11" s="7"/>
+      <c r="F11" s="9">
         <f>'Информация для бумаг_1'!O13</f>
         <v>4023439220</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" s="14" customFormat="1" spans="4:4">
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" s="14" customFormat="1" spans="4:4">
-      <c r="D13" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="13.2" spans="4:4">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="13.2" spans="4:4">
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="12" t="s">
         <v>426</v>
       </c>
+      <c r="B14" s="6" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>422</v>
       </c>
+      <c r="F15" s="5" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="16" ht="15.6" spans="1:6">
-      <c r="A16" s="6" t="str">
+      <c r="A16" s="7" t="str">
         <f>'Информация для бумаг_2'!B5</f>
         <v>Беляева</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="7" t="str">
         <f>'Информация для бумаг_2'!C5</f>
         <v>Олеся</v>
       </c>
-      <c r="C16" s="6" t="str">
+      <c r="C16" s="7" t="str">
         <f>'Информация для бумаг_2'!D5</f>
         <v>Ивановна</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <f>'Информация для бумаг_2'!P5</f>
         <v>39646</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="12">
+      <c r="E16" s="7"/>
+      <c r="F16" s="13">
         <f>'Информация для бумаг_2'!O5</f>
         <v>4022245584</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:6">
-      <c r="A17" s="6" t="str">
+      <c r="A17" s="7" t="str">
         <f>'Информация для бумаг_2'!B6</f>
         <v>Беляева</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="7" t="str">
         <f>'Информация для бумаг_2'!C6</f>
         <v>Софья</v>
       </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="7" t="str">
         <f>'Информация для бумаг_2'!D6</f>
         <v>Ивановна</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <f>'Информация для бумаг_2'!P6</f>
         <v>40579</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="12" t="str">
+      <c r="E17" s="7"/>
+      <c r="F17" s="13" t="str">
         <f>'Информация для бумаг_2'!O6</f>
         <v>II-АК 879324</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:6">
-      <c r="A18" s="6" t="str">
+      <c r="A18" s="7" t="str">
         <f>'Информация для бумаг_2'!B7</f>
         <v>Бритиков</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" s="7" t="str">
         <f>'Информация для бумаг_2'!C7</f>
         <v>Александр</v>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="7" t="str">
         <f>'Информация для бумаг_2'!D7</f>
         <v>Ильич</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <f>'Информация для бумаг_2'!P7</f>
         <v>39849</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="12">
+      <c r="E18" s="7"/>
+      <c r="F18" s="13">
         <f>'Информация для бумаг_2'!O7</f>
         <v>4022381251</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:6">
-      <c r="A19" s="6" t="str">
+      <c r="A19" s="7" t="str">
         <f>'Информация для бумаг_2'!B8</f>
         <v>Ершова</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="7" t="str">
         <f>'Информация для бумаг_2'!C8</f>
         <v>Татьяна</v>
       </c>
-      <c r="C19" s="6" t="str">
+      <c r="C19" s="7" t="str">
         <f>'Информация для бумаг_2'!D8</f>
         <v>Алексеевна</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <f>'Информация для бумаг_2'!P8</f>
         <v>39166</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="12" t="str">
+      <c r="E19" s="7"/>
+      <c r="F19" s="13" t="str">
         <f>'Информация для бумаг_2'!O8</f>
         <v>40 20 831130</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:6">
-      <c r="A20" s="6" t="str">
+      <c r="A20" s="7" t="str">
         <f>'Информация для бумаг_2'!B9</f>
         <v>Мелентьева</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="7" t="str">
         <f>'Информация для бумаг_2'!C9</f>
         <v>Эмма</v>
       </c>
-      <c r="C20" s="6" t="str">
+      <c r="C20" s="7" t="str">
         <f>'Информация для бумаг_2'!D9</f>
         <v>Алексеевна</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <f>'Информация для бумаг_2'!P9</f>
         <v>39581</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="12" t="str">
+      <c r="E20" s="7"/>
+      <c r="F20" s="13" t="str">
         <f>'Информация для бумаг_2'!O9</f>
         <v>II-АК 723081</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:6">
-      <c r="A21" s="6" t="str">
+      <c r="A21" s="7" t="str">
         <f>'Информация для бумаг_2'!B10</f>
         <v>Меньшиков </v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" s="7" t="str">
         <f>'Информация для бумаг_2'!C10</f>
         <v>Савва</v>
       </c>
-      <c r="C21" s="6" t="str">
+      <c r="C21" s="7" t="str">
         <f>'Информация для бумаг_2'!D10</f>
         <v>Игоревич</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <f>'Информация для бумаг_2'!P10</f>
         <v>39916</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="12" t="str">
+      <c r="E21" s="7"/>
+      <c r="F21" s="13" t="str">
         <f>'Информация для бумаг_2'!O10</f>
         <v>II-AK 723 081</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:6">
-      <c r="A22" s="6" t="str">
+      <c r="A22" s="7" t="str">
         <f>'Информация для бумаг_2'!B11</f>
         <v>Островский</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" s="7" t="str">
         <f>'Информация для бумаг_2'!C11</f>
         <v>Виктор</v>
       </c>
-      <c r="C22" s="6" t="str">
+      <c r="C22" s="7" t="str">
         <f>'Информация для бумаг_2'!D11</f>
         <v>Владиславович</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <f>'Информация для бумаг_2'!P11</f>
         <v>40070</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="12" t="str">
+      <c r="E22" s="7"/>
+      <c r="F22" s="13" t="str">
         <f>'Информация для бумаг_2'!O11</f>
         <v>II-АК 745451</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:6">
-      <c r="A23" s="6" t="str">
+      <c r="A23" s="7" t="str">
         <f>'Информация для бумаг_2'!B12</f>
         <v>Сайчик</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B23" s="7" t="str">
         <f>'Информация для бумаг_2'!C12</f>
         <v>Мария</v>
       </c>
-      <c r="C23" s="6" t="str">
+      <c r="C23" s="7" t="str">
         <f>'Информация для бумаг_2'!D12</f>
         <v>Владимировна</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <f>'Информация для бумаг_2'!P12</f>
         <v>38982</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="12">
+      <c r="E23" s="7"/>
+      <c r="F23" s="13">
         <f>'Информация для бумаг_2'!O12</f>
         <v>4020691039</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:6">
-      <c r="A24" s="6" t="str">
+      <c r="A24" s="7" t="str">
         <f>'Информация для бумаг_2'!B13</f>
         <v>Шеламова</v>
       </c>
-      <c r="B24" s="6" t="str">
+      <c r="B24" s="7" t="str">
         <f>'Информация для бумаг_2'!C13</f>
         <v>Виктория</v>
       </c>
-      <c r="C24" s="6" t="str">
+      <c r="C24" s="7" t="str">
         <f>'Информация для бумаг_2'!D13</f>
         <v>Сергеевна</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <f>'Информация для бумаг_2'!P13</f>
         <v>39529</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="12">
+      <c r="E24" s="7"/>
+      <c r="F24" s="13">
         <f>'Информация для бумаг_2'!O13</f>
         <v>4022149794</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="1:6">
-      <c r="A25" s="6" t="str">
+      <c r="A25" s="7" t="str">
         <f>'Информация для бумаг_2'!B14</f>
         <v>Шилонцев</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B25" s="7" t="str">
         <f>'Информация для бумаг_2'!C14</f>
         <v>Андрей</v>
       </c>
-      <c r="C25" s="6" t="str">
+      <c r="C25" s="7" t="str">
         <f>'Информация для бумаг_2'!D14</f>
         <v>Александрович</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <f>'Информация для бумаг_2'!P14</f>
         <v>38989</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="12">
+      <c r="E25" s="7"/>
+      <c r="F25" s="13">
         <f>'Информация для бумаг_2'!O14</f>
         <v>4020684651</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:6">
-      <c r="A26" s="6" t="str">
+      <c r="A26" s="7" t="str">
         <f>'Информация для бумаг_2'!B15</f>
         <v>Шишкина</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="7" t="str">
         <f>'Информация для бумаг_2'!C15</f>
         <v>Анна</v>
       </c>
-      <c r="C26" s="6" t="str">
+      <c r="C26" s="7" t="str">
         <f>'Информация для бумаг_2'!D15</f>
         <v>Андреевна</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <f>'Информация для бумаг_2'!P15</f>
         <v>39987</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="12" t="str">
+      <c r="E26" s="7"/>
+      <c r="F26" s="13" t="str">
         <f>'Информация для бумаг_2'!O15</f>
         <v>II-АК 731804</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:6">
-      <c r="A27" s="6" t="str">
+      <c r="A27" s="7" t="str">
         <f>'Информация для бумаг_2'!B16</f>
         <v>Нужин</v>
       </c>
-      <c r="B27" s="6" t="str">
+      <c r="B27" s="7" t="str">
         <f>'Информация для бумаг_2'!C16</f>
         <v>Илья</v>
       </c>
-      <c r="C27" s="6" t="str">
+      <c r="C27" s="7" t="str">
         <f>'Информация для бумаг_2'!D16</f>
         <v>Мулложонович</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <f>'Информация для бумаг_2'!P16</f>
         <v>38933</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="12">
+      <c r="E27" s="7"/>
+      <c r="F27" s="13">
         <f>'Информация для бумаг_2'!O16</f>
         <v>4020668443</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:6">
-      <c r="A28" s="6" t="str">
+      <c r="A28" s="7" t="str">
         <f>'Информация для бумаг_2'!B17</f>
         <v>Тюпин</v>
       </c>
-      <c r="B28" s="6" t="str">
+      <c r="B28" s="7" t="str">
         <f>'Информация для бумаг_2'!C17</f>
         <v>Арсений</v>
       </c>
-      <c r="C28" s="6" t="str">
+      <c r="C28" s="7" t="str">
         <f>'Информация для бумаг_2'!D17</f>
         <v>Евгеньевич</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <f>'Информация для бумаг_2'!P17</f>
         <v>39810</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="12">
+      <c r="E28" s="7"/>
+      <c r="F28" s="13">
         <f>'Информация для бумаг_2'!O17</f>
-        <v>0</v>
+        <v>4022372441</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="4:4">
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" ht="15.6" spans="1:4">
-      <c r="A30" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="7"/>
+      <c r="A30" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" ht="15.6" spans="1:4">
-      <c r="A31" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="C31" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" ht="15.6" spans="1:4">
-      <c r="A32" s="14">
+      <c r="A32" s="1">
         <v>89217427984</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" ht="15.6" spans="1:4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" ht="15.6" spans="1:4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5426,13 +5380,13 @@
       <c r="A16" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="149"/>
       <c r="H16" s="90" t="s">
         <v>61</v>
       </c>
@@ -6093,7 +6047,7 @@
         <v>9213827100</v>
       </c>
     </row>
-    <row r="17" ht="26.4" spans="1:9">
+    <row r="17" spans="1:9">
       <c r="A17" s="47"/>
       <c r="B17" s="47" t="str">
         <f>CONCATENATE('Информация для бумаг_2'!B17," ",'Информация для бумаг_2'!C17," ",'Информация для бумаг_2'!D17)</f>
@@ -6117,7 +6071,7 @@
       </c>
       <c r="G17" s="46">
         <f>'Информация для бумаг_2'!O17</f>
-        <v>0</v>
+        <v>4022372441</v>
       </c>
       <c r="H17" s="47" t="str">
         <f>'Информация для бумаг_2'!L17</f>
@@ -6224,39 +6178,39 @@
   <sheetPr/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="14"/>
-    <col min="2" max="2" width="28.8518518518519" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="14"/>
-    <col min="4" max="4" width="13.1388888888889" style="14"/>
-    <col min="5" max="5" width="21.4259259259259" style="14"/>
-    <col min="6" max="6" width="12.8888888888889" style="14"/>
-    <col min="7" max="7" width="9.28703703703704" style="14"/>
-    <col min="8" max="8" width="9" style="14"/>
-    <col min="9" max="9" width="12.1388888888889" style="10"/>
-    <col min="10" max="10" width="19.4259259259259" style="14"/>
-    <col min="11" max="11" width="28.1388888888889" style="14"/>
-    <col min="12" max="12" width="31.4259259259259" style="14"/>
-    <col min="13" max="13" width="18.5740740740741" style="14" customWidth="1"/>
-    <col min="14" max="14" width="14.3333333333333" style="14"/>
-    <col min="15" max="15" width="14.5740740740741" style="14" customWidth="1"/>
-    <col min="16" max="16" width="18.8518518518519" style="14"/>
-    <col min="17" max="17" width="14.1388888888889" style="14"/>
-    <col min="18" max="16384" width="8" style="14"/>
+    <col min="1" max="1" width="8" style="1"/>
+    <col min="2" max="2" width="28.8518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" style="1"/>
+    <col min="4" max="4" width="13.1388888888889" style="1"/>
+    <col min="5" max="5" width="21.4259259259259" style="1"/>
+    <col min="6" max="6" width="12.8888888888889" style="1"/>
+    <col min="7" max="7" width="9.28703703703704" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.1388888888889" style="11"/>
+    <col min="10" max="10" width="19.4259259259259" style="1"/>
+    <col min="11" max="11" width="28.1388888888889" style="1"/>
+    <col min="12" max="12" width="31.4259259259259" style="1"/>
+    <col min="13" max="13" width="18.5740740740741" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.3333333333333" style="1"/>
+    <col min="15" max="15" width="14.5740740740741" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.8518518518519" style="1"/>
+    <col min="17" max="17" width="14.1388888888889" style="1"/>
+    <col min="18" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="50">
@@ -6268,7 +6222,7 @@
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="50" t="s">
@@ -6277,63 +6231,63 @@
       <c r="D3" s="51"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>95</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>100</v>
       </c>
       <c r="O4" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:16">
-      <c r="A5" s="14">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>104</v>
       </c>
       <c r="E5" s="24">
@@ -6343,42 +6297,42 @@
         <v>0</v>
       </c>
       <c r="G5" s="53"/>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>777</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>9</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>9602540838</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>105</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>9632430934</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="7">
         <v>4022245584</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="8">
         <v>39646</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:16">
-      <c r="A6" s="14">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="24">
@@ -6388,42 +6342,42 @@
         <v>0</v>
       </c>
       <c r="G6" s="53"/>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>655</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>7</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>9602540838</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>105</v>
       </c>
       <c r="L6" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <v>9632430934</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="8">
         <v>40579</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:16">
-      <c r="A7" s="14">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E7" s="24">
@@ -6433,42 +6387,42 @@
         <v>18</v>
       </c>
       <c r="G7" s="53"/>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>56</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>9</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <v>89291040939</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>112</v>
       </c>
       <c r="L7" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>89052622652</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="7">
         <v>4022381251</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="8">
         <v>39849</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:16">
-      <c r="A8" s="14">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E8" s="24">
@@ -6478,42 +6432,42 @@
         <v>5</v>
       </c>
       <c r="G8" s="53"/>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>441</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>10</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <v>9522270284</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L8" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="7">
         <v>9213354865</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <v>39166</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:16">
-      <c r="A9" s="14">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E9" s="24">
@@ -6523,42 +6477,42 @@
         <v>7</v>
       </c>
       <c r="G9" s="53"/>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>204</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>9</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>9259175393</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L9" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>9217427984</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="8">
         <v>39581</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:16">
-      <c r="A10" s="14">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E10" s="24">
@@ -6568,42 +6522,42 @@
         <v>8</v>
       </c>
       <c r="G10" s="53"/>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>533</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>8</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <v>9218718088</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>128</v>
       </c>
       <c r="L10" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="7">
         <v>9213290657</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="8">
         <v>39916</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:16">
-      <c r="A11" s="14">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>133</v>
       </c>
       <c r="E11" s="24">
@@ -6613,42 +6567,42 @@
         <v>9</v>
       </c>
       <c r="G11" s="53"/>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>518</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>8</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>9213409406</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>134</v>
       </c>
       <c r="L11" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="7">
         <v>9817075769</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="8">
         <v>40070</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:16">
-      <c r="A12" s="14">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E12" s="24">
@@ -6658,42 +6612,42 @@
         <v>16</v>
       </c>
       <c r="G12" s="53"/>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>586</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>11</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="7">
         <v>89818723635</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>140</v>
       </c>
       <c r="L12" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <v>89818723635</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="7">
         <v>4020691039</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="8">
         <v>38982</v>
       </c>
     </row>
-    <row r="13" s="147" customFormat="1" ht="15.6" spans="1:16">
-      <c r="A13" s="14">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:16">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="24">
@@ -6703,43 +6657,42 @@
         <v>15</v>
       </c>
       <c r="G13" s="53"/>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>471</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>9</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <v>9817032760</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L13" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="6">
+      <c r="N13" s="7">
         <v>9111407222</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="7">
         <v>4022149794</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="8">
         <v>39529</v>
       </c>
     </row>
-    <row r="14" s="147" customFormat="1" ht="15.6" spans="1:16">
-      <c r="A14" s="14">
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="1:16">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E14" s="24">
@@ -6749,43 +6702,42 @@
         <v>0</v>
       </c>
       <c r="G14" s="53"/>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>452</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>9</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="7">
         <v>89213026506</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L14" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="6">
+      <c r="N14" s="7">
         <v>89213026506</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="7">
         <v>4020684651</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="8">
         <v>38989</v>
       </c>
     </row>
-    <row r="15" s="147" customFormat="1" ht="15.6" spans="1:16">
-      <c r="A15" s="14">
+    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:16">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E15" s="24">
@@ -6795,43 +6747,42 @@
         <v>14</v>
       </c>
       <c r="G15" s="53"/>
-      <c r="H15" s="6">
+      <c r="H15" s="7">
         <v>43</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="7">
         <v>8</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="7">
         <v>9819793731</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L15" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="6">
+      <c r="N15" s="7">
         <v>9118110171</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="8">
         <v>39987</v>
       </c>
     </row>
-    <row r="16" s="147" customFormat="1" ht="15.6" spans="1:16">
-      <c r="A16" s="14">
+    <row r="16" s="1" customFormat="1" ht="15.6" spans="1:16">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>160</v>
       </c>
       <c r="E16" s="24">
@@ -6841,43 +6792,42 @@
         <v>0</v>
       </c>
       <c r="G16" s="53"/>
-      <c r="H16" s="6">
+      <c r="H16" s="7">
         <v>30</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="7">
         <v>11</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="7">
         <v>89219583612</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="7" t="s">
         <v>161</v>
       </c>
       <c r="L16" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="6">
+      <c r="N16" s="7">
         <v>9213827100</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="7">
         <v>4020668443</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="8">
         <v>38933</v>
       </c>
     </row>
-    <row r="17" s="147" customFormat="1" ht="15.6" spans="1:16">
-      <c r="A17" s="14">
+    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:16">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E17" s="24">
@@ -6887,83 +6837,75 @@
         <v>0</v>
       </c>
       <c r="G17" s="53"/>
-      <c r="H17" s="6">
+      <c r="H17" s="7">
         <v>555</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <v>8</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="7">
         <v>89200043637</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L17" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="6">
+      <c r="N17" s="7">
         <v>9914876053</v>
       </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="O17" s="31">
+        <v>4022372441</v>
+      </c>
+      <c r="P17" s="8">
         <v>39810</v>
       </c>
     </row>
-    <row r="18" s="147" customFormat="1" ht="15.6" spans="2:16">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+    <row r="18" s="1" customFormat="1" ht="15.6" spans="2:16">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="53"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="61"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" s="147" customFormat="1" ht="15.6" spans="2:16">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15.6" spans="2:16">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="53"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="61"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" s="147" customFormat="1" spans="3:9">
-      <c r="C20" s="148"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="149"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="5:9">
+      <c r="E20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F21" s="54">
@@ -6971,13 +6913,13 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C22" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="54">
@@ -6985,7 +6927,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C24" s="50">
@@ -6993,7 +6935,7 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C25" s="54">
@@ -7001,7 +6943,7 @@
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C26" s="55"/>
@@ -8252,33 +8194,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="14"/>
-    <col min="2" max="2" width="28.8518518518519" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10.8888888888889" style="14"/>
-    <col min="4" max="4" width="13.1388888888889" style="14"/>
-    <col min="5" max="5" width="21.4259259259259" style="14"/>
-    <col min="6" max="6" width="12.8518518518519" style="14"/>
-    <col min="7" max="7" width="9.28703703703704" style="14"/>
-    <col min="8" max="8" width="9" style="14"/>
-    <col min="9" max="9" width="12.1388888888889" style="10"/>
-    <col min="10" max="10" width="19.4259259259259" style="14"/>
-    <col min="11" max="11" width="28.1388888888889" style="14"/>
-    <col min="12" max="12" width="31.4259259259259" style="14"/>
-    <col min="13" max="13" width="18.5740740740741" style="14" customWidth="1"/>
-    <col min="14" max="14" width="14.3333333333333" style="14"/>
-    <col min="15" max="15" width="14.5740740740741" style="14" customWidth="1"/>
-    <col min="16" max="16" width="18.8518518518519" style="14"/>
-    <col min="17" max="17" width="14.1388888888889" style="14"/>
-    <col min="18" max="16384" width="8" style="14"/>
+    <col min="1" max="1" width="8" style="1"/>
+    <col min="2" max="2" width="28.8518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8888888888889" style="1"/>
+    <col min="4" max="4" width="13.1388888888889" style="1"/>
+    <col min="5" max="5" width="21.4259259259259" style="1"/>
+    <col min="6" max="6" width="12.8518518518519" style="1"/>
+    <col min="7" max="7" width="9.28703703703704" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="12.1388888888889" style="11"/>
+    <col min="10" max="10" width="19.4259259259259" style="1"/>
+    <col min="11" max="11" width="28.1388888888889" style="1"/>
+    <col min="12" max="12" width="31.4259259259259" style="1"/>
+    <col min="13" max="13" width="18.5740740740741" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.3333333333333" style="1"/>
+    <col min="15" max="15" width="14.5740740740741" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.8518518518519" style="1"/>
+    <col min="17" max="17" width="14.1388888888889" style="1"/>
+    <col min="18" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="2:5">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C2" s="50">
@@ -8290,7 +8232,7 @@
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="50" t="s">
@@ -8299,63 +8241,63 @@
       <c r="D3" s="51"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>95</v>
       </c>
       <c r="H4" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="14" t="s">
         <v>100</v>
       </c>
       <c r="O4" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:16">
-      <c r="A5" s="14">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>187</v>
       </c>
       <c r="E5" s="24">
@@ -8365,42 +8307,42 @@
         <v>2</v>
       </c>
       <c r="G5" s="53"/>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>197</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>8</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>9119433692</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>188</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>9119433692</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="8">
         <v>40100</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:16">
-      <c r="A6" s="14">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>111</v>
       </c>
       <c r="E6" s="24">
@@ -8410,42 +8352,42 @@
         <v>18</v>
       </c>
       <c r="G6" s="53"/>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>56</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>9</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>89291040939</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>112</v>
       </c>
       <c r="L6" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <v>89052622652</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="7">
         <v>4022381251</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="8">
         <v>39849</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:16">
-      <c r="A7" s="14">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>193</v>
       </c>
       <c r="E7" s="24">
@@ -8455,42 +8397,42 @@
         <v>6</v>
       </c>
       <c r="G7" s="53"/>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>92</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>7</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <v>9219845986</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>194</v>
       </c>
       <c r="L7" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <v>9213323160</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="8">
         <v>40363</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:16">
-      <c r="A8" s="14">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>139</v>
       </c>
       <c r="E8" s="24">
@@ -8500,42 +8442,42 @@
         <v>16</v>
       </c>
       <c r="G8" s="53"/>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>586</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>11</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <v>89818723635</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>140</v>
       </c>
       <c r="L8" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="7">
         <v>89818723635</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="7">
         <v>4020691039</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <v>38982</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:16">
-      <c r="A9" s="14">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>199</v>
       </c>
       <c r="E9" s="24">
@@ -8545,42 +8487,42 @@
         <v>11</v>
       </c>
       <c r="G9" s="53"/>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>617</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>6</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>9045564762</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>200</v>
       </c>
       <c r="L9" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>9030941182</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="8">
         <v>40469</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:16">
-      <c r="A10" s="14">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E10" s="24">
@@ -8590,42 +8532,42 @@
         <v>12</v>
       </c>
       <c r="G10" s="53"/>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>64</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>8</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <v>9657737525</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>205</v>
       </c>
       <c r="L10" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="7">
         <v>9657737525</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="8">
         <v>40195</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:16">
-      <c r="A11" s="14">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="24">
@@ -8635,42 +8577,42 @@
         <v>15</v>
       </c>
       <c r="G11" s="53"/>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>471</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>9</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>9817032760</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>145</v>
       </c>
       <c r="L11" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="7">
         <v>9111407222</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="7">
         <v>4022149794</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="8">
         <v>39529</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:16">
-      <c r="A12" s="14">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>149</v>
       </c>
       <c r="E12" s="24">
@@ -8680,42 +8622,42 @@
         <v>0</v>
       </c>
       <c r="G12" s="53"/>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>452</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>9</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="7">
         <v>89213026506</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L12" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <v>89213026506</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="7">
         <v>4020684651</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="8">
         <v>38989</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:16">
-      <c r="A13" s="14">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E13" s="24">
@@ -8725,55 +8667,55 @@
         <v>0</v>
       </c>
       <c r="G13" s="53"/>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>503</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>8</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <v>9818295984</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="7" t="s">
         <v>210</v>
       </c>
       <c r="L13" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="7">
         <v>9213414725</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="7">
         <v>4023439220</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="8">
         <v>39857</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="2:16">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="61"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="54">
@@ -8781,13 +8723,13 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C17" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="54">
@@ -8795,7 +8737,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C19" s="50">
@@ -8803,7 +8745,7 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C20" s="54">
@@ -8811,12 +8753,12 @@
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C21" s="55"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" ht="13.95" spans="2:2">
       <c r="B23" s="56" t="s">
         <v>174</v>
       </c>
@@ -9389,42 +9331,42 @@
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.71296296296296" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.712962962963" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.4259259259259" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.287037037037" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.4259259259259" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.287037037037" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.287037037037" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.4259259259259" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.287037037037" style="6" customWidth="1"/>
-    <col min="9" max="9" width="15.287037037037" style="6" customWidth="1"/>
-    <col min="10" max="10" width="15.712962962963" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="15.1388888888889" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.8518518518519" style="6" customWidth="1"/>
-    <col min="14" max="16" width="9.71296296296296" style="6" customWidth="1"/>
-    <col min="17" max="17" width="23" style="6" customWidth="1"/>
-    <col min="18" max="18" width="16.7314814814815" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.71296296296296" style="6"/>
-    <col min="20" max="20" width="14.712962962963" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.71296296296296" style="6"/>
-    <col min="22" max="22" width="13" style="6" customWidth="1"/>
-    <col min="23" max="23" width="13.287037037037" style="6" customWidth="1"/>
-    <col min="24" max="25" width="9.71296296296296" style="6"/>
-    <col min="26" max="26" width="13.712962962963" style="6" customWidth="1"/>
-    <col min="27" max="27" width="11.8888888888889" style="6"/>
-    <col min="28" max="28" width="12.287037037037" style="6" customWidth="1"/>
-    <col min="29" max="30" width="14.287037037037" style="6" customWidth="1"/>
-    <col min="31" max="16384" width="9.71296296296296" style="6"/>
+    <col min="1" max="1" width="15.712962962963" style="7" customWidth="1"/>
+    <col min="2" max="2" width="14.4259259259259" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.287037037037" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.4259259259259" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.287037037037" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.287037037037" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.4259259259259" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.287037037037" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.287037037037" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.712962962963" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.1388888888889" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.8518518518519" style="7" customWidth="1"/>
+    <col min="14" max="16" width="9.71296296296296" style="7" customWidth="1"/>
+    <col min="17" max="17" width="23" style="7" customWidth="1"/>
+    <col min="18" max="18" width="16.7314814814815" style="7" customWidth="1"/>
+    <col min="19" max="19" width="9.71296296296296" style="7"/>
+    <col min="20" max="20" width="14.712962962963" style="7" customWidth="1"/>
+    <col min="21" max="21" width="9.71296296296296" style="7"/>
+    <col min="22" max="22" width="13" style="7" customWidth="1"/>
+    <col min="23" max="23" width="13.287037037037" style="7" customWidth="1"/>
+    <col min="24" max="25" width="9.71296296296296" style="7"/>
+    <col min="26" max="26" width="13.712962962963" style="7" customWidth="1"/>
+    <col min="27" max="27" width="11.8888888888889" style="7"/>
+    <col min="28" max="28" width="12.287037037037" style="7" customWidth="1"/>
+    <col min="29" max="30" width="14.287037037037" style="7" customWidth="1"/>
+    <col min="31" max="16384" width="9.71296296296296" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="57.6" spans="1:30">
@@ -9520,114 +9462,114 @@
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>40100</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="7">
         <v>13</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="7">
         <v>8</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="7">
         <v>197</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="7">
         <v>9119433692</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="7">
         <v>9119433692</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="7" t="s">
         <v>243</v>
       </c>
       <c r="Z2" s="29">
         <v>4016637661</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="8">
         <v>42648</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>39646</v>
       </c>
       <c r="L3" s="29">
@@ -9636,160 +9578,160 @@
       <c r="M3" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="7">
         <v>14</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="7">
         <v>9</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="7">
         <v>777</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="7">
         <v>9602540838</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="7">
         <v>9632430934</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="7" t="s">
         <v>252</v>
       </c>
       <c r="Z3" s="29">
         <v>4005763150</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="8">
         <v>38631</v>
       </c>
-      <c r="AD3" s="7"/>
+      <c r="AD3" s="8"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>18</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>40579</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="8">
         <v>40595</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="7">
         <v>12</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="7">
         <v>7</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="7">
         <v>655</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="7">
         <v>9602540838</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="7">
         <v>9632430934</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="7" t="s">
         <v>252</v>
       </c>
       <c r="Z4" s="29">
         <v>4005763150</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="8">
         <v>38631</v>
       </c>
-      <c r="AD4" s="7"/>
+      <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>21</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>18</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>39849</v>
       </c>
       <c r="L5" s="29">
@@ -9798,37 +9740,37 @@
       <c r="M5" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>14</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="7">
         <v>9</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="7">
         <v>56</v>
       </c>
       <c r="Q5" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="7">
         <v>89291040939</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="7">
         <v>89052622652</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="7" t="s">
         <v>112</v>
       </c>
       <c r="Y5" s="35" t="s">
@@ -9840,79 +9782,79 @@
       <c r="AA5" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="8">
         <v>39323</v>
       </c>
-      <c r="AD5" s="7"/>
+      <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>5</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>265</v>
       </c>
       <c r="K6" s="18">
         <v>39166</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>119</v>
       </c>
       <c r="M6" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="7">
         <v>16</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="7">
         <v>10</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="7">
         <v>441</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="7">
         <v>9522270284</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="7">
         <v>9213354865</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="7" t="s">
         <v>243</v>
       </c>
       <c r="Z6" s="41">
@@ -9921,10 +9863,10 @@
       <c r="AA6" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="8">
         <v>44714</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AC6" s="7" t="s">
         <v>270</v>
       </c>
       <c r="AD6" s="18" t="s">
@@ -9932,68 +9874,68 @@
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>6</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>6</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>40363</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="6">
+      <c r="M7" s="8"/>
+      <c r="N7" s="7">
         <v>12</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="7">
         <v>7</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="7">
         <v>92</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="7">
         <v>9219845986</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="7">
         <v>9213323160</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="7" t="s">
         <v>194</v>
       </c>
       <c r="Y7" s="35" t="s">
@@ -10005,39 +9947,39 @@
       <c r="AA7" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="8">
         <v>39582</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AD7" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>1</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>7</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>7</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="7" t="s">
         <v>282</v>
       </c>
       <c r="K8" s="18">
@@ -10047,37 +9989,37 @@
         <v>124</v>
       </c>
       <c r="M8" s="18"/>
-      <c r="N8" s="6">
+      <c r="N8" s="7">
         <v>15</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="7">
         <v>9</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="7">
         <v>204</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="7">
         <v>9259175393</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="7">
         <v>9217427984</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="7" t="s">
         <v>122</v>
       </c>
       <c r="Y8" s="35" t="s">
@@ -10089,78 +10031,78 @@
       <c r="AA8" s="35" t="s">
         <v>289</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="8">
         <v>37239</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AD8" s="7" t="s">
+      <c r="AD8" s="8" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>8</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>8</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>39916</v>
       </c>
       <c r="L9" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="7">
         <v>13</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="7">
         <v>8</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="7">
         <v>533</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="7">
         <v>9218718088</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="U9" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="7">
         <v>9213290657</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="X9" s="7" t="s">
         <v>128</v>
       </c>
       <c r="Y9" s="35" t="s">
@@ -10172,65 +10114,64 @@
       <c r="AA9" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="8">
         <v>38819</v>
       </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AC9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AD9" s="7" t="s">
+      <c r="AD9" s="8" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>9</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>299</v>
       </c>
       <c r="K10" s="18">
         <v>40070</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>136</v>
       </c>
       <c r="M10" s="18"/>
-      <c r="N10" s="6">
+      <c r="N10" s="7">
         <v>13</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="7">
         <v>8</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="7">
         <v>518</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="7">
         <v>9213409406</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="7" t="s">
         <v>274</v>
       </c>
       <c r="T10" s="35" t="s">
@@ -10245,7 +10186,7 @@
       <c r="W10" s="35">
         <v>9817075769</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="X10" s="7" t="s">
         <v>134</v>
       </c>
       <c r="Y10" s="35" t="s">
@@ -10257,189 +10198,189 @@
       <c r="AA10" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="8">
         <v>43207</v>
       </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AC10" s="7" t="s">
         <v>305</v>
       </c>
       <c r="AD10" s="18">
         <v>40077</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:30">
-      <c r="A11" s="9" t="s">
+    <row r="11" s="7" customFormat="1" spans="1:30">
+      <c r="A11" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>23</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>16</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>38982</v>
       </c>
       <c r="L11" s="27">
         <v>4020691039</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="9">
+      <c r="M11" s="8"/>
+      <c r="N11" s="10">
         <v>16</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="7">
         <v>11</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="7">
         <v>586</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="7">
         <v>89818723635</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="7">
         <v>89818723635</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="X11" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AC11" s="6" t="s">
+      <c r="AC11" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="AD11" s="7"/>
+      <c r="AD11" s="8"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>11</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>11</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="8">
         <v>40469</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <v>12</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="7">
         <v>6</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="7">
         <v>617</v>
       </c>
       <c r="Q12" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="7">
         <v>9045564762</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="7">
         <v>9030941182</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="X12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="7" t="s">
         <v>314</v>
       </c>
       <c r="Z12" s="29">
         <v>4017753196</v>
       </c>
-      <c r="AA12" s="6" t="s">
+      <c r="AA12" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="8">
         <v>42838</v>
       </c>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="AD12" s="7" t="s">
+      <c r="AD12" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>12</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>12</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="7" t="s">
         <v>317</v>
       </c>
       <c r="K13" s="18">
@@ -10449,67 +10390,67 @@
         <v>207</v>
       </c>
       <c r="M13" s="18"/>
-      <c r="N13" s="6">
+      <c r="N13" s="7">
         <v>12</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="7">
         <v>8</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="7">
         <v>64</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="7">
         <v>9657737525</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="7">
         <v>9657737525</v>
       </c>
-      <c r="X13" s="6" t="s">
+      <c r="X13" s="7" t="s">
         <v>205</v>
       </c>
       <c r="AD13" s="18"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>15</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>15</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="8">
         <v>39529</v>
       </c>
       <c r="L14" s="29">
@@ -10518,37 +10459,37 @@
       <c r="M14" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="7">
         <v>14</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="7">
         <v>9</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="7">
         <v>471</v>
       </c>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="7">
         <v>9817032760</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="U14" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="V14" s="6" t="s">
+      <c r="V14" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="7">
         <v>9111407222</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="X14" s="7" t="s">
         <v>145</v>
       </c>
       <c r="Y14" s="35" t="s">
@@ -10560,37 +10501,37 @@
       <c r="AA14" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="8">
         <v>44170</v>
       </c>
-      <c r="AC14" s="6" t="s">
+      <c r="AC14" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="AD14" s="7" t="s">
+      <c r="AD14" s="8" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:30">
-      <c r="A15" s="9" t="s">
+    <row r="15" s="7" customFormat="1" spans="1:30">
+      <c r="A15" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="7">
         <v>20</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>330</v>
       </c>
       <c r="K15" s="18">
@@ -10600,37 +10541,37 @@
         <v>4020684651</v>
       </c>
       <c r="M15" s="18"/>
-      <c r="N15" s="9">
+      <c r="N15" s="10">
         <v>16</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="7">
         <v>9</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="7">
         <v>452</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="7">
         <v>89213026506</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="U15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="7">
         <v>89213026506</v>
       </c>
-      <c r="X15" s="6" t="s">
+      <c r="X15" s="7" t="s">
         <v>150</v>
       </c>
       <c r="Y15" s="35" t="s">
@@ -10645,53 +10586,53 @@
       <c r="AD15" s="18"/>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>14</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="7">
         <v>14</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="8">
         <v>39987</v>
       </c>
       <c r="L16" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="6">
+      <c r="M16" s="8"/>
+      <c r="N16" s="7">
         <v>13</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="7">
         <v>8</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="7">
         <v>43</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="7">
         <v>9819793731</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="7" t="s">
         <v>248</v>
       </c>
       <c r="T16" s="38" t="s">
@@ -10703,10 +10644,10 @@
       <c r="V16" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="7">
         <v>9118110171</v>
       </c>
-      <c r="X16" s="6" t="s">
+      <c r="X16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="Y16" s="38" t="s">
@@ -10718,17 +10659,17 @@
       <c r="AA16" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="8">
         <v>37903</v>
       </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AC16" s="7" t="s">
         <v>157</v>
       </c>
       <c r="AD16" s="42">
         <v>40004</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:30">
+    <row r="17" s="7" customFormat="1" spans="1:30">
       <c r="A17" s="27" t="s">
         <v>158</v>
       </c>
@@ -10742,8 +10683,11 @@
       <c r="E17" s="27">
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>16</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="K17" s="33">
         <v>38933</v>
@@ -10751,23 +10695,23 @@
       <c r="L17" s="24">
         <v>4020668443</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="7">
         <v>16</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="7">
         <v>11</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="7">
         <v>30</v>
       </c>
       <c r="R17" s="21">
         <v>89219583612</v>
       </c>
       <c r="T17" s="39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U17" s="39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V17" s="39" t="s">
         <v>154</v>
@@ -10782,86 +10726,90 @@
       <c r="AD17" s="33"/>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="G18" s="7">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K18" s="8">
         <v>39857</v>
       </c>
       <c r="L18" s="29">
         <v>4023439220</v>
       </c>
-      <c r="M18" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="N18" s="7">
         <v>14</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="7">
         <v>8</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="7">
         <v>503</v>
       </c>
-      <c r="Q18" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="R18" s="6">
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7">
         <v>9818295984</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="T18" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="U18" s="6" t="s">
+      <c r="T18" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="V18" s="6" t="s">
+      <c r="U18" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="V18" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="7">
         <v>9213414725</v>
       </c>
-      <c r="X18" s="6" t="s">
+      <c r="X18" s="7" t="s">
         <v>210</v>
       </c>
       <c r="Y18" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z18" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA18" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="AB18" s="7">
+      <c r="AB18" s="8">
         <v>44209</v>
       </c>
-      <c r="AC18" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="AD18" s="7" t="s">
+      <c r="AC18" s="7" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="19" s="6" customFormat="1" spans="1:30">
+      <c r="AD18" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="1" spans="1:30">
       <c r="A19" s="24" t="s">
         <v>163</v>
       </c>
@@ -10875,33 +10823,35 @@
       <c r="E19" s="24">
         <v>1</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>19</v>
       </c>
       <c r="K19" s="23">
         <v>39810</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="N19" s="6">
+      <c r="L19" s="31">
+        <v>4022372441</v>
+      </c>
+      <c r="N19" s="7">
         <v>14</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="7">
         <v>8</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="7">
         <v>555</v>
       </c>
       <c r="R19" s="24">
         <v>89200043637</v>
       </c>
       <c r="T19" s="24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U19" s="24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V19" s="24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="W19" s="32">
         <v>9914876053</v>
@@ -10913,291 +10863,289 @@
       <c r="AD19" s="23"/>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9">
+      <c r="C22" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
         <v>3</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="10">
         <v>3</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="I22" s="10"/>
+      <c r="J22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K22" s="8">
         <v>39367</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="N22" s="9">
+      <c r="M22" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="N22" s="10">
         <v>15</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="7">
         <v>9</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="7">
         <v>171</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="R22" s="6">
+        <v>362</v>
+      </c>
+      <c r="R22" s="7">
         <v>9817122479</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="T22" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="U22" s="6" t="s">
+      <c r="T22" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="U22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="W22" s="6">
+      <c r="V22" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="W22" s="7">
         <v>9052006465</v>
       </c>
-      <c r="X22" s="6" t="s">
-        <v>364</v>
+      <c r="X22" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="Y22" s="35" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z22" s="35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA22" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB22" s="7">
+        <v>368</v>
+      </c>
+      <c r="AB22" s="8">
         <v>44370</v>
       </c>
-      <c r="AC22" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD22" s="7" t="s">
+      <c r="AC22" s="7" t="s">
         <v>369</v>
       </c>
+      <c r="AD22" s="8" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="G25" s="6">
+      <c r="C25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G25" s="7">
         <v>22</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="7">
         <v>17</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="K25" s="7">
+      <c r="J25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K25" s="8">
         <v>38917</v>
       </c>
       <c r="L25" s="27">
         <v>4002634542</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="9">
+      <c r="M25" s="8"/>
+      <c r="N25" s="10">
         <v>16</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="7">
         <v>11</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="7">
         <v>56</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="7">
         <v>89214136722</v>
       </c>
-      <c r="S25" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="T25" s="6" t="s">
+      <c r="S25" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="U25" s="6" t="s">
+      <c r="T25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="U25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="V25" s="6" t="s">
+      <c r="V25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="7">
         <v>89217427984</v>
       </c>
-      <c r="X25" s="6" t="s">
-        <v>376</v>
+      <c r="X25" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="Y25" s="35" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z25" s="41">
         <v>4023435996</v>
       </c>
       <c r="AA25" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB25" s="7">
+        <v>379</v>
+      </c>
+      <c r="AB25" s="8">
         <v>44985</v>
       </c>
-      <c r="AC25" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD25" s="7" t="s">
+      <c r="AC25" s="7" t="s">
         <v>380</v>
       </c>
+      <c r="AD25" s="8" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K26" s="7">
+      <c r="J26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K26" s="8">
         <v>39462</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>383</v>
+      <c r="L26" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="N26" s="6">
+        <v>385</v>
+      </c>
+      <c r="N26" s="7">
         <v>15</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="7">
         <v>9</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="7">
         <v>597</v>
       </c>
-      <c r="Q26" s="6" t="s">
+      <c r="Q26" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="7">
         <v>89112625350</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="T26" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="U26" s="6" t="s">
+      <c r="T26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="U26" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="V26" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="W26" s="6">
+      <c r="V26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="W26" s="7">
         <v>89219703060</v>
       </c>
-      <c r="X26" s="6" t="s">
-        <v>387</v>
+      <c r="X26" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="Y26" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z26" s="35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AA26" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB26" s="7">
+        <v>391</v>
+      </c>
+      <c r="AB26" s="8">
         <v>42769</v>
       </c>
-      <c r="AD26" s="7"/>
+      <c r="AD26" s="8"/>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="G27" s="6">
+      <c r="G27" s="7">
         <v>17</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="K27" s="7">
+      <c r="J27" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K27" s="8">
         <v>40421</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="6">
+      <c r="L27" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="7">
         <v>12</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="7">
         <v>7</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27" s="7">
         <v>63</v>
       </c>
-      <c r="Q27" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="R27" s="6">
+      <c r="Q27" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="R27" s="7">
         <v>89312784188</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="S27" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="T27" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="U27" s="6" t="s">
+      <c r="T27" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="U27" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="V27" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="W27" s="6">
+      <c r="V27" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="W27" s="7">
         <v>9219572227</v>
       </c>
-      <c r="X27" s="6" t="s">
-        <v>397</v>
+      <c r="X27" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="Y27" s="35" t="s">
         <v>287</v>
@@ -11205,16 +11153,16 @@
       <c r="Z27" s="29">
         <v>4002341319</v>
       </c>
-      <c r="AA27" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB27" s="7">
+      <c r="AA27" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB27" s="8">
         <v>37392</v>
       </c>
-      <c r="AC27" s="6" t="s">
+      <c r="AC27" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AD27" s="7"/>
+      <c r="AD27" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AD27">

--- a/Exp 2023/Exp_2023.xlsx
+++ b/Exp 2023/Exp_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b36106a05bf74bb/Документы/GitHub/Lab-processings/Exp 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_D08EC206F11C93153720B02AEB419BE58E666E0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2CB7168-95BD-4A92-BCC5-8F011CAB500A}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="11_D08EC206F11C93153720B02AEB419BE58E666E0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A405E8-2A56-4903-8C12-CD355E929482}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Марш 2" sheetId="15" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="443">
   <si>
     <t>СПИСОК ГРУППЫ</t>
   </si>
@@ -1426,24 +1426,47 @@
   <si>
     <t>Сроки с 2.08.2023 по 26.08.23</t>
   </si>
+  <si>
+    <t>ГУ МВД России по Спб и ЛО, 02.05.2023</t>
+  </si>
+  <si>
+    <t>ГУ МВД России по Спб и ЛО, 10.06.2022</t>
+  </si>
+  <si>
+    <t>ГУ МВД России по Спб и ЛО, 25.01.2023</t>
+  </si>
+  <si>
+    <t>169-969-624 64</t>
+  </si>
+  <si>
+    <t>Приготовление пищи на костре и газовом обрудовании</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="169" formatCode="#\ ##0"/>
-    <numFmt numFmtId="170" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="171" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="172" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="165" formatCode="#\ ##0"/>
+    <numFmt numFmtId="166" formatCode="dd\.mmm"/>
+    <numFmt numFmtId="167" formatCode="[$-419]d\ mm\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1903,431 +1926,435 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="24" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2413,6 +2440,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2702,23 +2733,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
     </row>
     <row r="2" spans="1:14" ht="51.9" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -2788,13 +2819,13 @@
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="95">
+      <c r="I3" s="66">
         <v>1</v>
       </c>
-      <c r="J3" s="134" t="s">
+      <c r="J3" s="96" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="58" t="s">
@@ -2835,11 +2866,11 @@
       <c r="G4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="96">
+      <c r="H4" s="136"/>
+      <c r="I4" s="67">
         <v>2</v>
       </c>
-      <c r="J4" s="134" t="s">
+      <c r="J4" s="96" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="58" t="s">
@@ -2878,11 +2909,11 @@
       <c r="G5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="95">
+      <c r="H5" s="136"/>
+      <c r="I5" s="66">
         <v>3</v>
       </c>
-      <c r="J5" s="135" t="s">
+      <c r="J5" s="97" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="58" t="s">
@@ -2923,7 +2954,7 @@
       <c r="G6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="72"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="42"/>
       <c r="J6" s="57"/>
       <c r="K6" s="58"/>
@@ -2958,7 +2989,7 @@
       <c r="G7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="136"/>
       <c r="I7" s="37"/>
       <c r="J7" s="57"/>
       <c r="K7" s="58"/>
@@ -2993,7 +3024,7 @@
       <c r="G8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="72"/>
+      <c r="H8" s="136"/>
       <c r="N8" s="61"/>
     </row>
     <row r="9" spans="1:14" s="24" customFormat="1">
@@ -3023,7 +3054,7 @@
       <c r="G9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="72"/>
+      <c r="H9" s="136"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
@@ -3057,7 +3088,7 @@
       <c r="G10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="72"/>
+      <c r="H10" s="136"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -3091,7 +3122,7 @@
       <c r="G11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="72"/>
+      <c r="H11" s="136"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
@@ -3125,7 +3156,7 @@
       <c r="G12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="136"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
@@ -3159,7 +3190,7 @@
       <c r="G13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="72"/>
+      <c r="H13" s="136"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
@@ -3193,7 +3224,7 @@
       <c r="G14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="72"/>
+      <c r="H14" s="136"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
@@ -3227,7 +3258,7 @@
       <c r="G15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="72"/>
+      <c r="H15" s="136"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
@@ -3242,7 +3273,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="72"/>
+      <c r="H16" s="136"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
@@ -3257,7 +3288,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="40"/>
       <c r="G17" s="41"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
@@ -3272,7 +3303,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
-      <c r="H18" s="72"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
@@ -3287,7 +3318,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41"/>
-      <c r="H19" s="72"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
@@ -3302,7 +3333,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="136"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -3317,7 +3348,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
-      <c r="H21" s="72"/>
+      <c r="H21" s="136"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
@@ -3332,7 +3363,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="136"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
@@ -3347,7 +3378,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="136"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
@@ -3362,7 +3393,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="45"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="72"/>
+      <c r="H24" s="136"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
@@ -3377,7 +3408,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="45"/>
       <c r="G25" s="41"/>
-      <c r="H25" s="72"/>
+      <c r="H25" s="136"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
@@ -3387,7 +3418,7 @@
     <row r="26" spans="1:13" s="24" customFormat="1" ht="12">
       <c r="A26" s="46"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="136"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -3401,13 +3432,13 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C27" s="39"/>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="140"/>
       <c r="F27" s="49"/>
       <c r="G27" s="41"/>
-      <c r="H27" s="72"/>
+      <c r="H27" s="136"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
@@ -3421,20 +3452,20 @@
         <v>Гаврилова Елизавета Олеговна</v>
       </c>
       <c r="C28" s="39"/>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="65"/>
+      <c r="E28" s="140"/>
       <c r="F28" s="49"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="66" t="s">
+      <c r="H28" s="136"/>
+      <c r="I28" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="68"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="143"/>
     </row>
     <row r="29" spans="1:13" ht="15.6">
       <c r="A29" s="50" t="s">
@@ -3446,7 +3477,7 @@
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
-      <c r="H29" s="73"/>
+      <c r="H29" s="137"/>
       <c r="I29" s="12" t="s">
         <v>28</v>
       </c>
@@ -3455,10 +3486,10 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="134"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -3914,30 +3945,30 @@
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="B31" s="98">
+      <c r="B31" s="69">
         <v>38933</v>
       </c>
-      <c r="C31" s="99">
+      <c r="C31" s="70">
         <v>89219583612</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="71" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="68" t="s">
         <v>406</v>
       </c>
-      <c r="B32" s="101">
+      <c r="B32" s="72">
         <v>39810</v>
       </c>
-      <c r="C32" s="97">
+      <c r="C32" s="68">
         <v>89200043637</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="68" t="s">
         <v>417</v>
       </c>
     </row>
@@ -3957,654 +3988,654 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="102" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="102" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="102" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="102" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="102" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="164" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="102"/>
+    <col min="1" max="1" width="18.88671875" style="73" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="73" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="125" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="126" t="s">
         <v>407</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="126" t="s">
         <v>408</v>
       </c>
-      <c r="F1" s="166" t="s">
+      <c r="F1" s="127" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="126" t="s">
         <v>410</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="126" t="s">
         <v>411</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="166"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="111" t="str">
+      <c r="A3" s="82" t="str">
         <f>'Информация для бумаг_1'!B5</f>
         <v>Аудах</v>
       </c>
-      <c r="B3" s="111" t="str">
+      <c r="B3" s="82" t="str">
         <f>'Информация для бумаг_1'!C5</f>
         <v>Никита</v>
       </c>
-      <c r="C3" s="111" t="str">
+      <c r="C3" s="82" t="str">
         <f>'Информация для бумаг_1'!D5</f>
         <v>Яхияевич</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="84">
         <f>'Информация для бумаг_1'!P5</f>
         <v>40100</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="159" t="str">
+      <c r="E3" s="82"/>
+      <c r="F3" s="120" t="str">
         <f>'Информация для бумаг_1'!O5</f>
         <v>V-АК 731292</v>
       </c>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="111" t="str">
+      <c r="A4" s="82" t="str">
         <f>'Информация для бумаг_1'!B6</f>
         <v>Бритиков</v>
       </c>
-      <c r="B4" s="111" t="str">
+      <c r="B4" s="82" t="str">
         <f>'Информация для бумаг_1'!C6</f>
         <v>Александр</v>
       </c>
-      <c r="C4" s="111" t="str">
+      <c r="C4" s="82" t="str">
         <f>'Информация для бумаг_1'!D6</f>
         <v>Ильич</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="84">
         <f>'Информация для бумаг_1'!P6</f>
         <v>39849</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="159">
+      <c r="E4" s="82"/>
+      <c r="F4" s="120">
         <f>'Информация для бумаг_1'!O6</f>
         <v>4022381251</v>
       </c>
-      <c r="H4" s="111"/>
+      <c r="H4" s="82"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="111" t="str">
+      <c r="A5" s="82" t="str">
         <f>'Информация для бумаг_1'!B7</f>
         <v>Киселев</v>
       </c>
-      <c r="B5" s="111" t="str">
+      <c r="B5" s="82" t="str">
         <f>'Информация для бумаг_1'!C7</f>
         <v>Вениамин</v>
       </c>
-      <c r="C5" s="111" t="str">
+      <c r="C5" s="82" t="str">
         <f>'Информация для бумаг_1'!D7</f>
         <v>Алексеевич</v>
       </c>
-      <c r="D5" s="113">
+      <c r="D5" s="84">
         <f>'Информация для бумаг_1'!P7</f>
         <v>40363</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="159" t="str">
+      <c r="E5" s="82"/>
+      <c r="F5" s="120" t="str">
         <f>'Информация для бумаг_1'!O7</f>
         <v>II-AK 798373</v>
       </c>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="111" t="str">
+      <c r="A6" s="82" t="str">
         <f>'Информация для бумаг_1'!B8</f>
         <v>Сайчик</v>
       </c>
-      <c r="B6" s="111" t="str">
+      <c r="B6" s="82" t="str">
         <f>'Информация для бумаг_1'!C8</f>
         <v>Мария</v>
       </c>
-      <c r="C6" s="111" t="str">
+      <c r="C6" s="82" t="str">
         <f>'Информация для бумаг_1'!D8</f>
         <v>Владимировна</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="84">
         <f>'Информация для бумаг_1'!P8</f>
         <v>38982</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="159">
+      <c r="E6" s="82"/>
+      <c r="F6" s="120">
         <f>'Информация для бумаг_1'!O8</f>
         <v>4020691039</v>
       </c>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="111" t="str">
+      <c r="A7" s="82" t="str">
         <f>'Информация для бумаг_1'!B9</f>
         <v>Тихонов</v>
       </c>
-      <c r="B7" s="111" t="str">
+      <c r="B7" s="82" t="str">
         <f>'Информация для бумаг_1'!C9</f>
         <v>Иван</v>
       </c>
-      <c r="C7" s="111" t="str">
+      <c r="C7" s="82" t="str">
         <f>'Информация для бумаг_1'!D9</f>
         <v>Андреевич</v>
       </c>
-      <c r="D7" s="113">
+      <c r="D7" s="84">
         <f>'Информация для бумаг_1'!P9</f>
         <v>40469</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="159" t="str">
+      <c r="E7" s="82"/>
+      <c r="F7" s="120" t="str">
         <f>'Информация для бумаг_1'!O9</f>
         <v>II-АК 864038</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="111"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="111" t="str">
+      <c r="A8" s="82" t="str">
         <f>'Информация для бумаг_1'!B10</f>
         <v>Федорова</v>
       </c>
-      <c r="B8" s="111" t="str">
+      <c r="B8" s="82" t="str">
         <f>'Информация для бумаг_1'!C10</f>
         <v>Ксения</v>
       </c>
-      <c r="C8" s="111" t="str">
+      <c r="C8" s="82" t="str">
         <f>'Информация для бумаг_1'!D10</f>
         <v>Сергеевна</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="84">
         <f>'Информация для бумаг_1'!P10</f>
         <v>40195</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="159" t="str">
+      <c r="E8" s="82"/>
+      <c r="F8" s="120" t="str">
         <f>'Информация для бумаг_1'!O10</f>
         <v>II-АК 789060</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="111" t="str">
+      <c r="A9" s="82" t="str">
         <f>'Информация для бумаг_1'!B11</f>
         <v>Шеламова</v>
       </c>
-      <c r="B9" s="111" t="str">
+      <c r="B9" s="82" t="str">
         <f>'Информация для бумаг_1'!C11</f>
         <v>Виктория</v>
       </c>
-      <c r="C9" s="111" t="str">
+      <c r="C9" s="82" t="str">
         <f>'Информация для бумаг_1'!D11</f>
         <v>Сергеевна</v>
       </c>
-      <c r="D9" s="113">
+      <c r="D9" s="84">
         <f>'Информация для бумаг_1'!P11</f>
         <v>39529</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="159">
+      <c r="E9" s="82"/>
+      <c r="F9" s="120">
         <f>'Информация для бумаг_1'!O11</f>
         <v>4022149794</v>
       </c>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="111" t="str">
+      <c r="A10" s="82" t="str">
         <f>'Информация для бумаг_1'!B12</f>
         <v>Шилонцев</v>
       </c>
-      <c r="B10" s="111" t="str">
+      <c r="B10" s="82" t="str">
         <f>'Информация для бумаг_1'!C12</f>
         <v>Андрей</v>
       </c>
-      <c r="C10" s="111" t="str">
+      <c r="C10" s="82" t="str">
         <f>'Информация для бумаг_1'!D12</f>
         <v>Александрович</v>
       </c>
-      <c r="D10" s="113">
+      <c r="D10" s="84">
         <f>'Информация для бумаг_1'!P12</f>
         <v>38989</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="159">
+      <c r="E10" s="82"/>
+      <c r="F10" s="120">
         <f>'Информация для бумаг_1'!O12</f>
         <v>4020684651</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="111" t="str">
+      <c r="A11" s="82" t="str">
         <f>'Информация для бумаг_1'!B13</f>
         <v>Бекасов</v>
       </c>
-      <c r="B11" s="111" t="str">
+      <c r="B11" s="82" t="str">
         <f>'Информация для бумаг_1'!C13</f>
         <v>Емельян</v>
       </c>
-      <c r="C11" s="111" t="str">
+      <c r="C11" s="82" t="str">
         <f>'Информация для бумаг_1'!D13</f>
         <v>Игоревич</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="84">
         <f>'Информация для бумаг_1'!P13</f>
         <v>39857</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="159">
+      <c r="E11" s="82"/>
+      <c r="F11" s="120">
         <f>'Информация для бумаг_1'!O13</f>
         <v>4023439220</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-    </row>
-    <row r="12" spans="1:9" s="103" customFormat="1">
-      <c r="D12" s="105"/>
-    </row>
-    <row r="13" spans="1:9" s="103" customFormat="1">
-      <c r="D13" s="105"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:9" s="74" customFormat="1">
+      <c r="D12" s="76"/>
+    </row>
+    <row r="13" spans="1:9" s="74" customFormat="1">
+      <c r="D13" s="76"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="124" t="s">
         <v>412</v>
       </c>
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="126" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="165" t="s">
+      <c r="B15" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="165" t="s">
+      <c r="C15" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="165" t="s">
+      <c r="D15" s="126" t="s">
         <v>407</v>
       </c>
-      <c r="E15" s="165" t="s">
+      <c r="E15" s="126" t="s">
         <v>408</v>
       </c>
-      <c r="F15" s="166" t="s">
+      <c r="F15" s="127" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="111" t="str">
+      <c r="A16" s="82" t="str">
         <f>'Информация для бумаг_2'!B5</f>
         <v>Беляева</v>
       </c>
-      <c r="B16" s="111" t="str">
+      <c r="B16" s="82" t="str">
         <f>'Информация для бумаг_2'!C5</f>
         <v>Олеся</v>
       </c>
-      <c r="C16" s="111" t="str">
+      <c r="C16" s="82" t="str">
         <f>'Информация для бумаг_2'!D5</f>
         <v>Ивановна</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="84">
         <f>'Информация для бумаг_2'!P5</f>
         <v>39646</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="167">
+      <c r="E16" s="82"/>
+      <c r="F16" s="128">
         <f>'Информация для бумаг_2'!O5</f>
         <v>4022245584</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="111" t="str">
+      <c r="A17" s="82" t="str">
         <f>'Информация для бумаг_2'!B6</f>
         <v>Беляева</v>
       </c>
-      <c r="B17" s="111" t="str">
+      <c r="B17" s="82" t="str">
         <f>'Информация для бумаг_2'!C6</f>
         <v>Софья</v>
       </c>
-      <c r="C17" s="111" t="str">
+      <c r="C17" s="82" t="str">
         <f>'Информация для бумаг_2'!D6</f>
         <v>Ивановна</v>
       </c>
-      <c r="D17" s="113">
+      <c r="D17" s="84">
         <f>'Информация для бумаг_2'!P6</f>
         <v>40579</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="167" t="str">
+      <c r="E17" s="82"/>
+      <c r="F17" s="128" t="str">
         <f>'Информация для бумаг_2'!O6</f>
         <v>II-АК 879324</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="111" t="str">
+      <c r="A18" s="82" t="str">
         <f>'Информация для бумаг_2'!B7</f>
         <v>Бритиков</v>
       </c>
-      <c r="B18" s="111" t="str">
+      <c r="B18" s="82" t="str">
         <f>'Информация для бумаг_2'!C7</f>
         <v>Александр</v>
       </c>
-      <c r="C18" s="111" t="str">
+      <c r="C18" s="82" t="str">
         <f>'Информация для бумаг_2'!D7</f>
         <v>Ильич</v>
       </c>
-      <c r="D18" s="113">
+      <c r="D18" s="84">
         <f>'Информация для бумаг_2'!P7</f>
         <v>39849</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="167">
+      <c r="E18" s="82"/>
+      <c r="F18" s="128">
         <f>'Информация для бумаг_2'!O7</f>
         <v>4022381251</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="111" t="str">
+      <c r="A19" s="82" t="str">
         <f>'Информация для бумаг_2'!B8</f>
         <v>Ершова</v>
       </c>
-      <c r="B19" s="111" t="str">
+      <c r="B19" s="82" t="str">
         <f>'Информация для бумаг_2'!C8</f>
         <v>Татьяна</v>
       </c>
-      <c r="C19" s="111" t="str">
+      <c r="C19" s="82" t="str">
         <f>'Информация для бумаг_2'!D8</f>
         <v>Алексеевна</v>
       </c>
-      <c r="D19" s="113">
+      <c r="D19" s="84">
         <f>'Информация для бумаг_2'!P8</f>
         <v>39166</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="167" t="str">
+      <c r="E19" s="82"/>
+      <c r="F19" s="128">
         <f>'Информация для бумаг_2'!O8</f>
-        <v>40 20 831130</v>
+        <v>4020831130</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="111" t="str">
+      <c r="A20" s="82" t="str">
         <f>'Информация для бумаг_2'!B9</f>
         <v>Мелентьева</v>
       </c>
-      <c r="B20" s="111" t="str">
+      <c r="B20" s="82" t="str">
         <f>'Информация для бумаг_2'!C9</f>
         <v>Эмма</v>
       </c>
-      <c r="C20" s="111" t="str">
+      <c r="C20" s="82" t="str">
         <f>'Информация для бумаг_2'!D9</f>
         <v>Алексеевна</v>
       </c>
-      <c r="D20" s="113">
+      <c r="D20" s="84">
         <f>'Информация для бумаг_2'!P9</f>
         <v>39581</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="167" t="str">
+      <c r="E20" s="82"/>
+      <c r="F20" s="128">
         <f>'Информация для бумаг_2'!O9</f>
-        <v>II-АК 723081</v>
+        <v>4022166002</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="111" t="str">
+      <c r="A21" s="82" t="str">
         <f>'Информация для бумаг_2'!B10</f>
         <v xml:space="preserve">Меньшиков </v>
       </c>
-      <c r="B21" s="111" t="str">
+      <c r="B21" s="82" t="str">
         <f>'Информация для бумаг_2'!C10</f>
         <v>Савва</v>
       </c>
-      <c r="C21" s="111" t="str">
+      <c r="C21" s="82" t="str">
         <f>'Информация для бумаг_2'!D10</f>
         <v>Игоревич</v>
       </c>
-      <c r="D21" s="113">
+      <c r="D21" s="84">
         <f>'Информация для бумаг_2'!P10</f>
         <v>39916</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="167" t="str">
+      <c r="E21" s="82"/>
+      <c r="F21" s="128">
         <f>'Информация для бумаг_2'!O10</f>
-        <v>II-AK 723 081</v>
+        <v>4023481571</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="111" t="str">
+      <c r="A22" s="82" t="str">
         <f>'Информация для бумаг_2'!B11</f>
         <v>Островский</v>
       </c>
-      <c r="B22" s="111" t="str">
+      <c r="B22" s="82" t="str">
         <f>'Информация для бумаг_2'!C11</f>
         <v>Виктор</v>
       </c>
-      <c r="C22" s="111" t="str">
+      <c r="C22" s="82" t="str">
         <f>'Информация для бумаг_2'!D11</f>
         <v>Владиславович</v>
       </c>
-      <c r="D22" s="113">
+      <c r="D22" s="84">
         <f>'Информация для бумаг_2'!P11</f>
         <v>40070</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="167" t="str">
+      <c r="E22" s="82"/>
+      <c r="F22" s="128" t="str">
         <f>'Информация для бумаг_2'!O11</f>
         <v>II-АК 745451</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="111" t="str">
+      <c r="A23" s="82" t="str">
         <f>'Информация для бумаг_2'!B12</f>
         <v>Сайчик</v>
       </c>
-      <c r="B23" s="111" t="str">
+      <c r="B23" s="82" t="str">
         <f>'Информация для бумаг_2'!C12</f>
         <v>Мария</v>
       </c>
-      <c r="C23" s="111" t="str">
+      <c r="C23" s="82" t="str">
         <f>'Информация для бумаг_2'!D12</f>
         <v>Владимировна</v>
       </c>
-      <c r="D23" s="113">
+      <c r="D23" s="84">
         <f>'Информация для бумаг_2'!P12</f>
         <v>38982</v>
       </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="167">
+      <c r="E23" s="82"/>
+      <c r="F23" s="128">
         <f>'Информация для бумаг_2'!O12</f>
         <v>4020691039</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="111" t="str">
+      <c r="A24" s="82" t="str">
         <f>'Информация для бумаг_2'!B13</f>
         <v>Шеламова</v>
       </c>
-      <c r="B24" s="111" t="str">
+      <c r="B24" s="82" t="str">
         <f>'Информация для бумаг_2'!C13</f>
         <v>Виктория</v>
       </c>
-      <c r="C24" s="111" t="str">
+      <c r="C24" s="82" t="str">
         <f>'Информация для бумаг_2'!D13</f>
         <v>Сергеевна</v>
       </c>
-      <c r="D24" s="113">
+      <c r="D24" s="84">
         <f>'Информация для бумаг_2'!P13</f>
         <v>39529</v>
       </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="167">
+      <c r="E24" s="82"/>
+      <c r="F24" s="128">
         <f>'Информация для бумаг_2'!O13</f>
         <v>4022149794</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="111" t="str">
+      <c r="A25" s="82" t="str">
         <f>'Информация для бумаг_2'!B14</f>
         <v>Шилонцев</v>
       </c>
-      <c r="B25" s="111" t="str">
+      <c r="B25" s="82" t="str">
         <f>'Информация для бумаг_2'!C14</f>
         <v>Андрей</v>
       </c>
-      <c r="C25" s="111" t="str">
+      <c r="C25" s="82" t="str">
         <f>'Информация для бумаг_2'!D14</f>
         <v>Александрович</v>
       </c>
-      <c r="D25" s="113">
+      <c r="D25" s="84">
         <f>'Информация для бумаг_2'!P14</f>
         <v>38989</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="167">
+      <c r="E25" s="82"/>
+      <c r="F25" s="128">
         <f>'Информация для бумаг_2'!O14</f>
         <v>4020684651</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="111" t="str">
+      <c r="A26" s="82" t="str">
         <f>'Информация для бумаг_2'!B15</f>
         <v>Шишкина</v>
       </c>
-      <c r="B26" s="111" t="str">
+      <c r="B26" s="82" t="str">
         <f>'Информация для бумаг_2'!C15</f>
         <v>Анна</v>
       </c>
-      <c r="C26" s="111" t="str">
+      <c r="C26" s="82" t="str">
         <f>'Информация для бумаг_2'!D15</f>
         <v>Андреевна</v>
       </c>
-      <c r="D26" s="113">
+      <c r="D26" s="84">
         <f>'Информация для бумаг_2'!P15</f>
         <v>39987</v>
       </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="167" t="str">
+      <c r="E26" s="82"/>
+      <c r="F26" s="128" t="str">
         <f>'Информация для бумаг_2'!O15</f>
         <v>II-АК 731804</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="111" t="str">
+      <c r="A27" s="82" t="str">
         <f>'Информация для бумаг_2'!B16</f>
         <v>Нужин</v>
       </c>
-      <c r="B27" s="111" t="str">
+      <c r="B27" s="82" t="str">
         <f>'Информация для бумаг_2'!C16</f>
         <v>Илья</v>
       </c>
-      <c r="C27" s="111" t="str">
+      <c r="C27" s="82" t="str">
         <f>'Информация для бумаг_2'!D16</f>
         <v>Мулложонович</v>
       </c>
-      <c r="D27" s="113">
+      <c r="D27" s="84">
         <f>'Информация для бумаг_2'!P16</f>
         <v>38933</v>
       </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="167">
+      <c r="E27" s="82"/>
+      <c r="F27" s="128">
         <f>'Информация для бумаг_2'!O16</f>
         <v>4020668443</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="111" t="str">
+      <c r="A28" s="82" t="str">
         <f>'Информация для бумаг_2'!B17</f>
         <v>Тюпин</v>
       </c>
-      <c r="B28" s="111" t="str">
+      <c r="B28" s="82" t="str">
         <f>'Информация для бумаг_2'!C17</f>
         <v>Арсений</v>
       </c>
-      <c r="C28" s="111" t="str">
+      <c r="C28" s="82" t="str">
         <f>'Информация для бумаг_2'!D17</f>
         <v>Евгеньевич</v>
       </c>
-      <c r="D28" s="113">
+      <c r="D28" s="84">
         <f>'Информация для бумаг_2'!P17</f>
         <v>39810</v>
       </c>
-      <c r="E28" s="111"/>
-      <c r="F28" s="167">
+      <c r="E28" s="82"/>
+      <c r="F28" s="128">
         <f>'Информация для бумаг_2'!O17</f>
         <v>4022372441</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="D29" s="113"/>
+      <c r="D29" s="84"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="75" t="s">
         <v>413</v>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="113"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="84"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="74" t="s">
         <v>414</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="74" t="s">
         <v>415</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="D31" s="113"/>
+      <c r="D31" s="84"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="103">
+      <c r="A32" s="74">
         <v>89217427984</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="113"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="84"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="113"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="84"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="113"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4639,87 +4670,87 @@
       <c r="A1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
     </row>
     <row r="6" spans="1:14" ht="18">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="H6" s="74" t="s">
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="H6" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="18" t="s">
@@ -4730,27 +4761,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="148" t="s">
         <v>431</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="158" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
       <c r="H8" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.6">
-      <c r="A9" s="125"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
       <c r="H9" s="16" t="s">
         <v>42</v>
       </c>
@@ -4762,35 +4793,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="B10" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
       <c r="H10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="76" t="str">
+      <c r="J10" s="146" t="str">
         <f>'Информация для бумаг_2'!C3</f>
         <v>Санкт-Петербург-Кандалакша-научная база "Ряжков"-Лувеньга-Колвица-Санкт-Петербург</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="126"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
       <c r="H11" s="9" t="s">
         <v>46</v>
       </c>
@@ -4802,19 +4833,19 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6">
-      <c r="A12" s="127">
+      <c r="A12" s="91">
         <v>45150</v>
       </c>
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="95" t="s">
         <v>424</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="30">
         <f>'Информация для бумаг_2'!C2</f>
         <v>45140</v>
@@ -4828,46 +4859,46 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="164" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
     </row>
     <row r="14" spans="1:14" ht="31.05" customHeight="1">
-      <c r="A14" s="126"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
       <c r="H14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="79" t="str">
+      <c r="K14" s="151" t="str">
         <f>'Информация для бумаг_2'!C21</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="128">
+      <c r="A15" s="92">
         <v>45159</v>
       </c>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
       <c r="K15" s="9" t="s">
         <v>53</v>
       </c>
@@ -4877,16 +4908,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="124"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="155"/>
       <c r="H16" s="24" t="s">
         <v>56</v>
       </c>
@@ -4914,13 +4945,13 @@
       <c r="H19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="79" t="str">
+      <c r="K19" s="151" t="str">
         <f>'Информация для бумаг_2'!C22</f>
         <v>Гаврилова Елизавета Олеговна</v>
       </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
     </row>
     <row r="20" spans="1:14">
       <c r="K20" s="9" t="s">
@@ -4932,26 +4963,26 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
     </row>
     <row r="25" spans="1:14" ht="15.6">
       <c r="H25" s="20" t="s">
@@ -5073,12 +5104,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="94" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="94" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5244,9 +5275,9 @@
         <f>'Информация для бумаг_2'!K8</f>
         <v>Ул. Малая Карпатская, 17-275</v>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="G8" s="11">
         <f>'Информация для бумаг_2'!O8</f>
-        <v>40 20 831130</v>
+        <v>4020831130</v>
       </c>
       <c r="H8" s="12" t="str">
         <f>'Информация для бумаг_2'!L8</f>
@@ -5281,9 +5312,9 @@
         <f>'Информация для бумаг_2'!K9</f>
         <v>Ул. Разночинная, 4-14</v>
       </c>
-      <c r="G9" s="11" t="str">
+      <c r="G9" s="11">
         <f>'Информация для бумаг_2'!O9</f>
-        <v>II-АК 723081</v>
+        <v>4022166002</v>
       </c>
       <c r="H9" s="12" t="str">
         <f>'Информация для бумаг_2'!L9</f>
@@ -5318,9 +5349,9 @@
         <f>'Информация для бумаг_2'!K10</f>
         <v>Ул. Железноводская, 62-98</v>
       </c>
-      <c r="G10" s="11" t="str">
+      <c r="G10" s="11">
         <f>'Информация для бумаг_2'!O10</f>
-        <v>II-AK 723 081</v>
+        <v>4023481571</v>
       </c>
       <c r="H10" s="12" t="str">
         <f>'Информация для бумаг_2'!L10</f>
@@ -5685,805 +5716,805 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8" style="103"/>
-    <col min="2" max="2" width="28.88671875" style="103" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="103"/>
-    <col min="4" max="4" width="14.109375" style="103" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="103"/>
-    <col min="6" max="6" width="12.88671875" style="103"/>
-    <col min="7" max="7" width="9.33203125" style="103"/>
-    <col min="8" max="8" width="9" style="103"/>
-    <col min="9" max="9" width="12.109375" style="105"/>
-    <col min="10" max="10" width="19.44140625" style="103"/>
-    <col min="11" max="11" width="30.33203125" style="103" customWidth="1"/>
-    <col min="12" max="12" width="31.44140625" style="103"/>
-    <col min="13" max="13" width="18.5546875" style="103" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="103"/>
-    <col min="15" max="15" width="20.44140625" style="103" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" style="103"/>
-    <col min="17" max="17" width="14.109375" style="103"/>
-    <col min="18" max="16384" width="8" style="103"/>
+    <col min="1" max="1" width="8" style="74"/>
+    <col min="2" max="2" width="28.88671875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="74"/>
+    <col min="4" max="4" width="14.109375" style="74" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="74"/>
+    <col min="6" max="6" width="12.88671875" style="74"/>
+    <col min="7" max="7" width="9.33203125" style="74"/>
+    <col min="8" max="8" width="9" style="74"/>
+    <col min="9" max="9" width="12.109375" style="76"/>
+    <col min="10" max="10" width="19.44140625" style="74"/>
+    <col min="11" max="11" width="30.33203125" style="74" customWidth="1"/>
+    <col min="12" max="12" width="31.44140625" style="74"/>
+    <col min="13" max="13" width="18.5546875" style="74" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="74"/>
+    <col min="15" max="15" width="20.44140625" style="74" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" style="74"/>
+    <col min="17" max="17" width="14.109375" style="74"/>
+    <col min="18" max="16384" width="8" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="75" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2" s="77">
         <v>45140</v>
       </c>
-      <c r="D2" s="106">
+      <c r="D2" s="77">
         <v>45160</v>
       </c>
-      <c r="E2" s="107"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="107"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="104" t="s">
+      <c r="M4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="75" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="103">
+      <c r="A5" s="74">
         <v>1</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="82">
         <v>17</v>
       </c>
-      <c r="F5" s="111">
+      <c r="F5" s="82">
         <v>0</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="111">
+      <c r="G5" s="83"/>
+      <c r="H5" s="82">
         <v>777</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="82">
         <v>9</v>
       </c>
-      <c r="J5" s="111">
+      <c r="J5" s="82">
         <v>89602540838</v>
       </c>
-      <c r="K5" s="111" t="s">
+      <c r="K5" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="102" t="s">
+      <c r="L5" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="111">
+      <c r="N5" s="82">
         <v>89632430934</v>
       </c>
-      <c r="O5" s="111">
+      <c r="O5" s="82">
         <v>4022245584</v>
       </c>
-      <c r="P5" s="113">
+      <c r="P5" s="84">
         <v>39646</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="103">
+      <c r="A6" s="74">
         <v>2</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="82">
         <v>18</v>
       </c>
-      <c r="F6" s="111">
+      <c r="F6" s="82">
         <v>0</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="111">
+      <c r="G6" s="83"/>
+      <c r="H6" s="82">
         <v>655</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="82">
         <v>7</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="82">
         <v>89602540838</v>
       </c>
-      <c r="K6" s="111" t="s">
+      <c r="K6" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="111">
+      <c r="N6" s="82">
         <v>89632430934</v>
       </c>
-      <c r="O6" s="111" t="s">
+      <c r="O6" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="P6" s="113">
+      <c r="P6" s="84">
         <v>40579</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="103">
+      <c r="A7" s="74">
         <v>3</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="82">
         <v>21</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="82">
         <v>18</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="111">
+      <c r="G7" s="83"/>
+      <c r="H7" s="82">
         <v>56</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="82">
         <v>9</v>
       </c>
-      <c r="J7" s="111">
+      <c r="J7" s="82">
         <v>89291040939</v>
       </c>
-      <c r="K7" s="111" t="s">
+      <c r="K7" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="102" t="s">
+      <c r="L7" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="111">
+      <c r="N7" s="82">
         <v>89052622652</v>
       </c>
-      <c r="O7" s="111">
+      <c r="O7" s="82">
         <v>4022381251</v>
       </c>
-      <c r="P7" s="113">
+      <c r="P7" s="84">
         <v>39849</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="103">
+      <c r="A8" s="74">
         <v>4</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="82">
         <v>5</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="82">
         <v>5</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="111">
+      <c r="G8" s="83"/>
+      <c r="H8" s="82">
         <v>441</v>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="82">
         <v>10</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="82">
         <v>89522270284</v>
       </c>
-      <c r="K8" s="111" t="s">
+      <c r="K8" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="111">
+      <c r="N8" s="82">
         <v>89213354865</v>
       </c>
-      <c r="O8" s="111" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" s="113">
+      <c r="O8" s="82">
+        <v>4020831130</v>
+      </c>
+      <c r="P8" s="84">
         <v>39166</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="103">
+      <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="82">
         <v>7</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="82">
         <v>7</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="111">
+      <c r="G9" s="83"/>
+      <c r="H9" s="82">
         <v>204</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="82">
         <v>9</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="82">
         <v>89259175393</v>
       </c>
-      <c r="K9" s="111" t="s">
+      <c r="K9" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="102" t="s">
+      <c r="L9" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="N9" s="111">
+      <c r="N9" s="82">
         <v>89217427984</v>
       </c>
-      <c r="O9" s="111" t="s">
-        <v>116</v>
-      </c>
-      <c r="P9" s="113">
+      <c r="O9" s="82">
+        <v>4022166002</v>
+      </c>
+      <c r="P9" s="84">
         <v>39581</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="103">
+      <c r="A10" s="74">
         <v>6</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="111">
+      <c r="E10" s="82">
         <v>8</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="82">
         <v>8</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="111">
+      <c r="G10" s="83"/>
+      <c r="H10" s="82">
         <v>533</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="82">
         <v>8</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="82">
         <v>89218718088</v>
       </c>
-      <c r="K10" s="111" t="s">
+      <c r="K10" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="102" t="s">
+      <c r="L10" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="N10" s="111">
+      <c r="N10" s="82">
         <v>89213290657</v>
       </c>
-      <c r="O10" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" s="113">
+      <c r="O10" s="82">
+        <v>4023481571</v>
+      </c>
+      <c r="P10" s="84">
         <v>39916</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="103">
+      <c r="A11" s="74">
         <v>7</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="82">
         <v>9</v>
       </c>
-      <c r="F11" s="111">
+      <c r="F11" s="82">
         <v>9</v>
       </c>
-      <c r="G11" s="112"/>
-      <c r="H11" s="111">
+      <c r="G11" s="83"/>
+      <c r="H11" s="82">
         <v>518</v>
       </c>
-      <c r="I11" s="111">
+      <c r="I11" s="82">
         <v>8</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="82">
         <v>89213409406</v>
       </c>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="L11" s="102" t="s">
+      <c r="L11" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="N11" s="111">
+      <c r="N11" s="82">
         <v>89817075769</v>
       </c>
-      <c r="O11" s="111" t="s">
+      <c r="O11" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="P11" s="113">
+      <c r="P11" s="84">
         <v>40070</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="103">
+      <c r="A12" s="74">
         <v>8</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="82">
         <v>23</v>
       </c>
-      <c r="F12" s="111">
+      <c r="F12" s="82">
         <v>16</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="111">
+      <c r="G12" s="83"/>
+      <c r="H12" s="82">
         <v>586</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I12" s="82">
         <v>11</v>
       </c>
-      <c r="J12" s="111">
+      <c r="J12" s="82">
         <v>89818723635</v>
       </c>
-      <c r="K12" s="111" t="s">
+      <c r="K12" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="102" t="s">
+      <c r="L12" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="N12" s="111">
+      <c r="N12" s="82">
         <v>89818723635</v>
       </c>
-      <c r="O12" s="111">
+      <c r="O12" s="82">
         <v>4020691039</v>
       </c>
-      <c r="P12" s="113">
+      <c r="P12" s="84">
         <v>38982</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="103">
+      <c r="A13" s="74">
         <v>9</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="82">
         <v>15</v>
       </c>
-      <c r="F13" s="111">
+      <c r="F13" s="82">
         <v>15</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="111">
+      <c r="G13" s="83"/>
+      <c r="H13" s="82">
         <v>471</v>
       </c>
-      <c r="I13" s="111">
+      <c r="I13" s="82">
         <v>9</v>
       </c>
-      <c r="J13" s="111">
+      <c r="J13" s="82">
         <v>89817032760</v>
       </c>
-      <c r="K13" s="111" t="s">
+      <c r="K13" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="L13" s="102" t="s">
+      <c r="L13" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="N13" s="111">
+      <c r="N13" s="82">
         <v>89111407222</v>
       </c>
-      <c r="O13" s="111">
+      <c r="O13" s="82">
         <v>4022149794</v>
       </c>
-      <c r="P13" s="113">
+      <c r="P13" s="84">
         <v>39529</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="103">
+      <c r="A14" s="74">
         <v>10</v>
       </c>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="111">
+      <c r="E14" s="82">
         <v>20</v>
       </c>
-      <c r="F14" s="111">
+      <c r="F14" s="82">
         <v>0</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="111">
+      <c r="G14" s="83"/>
+      <c r="H14" s="82">
         <v>452</v>
       </c>
-      <c r="I14" s="111">
+      <c r="I14" s="82">
         <v>9</v>
       </c>
-      <c r="J14" s="111">
+      <c r="J14" s="82">
         <v>89213026506</v>
       </c>
-      <c r="K14" s="111" t="s">
+      <c r="K14" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="L14" s="102" t="s">
+      <c r="L14" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="N14" s="111">
+      <c r="N14" s="82">
         <v>89213026506</v>
       </c>
-      <c r="O14" s="111">
+      <c r="O14" s="82">
         <v>4020684651</v>
       </c>
-      <c r="P14" s="113">
+      <c r="P14" s="84">
         <v>38989</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="103">
+      <c r="A15" s="74">
         <v>11</v>
       </c>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="111">
+      <c r="E15" s="82">
         <v>14</v>
       </c>
-      <c r="F15" s="111">
+      <c r="F15" s="82">
         <v>14</v>
       </c>
-      <c r="G15" s="112"/>
-      <c r="H15" s="111">
+      <c r="G15" s="83"/>
+      <c r="H15" s="82">
         <v>43</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="82">
         <v>8</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="82">
         <v>89819793731</v>
       </c>
-      <c r="K15" s="111" t="s">
+      <c r="K15" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="L15" s="102" t="s">
+      <c r="L15" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="N15" s="111">
+      <c r="N15" s="82">
         <v>89118110171</v>
       </c>
-      <c r="O15" s="111" t="s">
+      <c r="O15" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="P15" s="113">
+      <c r="P15" s="84">
         <v>39987</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="103">
+      <c r="A16" s="74">
         <v>12</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="111">
+      <c r="E16" s="82">
         <v>16</v>
       </c>
-      <c r="F16" s="111">
+      <c r="F16" s="82">
         <v>0</v>
       </c>
-      <c r="G16" s="112"/>
-      <c r="H16" s="111">
+      <c r="G16" s="83"/>
+      <c r="H16" s="82">
         <v>30</v>
       </c>
-      <c r="I16" s="111">
+      <c r="I16" s="82">
         <v>11</v>
       </c>
-      <c r="J16" s="111">
+      <c r="J16" s="82">
         <v>89219583612</v>
       </c>
-      <c r="K16" s="111" t="s">
+      <c r="K16" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="L16" s="102" t="s">
+      <c r="L16" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="N16" s="111">
+      <c r="N16" s="82">
         <v>89213827100</v>
       </c>
-      <c r="O16" s="111">
+      <c r="O16" s="82">
         <v>4020668443</v>
       </c>
-      <c r="P16" s="113">
+      <c r="P16" s="84">
         <v>38933</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="103">
+      <c r="A17" s="74">
         <v>13</v>
       </c>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="111">
+      <c r="E17" s="82">
         <v>19</v>
       </c>
-      <c r="F17" s="111">
+      <c r="F17" s="82">
         <v>0</v>
       </c>
-      <c r="G17" s="112"/>
-      <c r="H17" s="111">
+      <c r="G17" s="83"/>
+      <c r="H17" s="82">
         <v>555</v>
       </c>
-      <c r="I17" s="111">
+      <c r="I17" s="82">
         <v>8</v>
       </c>
-      <c r="J17" s="111">
+      <c r="J17" s="82">
         <v>89200043637</v>
       </c>
-      <c r="K17" s="111" t="s">
+      <c r="K17" s="82" t="s">
         <v>417</v>
       </c>
-      <c r="L17" s="102" t="s">
+      <c r="L17" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="111">
+      <c r="N17" s="82">
         <v>89914876053</v>
       </c>
-      <c r="O17" s="114">
+      <c r="O17" s="82">
         <v>4022372441</v>
       </c>
-      <c r="P17" s="113">
+      <c r="P17" s="84">
         <v>39810</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="102"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="113"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="73"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="84"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="102"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="113"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="73"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="84"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="E20" s="105"/>
+      <c r="E20" s="76"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="115">
+      <c r="F21" s="85">
         <v>89217427984</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="115">
+      <c r="F22" s="85">
         <v>89291047172</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="106">
+      <c r="C24" s="77">
         <v>45078</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="115">
+      <c r="C25" s="85">
         <v>2023</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="116"/>
+      <c r="C26" s="86"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="87" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="B29" s="118"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="118"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="102"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="118"/>
-      <c r="P29" s="120"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="73"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="90"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="B30" s="118"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="102"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="118"/>
-      <c r="P30" s="120"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="73"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6499,8 +6530,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
@@ -6523,99 +6554,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
     </row>
     <row r="2" spans="1:14" ht="51.9" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="145" t="s">
+      <c r="E2" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="107" t="s">
         <v>436</v>
       </c>
-      <c r="I2" s="145" t="s">
+      <c r="I2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="145" t="s">
+      <c r="K2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="145" t="s">
+      <c r="L2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="145" t="s">
+      <c r="M2" s="107" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="24" customFormat="1" ht="15.6">
-      <c r="A3" s="138">
+      <c r="A3" s="100">
         <v>1</v>
       </c>
-      <c r="B3" s="139" t="str">
+      <c r="B3" s="101" t="str">
         <f>CONCATENATE('Информация для бумаг_1'!B5," ",'Информация для бумаг_1'!C5)</f>
         <v>Аудах Никита</v>
       </c>
-      <c r="C3" s="140">
+      <c r="C3" s="102">
         <f>'Информация для бумаг_1'!P5</f>
         <v>40100</v>
       </c>
-      <c r="D3" s="141">
+      <c r="D3" s="103">
         <f>'Информация для бумаг_1'!H5</f>
         <v>197</v>
       </c>
-      <c r="E3" s="142">
+      <c r="E3" s="104">
         <f>'Информация для бумаг_1'!I5</f>
         <v>8</v>
       </c>
-      <c r="F3" s="143" t="str">
+      <c r="F3" s="105" t="str">
         <f>'Информация для бумаг_1'!K5</f>
         <v>Ул. Мытнинская, 5/2-5</v>
       </c>
-      <c r="G3" s="144" t="s">
+      <c r="G3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="95">
+      <c r="I3" s="66">
         <v>1</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="98" t="s">
         <v>427</v>
       </c>
       <c r="K3" s="58" t="s">
@@ -6630,37 +6661,37 @@
       <c r="N3" s="60"/>
     </row>
     <row r="4" spans="1:14" s="24" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="142">
+      <c r="A4" s="104">
         <v>2</v>
       </c>
-      <c r="B4" s="139" t="str">
+      <c r="B4" s="101" t="str">
         <f>CONCATENATE('Информация для бумаг_1'!B6," ",'Информация для бумаг_1'!C6)</f>
         <v>Бритиков Александр</v>
       </c>
-      <c r="C4" s="140">
+      <c r="C4" s="102">
         <f>'Информация для бумаг_1'!P6</f>
         <v>39849</v>
       </c>
-      <c r="D4" s="141">
+      <c r="D4" s="103">
         <f>'Информация для бумаг_1'!H6</f>
         <v>56</v>
       </c>
-      <c r="E4" s="142">
+      <c r="E4" s="104">
         <f>'Информация для бумаг_1'!I6</f>
         <v>9</v>
       </c>
-      <c r="F4" s="143" t="str">
+      <c r="F4" s="105" t="str">
         <f>'Информация для бумаг_1'!K6</f>
         <v>Ул. Лахтинская, 20-36</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="96">
+      <c r="H4" s="136"/>
+      <c r="I4" s="67">
         <v>2</v>
       </c>
-      <c r="J4" s="136" t="s">
+      <c r="J4" s="98" t="s">
         <v>428</v>
       </c>
       <c r="K4" s="58" t="s">
@@ -6673,37 +6704,37 @@
       <c r="N4" s="60"/>
     </row>
     <row r="5" spans="1:14" s="24" customFormat="1" ht="15.6">
-      <c r="A5" s="138">
+      <c r="A5" s="100">
         <v>3</v>
       </c>
-      <c r="B5" s="139" t="str">
+      <c r="B5" s="101" t="str">
         <f>CONCATENATE('Информация для бумаг_1'!B7," ",'Информация для бумаг_1'!C7)</f>
         <v>Киселев Вениамин</v>
       </c>
-      <c r="C5" s="140">
+      <c r="C5" s="102">
         <f>'Информация для бумаг_1'!P7</f>
         <v>40363</v>
       </c>
-      <c r="D5" s="141">
+      <c r="D5" s="103">
         <f>'Информация для бумаг_1'!H7</f>
         <v>92</v>
       </c>
-      <c r="E5" s="142">
+      <c r="E5" s="104">
         <f>'Информация для бумаг_1'!I7</f>
         <v>7</v>
       </c>
-      <c r="F5" s="143" t="str">
+      <c r="F5" s="105" t="str">
         <f>'Информация для бумаг_1'!K7</f>
         <v>Пр. Тореза, 80-78</v>
       </c>
-      <c r="G5" s="144" t="s">
+      <c r="G5" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="95">
+      <c r="H5" s="136"/>
+      <c r="I5" s="66">
         <v>3</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="99" t="s">
         <v>168</v>
       </c>
       <c r="K5" s="58" t="s">
@@ -6718,33 +6749,33 @@
       <c r="N5" s="60"/>
     </row>
     <row r="6" spans="1:14" s="24" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A6" s="142">
+      <c r="A6" s="104">
         <v>4</v>
       </c>
-      <c r="B6" s="139" t="str">
+      <c r="B6" s="101" t="str">
         <f>CONCATENATE('Информация для бумаг_1'!B8," ",'Информация для бумаг_1'!C8)</f>
         <v>Сайчик Мария</v>
       </c>
-      <c r="C6" s="140">
+      <c r="C6" s="102">
         <f>'Информация для бумаг_1'!P8</f>
         <v>38982</v>
       </c>
-      <c r="D6" s="141">
+      <c r="D6" s="103">
         <f>'Информация для бумаг_1'!H8</f>
         <v>586</v>
       </c>
-      <c r="E6" s="142">
+      <c r="E6" s="104">
         <f>'Информация для бумаг_1'!I8</f>
         <v>11</v>
       </c>
-      <c r="F6" s="143" t="str">
+      <c r="F6" s="105" t="str">
         <f>'Информация для бумаг_1'!K8</f>
         <v>Ул. Кораблестроителей, 39-831</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="72"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="42"/>
       <c r="J6" s="57"/>
       <c r="K6" s="58"/>
@@ -6753,33 +6784,33 @@
       <c r="N6" s="60"/>
     </row>
     <row r="7" spans="1:14" s="24" customFormat="1" ht="15.6">
-      <c r="A7" s="138">
+      <c r="A7" s="100">
         <v>5</v>
       </c>
-      <c r="B7" s="139" t="str">
+      <c r="B7" s="101" t="str">
         <f>CONCATENATE('Информация для бумаг_1'!B9," ",'Информация для бумаг_1'!C9)</f>
         <v>Тихонов Иван</v>
       </c>
-      <c r="C7" s="140">
+      <c r="C7" s="102">
         <f>'Информация для бумаг_1'!P9</f>
         <v>40469</v>
       </c>
-      <c r="D7" s="141">
+      <c r="D7" s="103">
         <f>'Информация для бумаг_1'!H9</f>
         <v>617</v>
       </c>
-      <c r="E7" s="142">
+      <c r="E7" s="104">
         <f>'Информация для бумаг_1'!I9</f>
         <v>6</v>
       </c>
-      <c r="F7" s="143" t="str">
+      <c r="F7" s="105" t="str">
         <f>'Информация для бумаг_1'!K9</f>
         <v>Ул. Щербакова, 23-47</v>
       </c>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="136"/>
       <c r="I7" s="37"/>
       <c r="J7" s="57"/>
       <c r="K7" s="58"/>
@@ -6788,63 +6819,63 @@
       <c r="N7" s="60"/>
     </row>
     <row r="8" spans="1:14" s="24" customFormat="1">
-      <c r="A8" s="142">
+      <c r="A8" s="104">
         <v>6</v>
       </c>
-      <c r="B8" s="139" t="str">
+      <c r="B8" s="101" t="str">
         <f>CONCATENATE('Информация для бумаг_1'!B10," ",'Информация для бумаг_1'!C10)</f>
         <v>Федорова Ксения</v>
       </c>
-      <c r="C8" s="140">
+      <c r="C8" s="102">
         <f>'Информация для бумаг_1'!P10</f>
         <v>40195</v>
       </c>
-      <c r="D8" s="141">
+      <c r="D8" s="103">
         <f>'Информация для бумаг_1'!H10</f>
         <v>64</v>
       </c>
-      <c r="E8" s="142">
+      <c r="E8" s="104">
         <f>'Информация для бумаг_1'!I10</f>
         <v>8</v>
       </c>
-      <c r="F8" s="143" t="str">
+      <c r="F8" s="105" t="str">
         <f>'Информация для бумаг_1'!K10</f>
         <v>Ул. Камышовая, 14А-163</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="72"/>
+      <c r="H8" s="136"/>
       <c r="N8" s="61"/>
     </row>
     <row r="9" spans="1:14" s="24" customFormat="1">
-      <c r="A9" s="138">
+      <c r="A9" s="100">
         <v>7</v>
       </c>
-      <c r="B9" s="139" t="str">
+      <c r="B9" s="101" t="str">
         <f>CONCATENATE('Информация для бумаг_1'!B11," ",'Информация для бумаг_1'!C11)</f>
         <v>Шеламова Виктория</v>
       </c>
-      <c r="C9" s="140">
+      <c r="C9" s="102">
         <f>'Информация для бумаг_1'!P11</f>
         <v>39529</v>
       </c>
-      <c r="D9" s="141">
+      <c r="D9" s="103">
         <f>'Информация для бумаг_1'!H11</f>
         <v>471</v>
       </c>
-      <c r="E9" s="142">
+      <c r="E9" s="104">
         <f>'Информация для бумаг_1'!I11</f>
         <v>9</v>
       </c>
-      <c r="F9" s="143" t="str">
+      <c r="F9" s="105" t="str">
         <f>'Информация для бумаг_1'!K11</f>
         <v>Приозерское шоссе, 16-46</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="72"/>
+      <c r="H9" s="136"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
@@ -6852,33 +6883,33 @@
       <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:14" s="24" customFormat="1">
-      <c r="A10" s="142">
+      <c r="A10" s="104">
         <v>8</v>
       </c>
-      <c r="B10" s="139" t="str">
+      <c r="B10" s="101" t="str">
         <f>CONCATENATE('Информация для бумаг_1'!B12," ",'Информация для бумаг_1'!C12)</f>
         <v>Шилонцев Андрей</v>
       </c>
-      <c r="C10" s="140">
+      <c r="C10" s="102">
         <f>'Информация для бумаг_1'!P12</f>
         <v>38989</v>
       </c>
-      <c r="D10" s="141">
+      <c r="D10" s="103">
         <f>'Информация для бумаг_1'!H12</f>
         <v>452</v>
       </c>
-      <c r="E10" s="142">
+      <c r="E10" s="104">
         <f>'Информация для бумаг_1'!I12</f>
         <v>9</v>
       </c>
-      <c r="F10" s="143" t="str">
+      <c r="F10" s="105" t="str">
         <f>'Информация для бумаг_1'!K12</f>
         <v>Ленинский пр., 117-1-603</v>
       </c>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="72"/>
+      <c r="H10" s="136"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -6886,33 +6917,33 @@
       <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:14" s="24" customFormat="1">
-      <c r="A11" s="138">
+      <c r="A11" s="100">
         <v>9</v>
       </c>
-      <c r="B11" s="139" t="str">
+      <c r="B11" s="101" t="str">
         <f>CONCATENATE('Информация для бумаг_1'!B13," ",'Информация для бумаг_1'!C13)</f>
         <v>Бекасов Емельян</v>
       </c>
-      <c r="C11" s="140">
+      <c r="C11" s="102">
         <f>'Информация для бумаг_1'!P13</f>
         <v>39857</v>
       </c>
-      <c r="D11" s="141">
+      <c r="D11" s="103">
         <f>'Информация для бумаг_1'!H13</f>
         <v>503</v>
       </c>
-      <c r="E11" s="142">
+      <c r="E11" s="104">
         <f>'Информация для бумаг_1'!I13</f>
         <v>8</v>
       </c>
-      <c r="F11" s="143" t="str">
+      <c r="F11" s="105" t="str">
         <f>'Информация для бумаг_1'!K13</f>
         <v>Пр. Ветеранов, 3-167</v>
       </c>
-      <c r="G11" s="144" t="s">
+      <c r="G11" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="72"/>
+      <c r="H11" s="136"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
@@ -6927,7 +6958,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
-      <c r="H12" s="72"/>
+      <c r="H12" s="136"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
@@ -6942,7 +6973,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>
-      <c r="H13" s="72"/>
+      <c r="H13" s="136"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
@@ -6957,7 +6988,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41"/>
-      <c r="H14" s="72"/>
+      <c r="H14" s="136"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
@@ -6972,7 +7003,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="40"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="72"/>
+      <c r="H15" s="136"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
@@ -6987,7 +7018,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="72"/>
+      <c r="H16" s="136"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
@@ -7002,7 +7033,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="40"/>
       <c r="G17" s="41"/>
-      <c r="H17" s="72"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
@@ -7017,7 +7048,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
-      <c r="H18" s="72"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
@@ -7032,7 +7063,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41"/>
-      <c r="H19" s="72"/>
+      <c r="H19" s="136"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
@@ -7047,7 +7078,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="72"/>
+      <c r="H20" s="136"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -7062,7 +7093,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
-      <c r="H21" s="72"/>
+      <c r="H21" s="136"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
@@ -7077,7 +7108,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="72"/>
+      <c r="H22" s="136"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
@@ -7092,7 +7123,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="72"/>
+      <c r="H23" s="136"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
@@ -7107,7 +7138,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="45"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="72"/>
+      <c r="H24" s="136"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
@@ -7122,7 +7153,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="45"/>
       <c r="G25" s="41"/>
-      <c r="H25" s="72"/>
+      <c r="H25" s="136"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
@@ -7132,7 +7163,7 @@
     <row r="26" spans="1:13" s="24" customFormat="1" ht="12">
       <c r="A26" s="46"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="72"/>
+      <c r="H26" s="136"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -7146,13 +7177,13 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C27" s="39"/>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="65"/>
+      <c r="E27" s="140"/>
       <c r="F27" s="49"/>
       <c r="G27" s="41"/>
-      <c r="H27" s="72"/>
+      <c r="H27" s="136"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
@@ -7166,20 +7197,20 @@
         <v>Котельникова Валентина Сергеевна</v>
       </c>
       <c r="C28" s="39"/>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="65"/>
+      <c r="E28" s="140"/>
       <c r="F28" s="49"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="68"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="141" t="s">
+        <v>442</v>
+      </c>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="143"/>
     </row>
     <row r="29" spans="1:13" ht="15.6">
       <c r="A29" s="50" t="s">
@@ -7191,7 +7222,7 @@
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
-      <c r="H29" s="73"/>
+      <c r="H29" s="137"/>
       <c r="I29" s="12" t="s">
         <v>28</v>
       </c>
@@ -7200,10 +7231,10 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="134"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -7286,87 +7317,87 @@
       <c r="A1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
     </row>
     <row r="6" spans="1:14" ht="18">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="H6" s="74" t="s">
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="H6" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="18" t="s">
@@ -7377,27 +7408,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="166" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="168" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
       <c r="H8" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.6">
-      <c r="A9" s="90"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
       <c r="H9" s="16" t="s">
         <v>42</v>
       </c>
@@ -7409,35 +7440,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="167" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="165" t="s">
         <v>425</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
       <c r="H10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="76" t="str">
+      <c r="J10" s="146" t="str">
         <f>'Информация для бумаг_1'!C3</f>
         <v>Санкт-Петербург-Кандалакша-Лувеньга-Колвица-Санкт-Петербург</v>
       </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="91"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="A11" s="167"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
       <c r="H11" s="9" t="s">
         <v>46</v>
       </c>
@@ -7449,7 +7480,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6">
-      <c r="A12" s="92">
+      <c r="A12" s="63">
         <v>45124</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -7458,10 +7489,10 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="30">
         <f>'Информация для бумаг_1'!C2</f>
         <v>45116</v>
@@ -7475,46 +7506,46 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="167" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="165" t="s">
         <v>425</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
     </row>
     <row r="14" spans="1:14" ht="31.05" customHeight="1">
-      <c r="A14" s="91"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
+      <c r="A14" s="167"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
       <c r="H14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="79" t="str">
+      <c r="K14" s="151" t="str">
         <f>'Информация для бумаг_1'!C16</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="93">
+      <c r="A15" s="64">
         <v>45129</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="169" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
       <c r="K15" s="9" t="s">
         <v>53</v>
       </c>
@@ -7524,7 +7555,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="65" t="s">
         <v>170</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -7555,13 +7586,13 @@
       <c r="H19" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="79" t="str">
+      <c r="K19" s="151" t="str">
         <f>'Информация для бумаг_1'!C17</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
     </row>
     <row r="20" spans="1:14">
       <c r="K20" s="9" t="s">
@@ -7573,26 +7604,26 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="74" t="s">
+      <c r="H23" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
     </row>
     <row r="25" spans="1:14" ht="15.6">
       <c r="H25" s="20" t="s">
@@ -7698,600 +7729,600 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8" style="103"/>
-    <col min="2" max="2" width="28.88671875" style="103" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="103"/>
-    <col min="4" max="4" width="13.109375" style="103"/>
-    <col min="5" max="5" width="21.44140625" style="103"/>
-    <col min="6" max="6" width="12.88671875" style="103"/>
-    <col min="7" max="7" width="9.33203125" style="103"/>
-    <col min="8" max="8" width="9" style="103"/>
-    <col min="9" max="9" width="12.109375" style="105"/>
-    <col min="10" max="10" width="19.44140625" style="103"/>
-    <col min="11" max="11" width="28.109375" style="103"/>
-    <col min="12" max="12" width="31.44140625" style="103"/>
-    <col min="13" max="13" width="18.5546875" style="103" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="103"/>
-    <col min="15" max="15" width="14.5546875" style="103" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" style="103"/>
-    <col min="17" max="17" width="14.109375" style="103"/>
-    <col min="18" max="16384" width="8" style="103"/>
+    <col min="1" max="1" width="8" style="74"/>
+    <col min="2" max="2" width="28.88671875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="74"/>
+    <col min="4" max="4" width="13.109375" style="74"/>
+    <col min="5" max="5" width="21.44140625" style="74"/>
+    <col min="6" max="6" width="12.88671875" style="74"/>
+    <col min="7" max="7" width="9.33203125" style="74"/>
+    <col min="8" max="8" width="9" style="74"/>
+    <col min="9" max="9" width="12.109375" style="76"/>
+    <col min="10" max="10" width="19.44140625" style="74"/>
+    <col min="11" max="11" width="28.109375" style="74"/>
+    <col min="12" max="12" width="31.44140625" style="74"/>
+    <col min="13" max="13" width="18.5546875" style="74" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="74"/>
+    <col min="15" max="15" width="14.5546875" style="74" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" style="74"/>
+    <col min="17" max="17" width="14.109375" style="74"/>
+    <col min="18" max="16384" width="8" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="75" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="74" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2" s="77">
         <v>45116</v>
       </c>
-      <c r="D2" s="106">
+      <c r="D2" s="77">
         <v>45130</v>
       </c>
-      <c r="E2" s="107"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="D3" s="107"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="104" t="s">
+      <c r="I4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="109" t="s">
+      <c r="J4" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="104" t="s">
+      <c r="L4" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="104" t="s">
+      <c r="M4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="75" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="103">
+      <c r="A5" s="74">
         <v>1</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="82">
         <v>2</v>
       </c>
-      <c r="F5" s="111">
+      <c r="F5" s="82">
         <v>2</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="111">
+      <c r="G5" s="83"/>
+      <c r="H5" s="82">
         <v>197</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="82">
         <v>8</v>
       </c>
-      <c r="J5" s="111">
+      <c r="J5" s="82">
         <v>89119433692</v>
       </c>
-      <c r="K5" s="111" t="s">
+      <c r="K5" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="102" t="s">
+      <c r="L5" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="N5" s="111">
+      <c r="N5" s="82">
         <v>89119433692</v>
       </c>
-      <c r="O5" s="111" t="s">
+      <c r="O5" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="P5" s="113">
+      <c r="P5" s="84">
         <v>40100</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="103">
+      <c r="A6" s="74">
         <v>2</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="82">
         <v>21</v>
       </c>
-      <c r="F6" s="111">
+      <c r="F6" s="82">
         <v>18</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="111">
+      <c r="G6" s="83"/>
+      <c r="H6" s="82">
         <v>56</v>
       </c>
-      <c r="I6" s="111">
+      <c r="I6" s="82">
         <v>9</v>
       </c>
-      <c r="J6" s="111">
+      <c r="J6" s="82">
         <v>89291040939</v>
       </c>
-      <c r="K6" s="111" t="s">
+      <c r="K6" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="102" t="s">
+      <c r="L6" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="111">
+      <c r="N6" s="82">
         <v>89052622652</v>
       </c>
-      <c r="O6" s="111">
+      <c r="O6" s="82">
         <v>4022381251</v>
       </c>
-      <c r="P6" s="113">
+      <c r="P6" s="84">
         <v>39849</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="103">
+      <c r="A7" s="74">
         <v>3</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="111">
+      <c r="E7" s="82">
         <v>6</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="82">
         <v>6</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="111">
+      <c r="G7" s="83"/>
+      <c r="H7" s="82">
         <v>92</v>
       </c>
-      <c r="I7" s="111">
+      <c r="I7" s="82">
         <v>7</v>
       </c>
-      <c r="J7" s="111">
+      <c r="J7" s="82">
         <v>89219845986</v>
       </c>
-      <c r="K7" s="111" t="s">
+      <c r="K7" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="L7" s="102" t="s">
+      <c r="L7" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="N7" s="111">
+      <c r="N7" s="82">
         <v>89213323160</v>
       </c>
-      <c r="O7" s="111" t="s">
+      <c r="O7" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="P7" s="113">
+      <c r="P7" s="84">
         <v>40363</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="103">
+      <c r="A8" s="74">
         <v>4</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="82">
         <v>23</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="82">
         <v>16</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="111">
+      <c r="G8" s="83"/>
+      <c r="H8" s="82">
         <v>586</v>
       </c>
-      <c r="I8" s="111">
+      <c r="I8" s="82">
         <v>11</v>
       </c>
-      <c r="J8" s="111">
+      <c r="J8" s="82">
         <v>89818723635</v>
       </c>
-      <c r="K8" s="111" t="s">
+      <c r="K8" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="N8" s="111">
+      <c r="N8" s="82">
         <v>89818723635</v>
       </c>
-      <c r="O8" s="111">
+      <c r="O8" s="82">
         <v>4020691039</v>
       </c>
-      <c r="P8" s="113">
+      <c r="P8" s="84">
         <v>38982</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="103">
+      <c r="A9" s="74">
         <v>5</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="111">
+      <c r="E9" s="82">
         <v>11</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="82">
         <v>11</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="111">
+      <c r="G9" s="83"/>
+      <c r="H9" s="82">
         <v>617</v>
       </c>
-      <c r="I9" s="111">
+      <c r="I9" s="82">
         <v>6</v>
       </c>
-      <c r="J9" s="111">
+      <c r="J9" s="82">
         <v>89045564762</v>
       </c>
-      <c r="K9" s="111" t="s">
+      <c r="K9" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="L9" s="102" t="s">
+      <c r="L9" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="N9" s="111">
+      <c r="N9" s="82">
         <v>89030941182</v>
       </c>
-      <c r="O9" s="111" t="s">
+      <c r="O9" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="P9" s="113">
+      <c r="P9" s="84">
         <v>40469</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="103">
+      <c r="A10" s="74">
         <v>6</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="E10" s="111">
+      <c r="E10" s="82">
         <v>12</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="82">
         <v>12</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="111">
+      <c r="G10" s="83"/>
+      <c r="H10" s="82">
         <v>64</v>
       </c>
-      <c r="I10" s="111">
+      <c r="I10" s="82">
         <v>8</v>
       </c>
-      <c r="J10" s="111">
+      <c r="J10" s="82">
         <v>89657737525</v>
       </c>
-      <c r="K10" s="111" t="s">
+      <c r="K10" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="L10" s="102" t="s">
+      <c r="L10" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="N10" s="111">
+      <c r="N10" s="82">
         <v>89657737525</v>
       </c>
-      <c r="O10" s="111" t="s">
+      <c r="O10" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="P10" s="113">
+      <c r="P10" s="84">
         <v>40195</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="103">
+      <c r="A11" s="74">
         <v>7</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="82">
         <v>15</v>
       </c>
-      <c r="F11" s="111">
+      <c r="F11" s="82">
         <v>15</v>
       </c>
-      <c r="G11" s="112"/>
-      <c r="H11" s="111">
+      <c r="G11" s="83"/>
+      <c r="H11" s="82">
         <v>471</v>
       </c>
-      <c r="I11" s="111">
+      <c r="I11" s="82">
         <v>9</v>
       </c>
-      <c r="J11" s="111">
+      <c r="J11" s="82">
         <v>89817032760</v>
       </c>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="L11" s="102" t="s">
+      <c r="L11" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="N11" s="111">
+      <c r="N11" s="82">
         <v>89111407222</v>
       </c>
-      <c r="O11" s="111">
+      <c r="O11" s="82">
         <v>4022149794</v>
       </c>
-      <c r="P11" s="113">
+      <c r="P11" s="84">
         <v>39529</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="103">
+      <c r="A12" s="74">
         <v>8</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="111">
+      <c r="E12" s="82">
         <v>20</v>
       </c>
-      <c r="F12" s="111">
+      <c r="F12" s="82">
         <v>0</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="111">
+      <c r="G12" s="83"/>
+      <c r="H12" s="82">
         <v>452</v>
       </c>
-      <c r="I12" s="111">
+      <c r="I12" s="82">
         <v>9</v>
       </c>
-      <c r="J12" s="111">
+      <c r="J12" s="82">
         <v>89213026506</v>
       </c>
-      <c r="K12" s="111" t="s">
+      <c r="K12" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="L12" s="102" t="s">
+      <c r="L12" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="N12" s="111">
+      <c r="N12" s="82">
         <v>89213026506</v>
       </c>
-      <c r="O12" s="111">
+      <c r="O12" s="82">
         <v>4020684651</v>
       </c>
-      <c r="P12" s="113">
+      <c r="P12" s="84">
         <v>38989</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="103">
+      <c r="A13" s="74">
         <v>9</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="111">
+      <c r="E13" s="82">
         <v>0</v>
       </c>
-      <c r="F13" s="111">
+      <c r="F13" s="82">
         <v>0</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="111">
+      <c r="G13" s="83"/>
+      <c r="H13" s="82">
         <v>503</v>
       </c>
-      <c r="I13" s="111">
+      <c r="I13" s="82">
         <v>8</v>
       </c>
-      <c r="J13" s="111">
+      <c r="J13" s="82">
         <v>89818295984</v>
       </c>
-      <c r="K13" s="111" t="s">
+      <c r="K13" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="L13" s="102" t="s">
+      <c r="L13" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="N13" s="111">
+      <c r="N13" s="82">
         <v>89213414725</v>
       </c>
-      <c r="O13" s="111">
+      <c r="O13" s="82">
         <v>4023439220</v>
       </c>
-      <c r="P13" s="113">
+      <c r="P13" s="84">
         <v>39857</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="102"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="113"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="73"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="84"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="115">
+      <c r="F16" s="85">
         <v>89217427984</v>
       </c>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="74" t="s">
         <v>420</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="115">
+      <c r="F17" s="85">
         <v>89679796720</v>
       </c>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="77">
         <v>45078</v>
       </c>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="85">
         <v>2023</v>
       </c>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="C21" s="116"/>
+      <c r="C21" s="86"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="87" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="102"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="120"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="73"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="90"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="102"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="120"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="73"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8345,19 +8376,19 @@
       <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="146" t="s">
+      <c r="H4" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="146" t="s">
+      <c r="I4" s="108" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8833,1836 +8864,1844 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="111" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="111" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="111" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="111" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="111" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="111" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="111" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="111" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="111" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="111" customWidth="1"/>
-    <col min="11" max="11" width="13" style="111" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="111" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="111" customWidth="1"/>
-    <col min="14" max="16" width="9.6640625" style="111" customWidth="1"/>
-    <col min="17" max="17" width="23" style="111" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" style="111" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="111"/>
-    <col min="20" max="20" width="14.6640625" style="111" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="111"/>
-    <col min="22" max="22" width="13" style="111" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" style="111" customWidth="1"/>
-    <col min="24" max="25" width="9.6640625" style="111"/>
-    <col min="26" max="26" width="13.6640625" style="111" customWidth="1"/>
-    <col min="27" max="27" width="11.88671875" style="111"/>
-    <col min="28" max="28" width="12.33203125" style="111" customWidth="1"/>
-    <col min="29" max="30" width="14.33203125" style="111" customWidth="1"/>
-    <col min="31" max="16384" width="9.6640625" style="111"/>
+    <col min="1" max="1" width="15.6640625" style="82" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="82" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="82" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="82" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="82" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="82" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="82" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="82" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="82" customWidth="1"/>
+    <col min="11" max="11" width="13" style="82" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="82" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="82" customWidth="1"/>
+    <col min="14" max="16" width="9.6640625" style="82" customWidth="1"/>
+    <col min="17" max="17" width="23" style="82" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" style="82" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="82"/>
+    <col min="20" max="20" width="14.6640625" style="82" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" style="82"/>
+    <col min="22" max="22" width="13" style="82" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" style="82" customWidth="1"/>
+    <col min="24" max="25" width="9.6640625" style="82"/>
+    <col min="26" max="26" width="13.6640625" style="82" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" style="82"/>
+    <col min="28" max="28" width="12.33203125" style="82" customWidth="1"/>
+    <col min="29" max="30" width="14.33203125" style="82" customWidth="1"/>
+    <col min="31" max="16384" width="9.6640625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="57.6">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="149" t="s">
+      <c r="F1" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="149" t="s">
+      <c r="I1" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="148" t="s">
+      <c r="J1" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="149" t="s">
+      <c r="K1" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="150" t="s">
+      <c r="L1" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="150" t="s">
+      <c r="M1" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="N1" s="149" t="s">
+      <c r="N1" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="149" t="s">
+      <c r="O1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="149" t="s">
+      <c r="P1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="149" t="s">
+      <c r="Q1" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="R1" s="149" t="s">
+      <c r="R1" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="S1" s="149" t="s">
+      <c r="S1" s="111" t="s">
         <v>211</v>
       </c>
-      <c r="T1" s="149" t="s">
+      <c r="T1" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="U1" s="149" t="s">
+      <c r="U1" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="V1" s="149" t="s">
+      <c r="V1" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="W1" s="151" t="s">
+      <c r="W1" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="X1" s="149" t="s">
+      <c r="X1" s="111" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" s="150" t="s">
+      <c r="Y1" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="Z1" s="150" t="s">
+      <c r="Z1" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="AA1" s="150" t="s">
+      <c r="AA1" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="AB1" s="150" t="s">
+      <c r="AB1" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="AC1" s="149" t="s">
+      <c r="AC1" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="AD1" s="149" t="s">
+      <c r="AD1" s="111" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="111">
+      <c r="D2" s="82">
         <v>1</v>
       </c>
-      <c r="F2" s="111">
+      <c r="F2" s="82">
         <v>1</v>
       </c>
-      <c r="G2" s="111">
+      <c r="G2" s="82">
         <v>2</v>
       </c>
-      <c r="H2" s="111">
+      <c r="H2" s="82">
         <v>2</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="113">
+      <c r="K2" s="84">
         <v>40100</v>
       </c>
-      <c r="L2" s="111" t="s">
+      <c r="L2" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="N2" s="111">
+      <c r="N2" s="82">
         <v>13</v>
       </c>
-      <c r="O2" s="111">
+      <c r="O2" s="82">
         <v>8</v>
       </c>
-      <c r="P2" s="111">
+      <c r="P2" s="82">
         <v>197</v>
       </c>
-      <c r="Q2" s="111" t="s">
+      <c r="Q2" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="R2" s="111">
+      <c r="R2" s="82">
         <v>9119433692</v>
       </c>
-      <c r="S2" s="111" t="s">
+      <c r="S2" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="T2" s="111" t="s">
+      <c r="T2" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="U2" s="111" t="s">
+      <c r="U2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="V2" s="111" t="s">
+      <c r="V2" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="W2" s="111">
+      <c r="W2" s="82">
         <v>9119433692</v>
       </c>
-      <c r="X2" s="111" t="s">
+      <c r="X2" s="82" t="s">
         <v>174</v>
       </c>
-      <c r="Y2" s="111" t="s">
+      <c r="Y2" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="Z2" s="152">
+      <c r="Z2" s="114">
         <v>4016637661</v>
       </c>
-      <c r="AA2" s="111" t="s">
+      <c r="AA2" s="82" t="s">
         <v>230</v>
       </c>
-      <c r="AB2" s="113">
+      <c r="AB2" s="84">
         <v>42648</v>
       </c>
-      <c r="AC2" s="111" t="s">
+      <c r="AC2" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="AD2" s="113" t="s">
+      <c r="AD2" s="84" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="82">
         <v>1</v>
       </c>
-      <c r="F3" s="111">
+      <c r="F3" s="82">
         <v>1</v>
       </c>
-      <c r="G3" s="111">
+      <c r="G3" s="82">
         <v>17</v>
       </c>
-      <c r="J3" s="111" t="s">
+      <c r="J3" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="K3" s="113">
+      <c r="K3" s="84">
         <v>39646</v>
       </c>
-      <c r="L3" s="152">
+      <c r="L3" s="114">
         <v>4022245584</v>
       </c>
-      <c r="M3" s="153" t="s">
+      <c r="M3" s="115" t="s">
         <v>232</v>
       </c>
-      <c r="N3" s="111">
+      <c r="N3" s="82">
         <v>14</v>
       </c>
-      <c r="O3" s="111">
+      <c r="O3" s="82">
         <v>9</v>
       </c>
-      <c r="P3" s="111">
+      <c r="P3" s="82">
         <v>777</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="R3" s="111">
+      <c r="R3" s="82">
         <v>9602540838</v>
       </c>
-      <c r="S3" s="111" t="s">
+      <c r="S3" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="T3" s="111" t="s">
+      <c r="T3" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="U3" s="111" t="s">
+      <c r="U3" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="V3" s="111" t="s">
+      <c r="V3" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="W3" s="111">
+      <c r="W3" s="82">
         <v>9632430934</v>
       </c>
-      <c r="X3" s="111" t="s">
+      <c r="X3" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" s="111" t="s">
+      <c r="Y3" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="Z3" s="152">
+      <c r="Z3" s="114">
         <v>4005763150</v>
       </c>
-      <c r="AA3" s="111" t="s">
+      <c r="AA3" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="AB3" s="113">
+      <c r="AB3" s="84">
         <v>38631</v>
       </c>
-      <c r="AD3" s="113"/>
+      <c r="AD3" s="84"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="111">
+      <c r="E4" s="82">
         <v>1</v>
       </c>
-      <c r="F4" s="111">
+      <c r="F4" s="82">
         <v>1</v>
       </c>
-      <c r="G4" s="111">
+      <c r="G4" s="82">
         <v>18</v>
       </c>
-      <c r="J4" s="111" t="s">
+      <c r="J4" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="K4" s="113">
+      <c r="K4" s="84">
         <v>40579</v>
       </c>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="113">
+      <c r="M4" s="84">
         <v>40595</v>
       </c>
-      <c r="N4" s="111">
+      <c r="N4" s="82">
         <v>12</v>
       </c>
-      <c r="O4" s="111">
+      <c r="O4" s="82">
         <v>7</v>
       </c>
-      <c r="P4" s="111">
+      <c r="P4" s="82">
         <v>655</v>
       </c>
-      <c r="Q4" s="111" t="s">
+      <c r="Q4" s="82" t="s">
         <v>233</v>
       </c>
-      <c r="R4" s="111">
+      <c r="R4" s="82">
         <v>9602540838</v>
       </c>
-      <c r="S4" s="111" t="s">
+      <c r="S4" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="T4" s="111" t="s">
+      <c r="T4" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="U4" s="111" t="s">
+      <c r="U4" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="V4" s="111" t="s">
+      <c r="V4" s="82" t="s">
         <v>237</v>
       </c>
-      <c r="W4" s="111">
+      <c r="W4" s="82">
         <v>9632430934</v>
       </c>
-      <c r="X4" s="111" t="s">
+      <c r="X4" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="Y4" s="111" t="s">
+      <c r="Y4" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="Z4" s="152">
+      <c r="Z4" s="114">
         <v>4005763150</v>
       </c>
-      <c r="AA4" s="111" t="s">
+      <c r="AA4" s="82" t="s">
         <v>239</v>
       </c>
-      <c r="AB4" s="113">
+      <c r="AB4" s="84">
         <v>38631</v>
       </c>
-      <c r="AD4" s="113"/>
+      <c r="AD4" s="84"/>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="111">
+      <c r="D5" s="82">
         <v>1</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="82">
         <v>1</v>
       </c>
-      <c r="F5" s="111">
+      <c r="F5" s="82">
         <v>1</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="82">
         <v>21</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="82">
         <v>18</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="113">
+      <c r="K5" s="84">
         <v>39849</v>
       </c>
-      <c r="L5" s="152">
+      <c r="L5" s="114">
         <v>4022381251</v>
       </c>
-      <c r="M5" s="153" t="s">
+      <c r="M5" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="N5" s="111">
+      <c r="N5" s="82">
         <v>14</v>
       </c>
-      <c r="O5" s="111">
+      <c r="O5" s="82">
         <v>9</v>
       </c>
-      <c r="P5" s="111">
+      <c r="P5" s="82">
         <v>56</v>
       </c>
-      <c r="Q5" s="154" t="s">
+      <c r="Q5" s="116" t="s">
         <v>243</v>
       </c>
-      <c r="R5" s="111">
+      <c r="R5" s="82">
         <v>89291040939</v>
       </c>
-      <c r="S5" s="111" t="s">
+      <c r="S5" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="T5" s="111" t="s">
+      <c r="T5" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="U5" s="111" t="s">
+      <c r="U5" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="V5" s="111" t="s">
+      <c r="V5" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="W5" s="111">
+      <c r="W5" s="82">
         <v>89052622652</v>
       </c>
-      <c r="X5" s="111" t="s">
+      <c r="X5" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="Y5" s="103" t="s">
+      <c r="Y5" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="Z5" s="103" t="s">
+      <c r="Z5" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="AA5" s="103" t="s">
+      <c r="AA5" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="AB5" s="113">
+      <c r="AB5" s="84">
         <v>39323</v>
       </c>
-      <c r="AD5" s="113"/>
+      <c r="AD5" s="84"/>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="111">
+      <c r="E6" s="82">
         <v>1</v>
       </c>
-      <c r="F6" s="111">
+      <c r="F6" s="82">
         <v>1</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="82">
         <v>5</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="82">
         <v>5</v>
       </c>
-      <c r="J6" s="111" t="s">
+      <c r="J6" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="K6" s="153">
+      <c r="K6" s="115">
         <v>39166</v>
       </c>
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="153" t="s">
+      <c r="M6" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="N6" s="111">
+      <c r="N6" s="82">
         <v>16</v>
       </c>
-      <c r="O6" s="111">
+      <c r="O6" s="82">
         <v>10</v>
       </c>
-      <c r="P6" s="111">
+      <c r="P6" s="82">
         <v>441</v>
       </c>
-      <c r="Q6" s="111" t="s">
+      <c r="Q6" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="R6" s="111">
+      <c r="R6" s="82">
         <v>9522270284</v>
       </c>
-      <c r="S6" s="111" t="s">
+      <c r="S6" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="T6" s="111" t="s">
+      <c r="T6" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="U6" s="111" t="s">
+      <c r="U6" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="V6" s="111" t="s">
+      <c r="V6" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="W6" s="111">
+      <c r="W6" s="82">
         <v>9213354865</v>
       </c>
-      <c r="X6" s="111" t="s">
+      <c r="X6" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="Y6" s="111" t="s">
+      <c r="Y6" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="Z6" s="155">
+      <c r="Z6" s="117">
         <v>4022173758</v>
       </c>
-      <c r="AA6" s="103" t="s">
+      <c r="AA6" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="AB6" s="113">
+      <c r="AB6" s="84">
         <v>44714</v>
       </c>
-      <c r="AC6" s="111" t="s">
+      <c r="AC6" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="AD6" s="153" t="s">
+      <c r="AD6" s="115" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="111" t="s">
+      <c r="C7" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="111">
+      <c r="D7" s="82">
         <v>1</v>
       </c>
-      <c r="F7" s="111">
+      <c r="F7" s="82">
         <v>1</v>
       </c>
-      <c r="G7" s="111">
+      <c r="G7" s="82">
         <v>6</v>
       </c>
-      <c r="H7" s="111">
+      <c r="H7" s="82">
         <v>6</v>
       </c>
-      <c r="J7" s="111" t="s">
+      <c r="J7" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="K7" s="113">
+      <c r="K7" s="84">
         <v>40363</v>
       </c>
-      <c r="L7" s="111" t="s">
+      <c r="L7" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="M7" s="113"/>
-      <c r="N7" s="111">
+      <c r="M7" s="84"/>
+      <c r="N7" s="82">
         <v>12</v>
       </c>
-      <c r="O7" s="111">
+      <c r="O7" s="82">
         <v>7</v>
       </c>
-      <c r="P7" s="111">
+      <c r="P7" s="82">
         <v>92</v>
       </c>
-      <c r="Q7" s="111" t="s">
+      <c r="Q7" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="R7" s="111">
+      <c r="R7" s="82">
         <v>9219845986</v>
       </c>
-      <c r="S7" s="111" t="s">
+      <c r="S7" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="T7" s="111" t="s">
+      <c r="T7" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="U7" s="111" t="s">
+      <c r="U7" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="V7" s="111" t="s">
+      <c r="V7" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="W7" s="111">
+      <c r="W7" s="82">
         <v>9213323160</v>
       </c>
-      <c r="X7" s="111" t="s">
+      <c r="X7" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="Y7" s="103" t="s">
+      <c r="Y7" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="Z7" s="103" t="s">
+      <c r="Z7" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="AA7" s="103" t="s">
+      <c r="AA7" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="AB7" s="113">
+      <c r="AB7" s="84">
         <v>39582</v>
       </c>
-      <c r="AC7" s="111" t="s">
+      <c r="AC7" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="AD7" s="113" t="s">
+      <c r="AD7" s="84" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="111">
+      <c r="E8" s="82">
         <v>1</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="82">
         <v>1</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="82">
         <v>7</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="82">
         <v>7</v>
       </c>
-      <c r="J8" s="111" t="s">
+      <c r="J8" s="82" t="s">
         <v>268</v>
       </c>
-      <c r="K8" s="153">
+      <c r="K8" s="115">
         <v>39581</v>
       </c>
-      <c r="L8" s="156" t="s">
+      <c r="L8" s="130">
+        <v>4022166002</v>
+      </c>
+      <c r="M8" s="129" t="s">
+        <v>439</v>
+      </c>
+      <c r="N8" s="82">
+        <v>15</v>
+      </c>
+      <c r="O8" s="82">
+        <v>9</v>
+      </c>
+      <c r="P8" s="82">
+        <v>204</v>
+      </c>
+      <c r="Q8" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="R8" s="82">
+        <v>9259175393</v>
+      </c>
+      <c r="S8" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="T8" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="U8" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="V8" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="W8" s="82">
+        <v>9217427984</v>
+      </c>
+      <c r="X8" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y8" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z8" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA8" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB8" s="84">
+        <v>37239</v>
+      </c>
+      <c r="AC8" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="153"/>
-      <c r="N8" s="111">
+      <c r="AD8" s="84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="82">
+        <v>1</v>
+      </c>
+      <c r="G9" s="82">
+        <v>8</v>
+      </c>
+      <c r="H9" s="82">
+        <v>8</v>
+      </c>
+      <c r="J9" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="K9" s="84">
+        <v>39916</v>
+      </c>
+      <c r="L9" s="82">
+        <v>4023481571</v>
+      </c>
+      <c r="M9" s="129" t="s">
+        <v>438</v>
+      </c>
+      <c r="N9" s="82">
+        <v>13</v>
+      </c>
+      <c r="O9" s="82">
+        <v>8</v>
+      </c>
+      <c r="P9" s="82">
+        <v>533</v>
+      </c>
+      <c r="Q9" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="R9" s="82">
+        <v>9218718088</v>
+      </c>
+      <c r="S9" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="T9" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="U9" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="V9" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="W9" s="82">
+        <v>9213290657</v>
+      </c>
+      <c r="X9" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" s="74" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z9" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA9" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB9" s="84">
+        <v>38819</v>
+      </c>
+      <c r="AC9" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD9" s="84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="82">
+        <v>1</v>
+      </c>
+      <c r="F10" s="82">
+        <v>1</v>
+      </c>
+      <c r="G10" s="82">
+        <v>9</v>
+      </c>
+      <c r="H10" s="82">
+        <v>9</v>
+      </c>
+      <c r="J10" s="82" t="s">
+        <v>285</v>
+      </c>
+      <c r="K10" s="115">
+        <v>40070</v>
+      </c>
+      <c r="L10" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="115"/>
+      <c r="N10" s="82">
+        <v>13</v>
+      </c>
+      <c r="O10" s="82">
+        <v>8</v>
+      </c>
+      <c r="P10" s="82">
+        <v>518</v>
+      </c>
+      <c r="Q10" s="82" t="s">
+        <v>286</v>
+      </c>
+      <c r="R10" s="82">
+        <v>9213409406</v>
+      </c>
+      <c r="S10" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="T10" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="U10" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="V10" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="W10" s="74">
+        <v>9817075769</v>
+      </c>
+      <c r="X10" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z10" s="74" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA10" s="74" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB10" s="84">
+        <v>43207</v>
+      </c>
+      <c r="AC10" s="82" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD10" s="115">
+        <v>40077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="73">
+        <v>1</v>
+      </c>
+      <c r="E11" s="73">
+        <v>1</v>
+      </c>
+      <c r="G11" s="82">
+        <v>23</v>
+      </c>
+      <c r="H11" s="82">
+        <v>16</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="K11" s="84">
+        <v>38982</v>
+      </c>
+      <c r="L11" s="73">
+        <v>4020691039</v>
+      </c>
+      <c r="M11" s="84"/>
+      <c r="N11" s="73">
+        <v>16</v>
+      </c>
+      <c r="O11" s="82">
+        <v>11</v>
+      </c>
+      <c r="P11" s="82">
+        <v>586</v>
+      </c>
+      <c r="Q11" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="R11" s="82">
+        <v>89818723635</v>
+      </c>
+      <c r="S11" s="82" t="s">
+        <v>260</v>
+      </c>
+      <c r="T11" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="U11" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="W11" s="82">
+        <v>89818723635</v>
+      </c>
+      <c r="X11" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC11" s="82" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD11" s="84"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="82">
+        <v>1</v>
+      </c>
+      <c r="F12" s="82">
+        <v>1</v>
+      </c>
+      <c r="G12" s="82">
+        <v>11</v>
+      </c>
+      <c r="H12" s="82">
+        <v>11</v>
+      </c>
+      <c r="J12" s="82" t="s">
+        <v>295</v>
+      </c>
+      <c r="K12" s="84">
+        <v>40469</v>
+      </c>
+      <c r="L12" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="N12" s="82">
+        <v>12</v>
+      </c>
+      <c r="O12" s="82">
+        <v>6</v>
+      </c>
+      <c r="P12" s="82">
+        <v>617</v>
+      </c>
+      <c r="Q12" s="119" t="s">
+        <v>296</v>
+      </c>
+      <c r="R12" s="82">
+        <v>9045564762</v>
+      </c>
+      <c r="S12" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="T12" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="U12" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="V12" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="W12" s="82">
+        <v>9030941182</v>
+      </c>
+      <c r="X12" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y12" s="82" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z12" s="114">
+        <v>4017753196</v>
+      </c>
+      <c r="AA12" s="82" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB12" s="84">
+        <v>42838</v>
+      </c>
+      <c r="AC12" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD12" s="84" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="82">
+        <v>1</v>
+      </c>
+      <c r="G13" s="82">
+        <v>12</v>
+      </c>
+      <c r="H13" s="82">
+        <v>12</v>
+      </c>
+      <c r="J13" s="82" t="s">
+        <v>303</v>
+      </c>
+      <c r="K13" s="115">
+        <v>40195</v>
+      </c>
+      <c r="L13" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="M13" s="115"/>
+      <c r="N13" s="82">
+        <v>12</v>
+      </c>
+      <c r="O13" s="82">
+        <v>8</v>
+      </c>
+      <c r="P13" s="82">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="R13" s="82">
+        <v>9657737525</v>
+      </c>
+      <c r="S13" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="U13" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="V13" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="W13" s="82">
+        <v>9657737525</v>
+      </c>
+      <c r="X13" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD13" s="115"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="82">
+        <v>1</v>
+      </c>
+      <c r="E14" s="82">
+        <v>1</v>
+      </c>
+      <c r="G14" s="82">
         <v>15</v>
       </c>
-      <c r="O8" s="111">
+      <c r="H14" s="82">
+        <v>15</v>
+      </c>
+      <c r="J14" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="K14" s="84">
+        <v>39529</v>
+      </c>
+      <c r="L14" s="114">
+        <v>4022149794</v>
+      </c>
+      <c r="M14" s="115" t="s">
+        <v>306</v>
+      </c>
+      <c r="N14" s="82">
+        <v>14</v>
+      </c>
+      <c r="O14" s="82">
         <v>9</v>
       </c>
-      <c r="P8" s="111">
-        <v>204</v>
-      </c>
-      <c r="Q8" s="111" t="s">
-        <v>269</v>
-      </c>
-      <c r="R8" s="111">
-        <v>9259175393</v>
-      </c>
-      <c r="S8" s="111" t="s">
-        <v>244</v>
-      </c>
-      <c r="T8" s="111" t="s">
-        <v>270</v>
-      </c>
-      <c r="U8" s="111" t="s">
-        <v>271</v>
-      </c>
-      <c r="V8" s="111" t="s">
-        <v>272</v>
-      </c>
-      <c r="W8" s="111">
-        <v>9217427984</v>
-      </c>
-      <c r="X8" s="111" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y8" s="103" t="s">
+      <c r="P14" s="82">
+        <v>56</v>
+      </c>
+      <c r="Q14" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="R14" s="82">
+        <v>9817032760</v>
+      </c>
+      <c r="S14" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="T14" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="U14" s="82" t="s">
+        <v>309</v>
+      </c>
+      <c r="V14" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="W14" s="82">
+        <v>9111407222</v>
+      </c>
+      <c r="X14" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y14" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z14" s="74" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA14" s="115" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB14" s="84">
+        <v>44170</v>
+      </c>
+      <c r="AC14" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD14" s="84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73">
+        <v>1</v>
+      </c>
+      <c r="F15" s="82">
+        <v>1</v>
+      </c>
+      <c r="G15" s="82">
+        <v>20</v>
+      </c>
+      <c r="J15" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="K15" s="115">
+        <v>38989</v>
+      </c>
+      <c r="L15" s="120">
+        <v>4020684651</v>
+      </c>
+      <c r="M15" s="115"/>
+      <c r="N15" s="73">
+        <v>16</v>
+      </c>
+      <c r="O15" s="82">
+        <v>9</v>
+      </c>
+      <c r="P15" s="82">
+        <v>452</v>
+      </c>
+      <c r="Q15" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="R15" s="82">
+        <v>89213026506</v>
+      </c>
+      <c r="S15" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="T15" s="82" t="s">
+        <v>318</v>
+      </c>
+      <c r="U15" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="V15" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="W15" s="82">
+        <v>89213026506</v>
+      </c>
+      <c r="X15" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y15" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z15" s="74">
+        <v>4015447975</v>
+      </c>
+      <c r="AA15" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD15" s="115"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="82">
+        <v>1</v>
+      </c>
+      <c r="F16" s="82">
+        <v>1</v>
+      </c>
+      <c r="G16" s="82">
+        <v>14</v>
+      </c>
+      <c r="H16" s="82">
+        <v>14</v>
+      </c>
+      <c r="J16" s="82" t="s">
+        <v>321</v>
+      </c>
+      <c r="K16" s="84">
+        <v>39987</v>
+      </c>
+      <c r="L16" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" s="84"/>
+      <c r="N16" s="82">
+        <v>13</v>
+      </c>
+      <c r="O16" s="82">
+        <v>8</v>
+      </c>
+      <c r="P16" s="82">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="82" t="s">
+        <v>322</v>
+      </c>
+      <c r="R16" s="82">
+        <v>9819793731</v>
+      </c>
+      <c r="S16" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="T16" s="74" t="s">
+        <v>323</v>
+      </c>
+      <c r="U16" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="V16" s="74" t="s">
+        <v>325</v>
+      </c>
+      <c r="W16" s="82">
+        <v>9118110171</v>
+      </c>
+      <c r="X16" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y16" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z16" s="114">
+        <v>4004820373</v>
+      </c>
+      <c r="AA16" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB16" s="84">
+        <v>37903</v>
+      </c>
+      <c r="AC16" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD16" s="78">
+        <v>40004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73">
+        <v>1</v>
+      </c>
+      <c r="G17" s="82">
+        <v>16</v>
+      </c>
+      <c r="J17" s="82" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" s="121">
+        <v>38933</v>
+      </c>
+      <c r="L17" s="82">
+        <v>4020668443</v>
+      </c>
+      <c r="N17" s="82">
+        <v>16</v>
+      </c>
+      <c r="O17" s="82">
+        <v>11</v>
+      </c>
+      <c r="P17" s="82">
+        <v>30</v>
+      </c>
+      <c r="R17" s="73">
+        <v>89219583612</v>
+      </c>
+      <c r="T17" s="122" t="s">
+        <v>329</v>
+      </c>
+      <c r="U17" s="122" t="s">
+        <v>330</v>
+      </c>
+      <c r="V17" s="122" t="s">
+        <v>146</v>
+      </c>
+      <c r="W17" s="123">
+        <v>9213827100</v>
+      </c>
+      <c r="X17" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC17" s="121"/>
+      <c r="AD17" s="121"/>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="82">
+        <v>1</v>
+      </c>
+      <c r="F18" s="82">
+        <v>1</v>
+      </c>
+      <c r="G18" s="82">
+        <v>4</v>
+      </c>
+      <c r="H18" s="82">
+        <v>4</v>
+      </c>
+      <c r="J18" s="82" t="s">
+        <v>331</v>
+      </c>
+      <c r="K18" s="84">
+        <v>39857</v>
+      </c>
+      <c r="L18" s="114">
+        <v>4023439220</v>
+      </c>
+      <c r="M18" s="84" t="s">
+        <v>332</v>
+      </c>
+      <c r="N18" s="82">
+        <v>14</v>
+      </c>
+      <c r="O18" s="82">
+        <v>8</v>
+      </c>
+      <c r="P18" s="82">
+        <v>503</v>
+      </c>
+      <c r="R18" s="82">
+        <v>9818295984</v>
+      </c>
+      <c r="S18" s="82" t="s">
+        <v>317</v>
+      </c>
+      <c r="T18" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="U18" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="V18" s="82" t="s">
+        <v>310</v>
+      </c>
+      <c r="W18" s="82">
+        <v>9213414725</v>
+      </c>
+      <c r="X18" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y18" s="74" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z18" s="74" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA18" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB18" s="84">
+        <v>44209</v>
+      </c>
+      <c r="AC18" s="82" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD18" s="84" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="82">
+        <v>1</v>
+      </c>
+      <c r="G19" s="82">
+        <v>19</v>
+      </c>
+      <c r="J19" s="132" t="s">
+        <v>441</v>
+      </c>
+      <c r="K19" s="84">
+        <v>39810</v>
+      </c>
+      <c r="L19" s="82">
+        <v>4022372441</v>
+      </c>
+      <c r="M19" s="131" t="s">
+        <v>440</v>
+      </c>
+      <c r="N19" s="82">
+        <v>14</v>
+      </c>
+      <c r="O19" s="82">
+        <v>8</v>
+      </c>
+      <c r="P19" s="82">
+        <v>555</v>
+      </c>
+      <c r="R19" s="82">
+        <v>89200043637</v>
+      </c>
+      <c r="T19" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="U19" s="82" t="s">
+        <v>340</v>
+      </c>
+      <c r="V19" s="82" t="s">
+        <v>341</v>
+      </c>
+      <c r="W19" s="120">
+        <v>9914876053</v>
+      </c>
+      <c r="X19" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73">
+        <v>3</v>
+      </c>
+      <c r="H22" s="73">
+        <v>3</v>
+      </c>
+      <c r="I22" s="73"/>
+      <c r="J22" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="K22" s="84">
+        <v>39367</v>
+      </c>
+      <c r="L22" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="M22" s="84" t="s">
+        <v>347</v>
+      </c>
+      <c r="N22" s="73">
+        <v>15</v>
+      </c>
+      <c r="O22" s="82">
+        <v>9</v>
+      </c>
+      <c r="P22" s="82">
+        <v>171</v>
+      </c>
+      <c r="Q22" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="R22" s="82">
+        <v>9817122479</v>
+      </c>
+      <c r="S22" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="T22" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="U22" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="V22" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="W22" s="82">
+        <v>9052006465</v>
+      </c>
+      <c r="X22" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y22" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="Z22" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA22" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB22" s="84">
+        <v>44370</v>
+      </c>
+      <c r="AC22" s="82" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD22" s="84" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25" s="82">
+        <v>22</v>
+      </c>
+      <c r="H25" s="82">
+        <v>17</v>
+      </c>
+      <c r="J25" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="K25" s="84">
+        <v>38917</v>
+      </c>
+      <c r="L25" s="73">
+        <v>4002634542</v>
+      </c>
+      <c r="M25" s="84"/>
+      <c r="N25" s="73">
+        <v>16</v>
+      </c>
+      <c r="O25" s="82">
+        <v>11</v>
+      </c>
+      <c r="P25" s="82">
+        <v>56</v>
+      </c>
+      <c r="Q25" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="R25" s="82">
+        <v>89214136722</v>
+      </c>
+      <c r="S25" s="82" t="s">
+        <v>361</v>
+      </c>
+      <c r="T25" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="U25" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="V25" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="W25" s="82">
+        <v>89217427984</v>
+      </c>
+      <c r="X25" s="82" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y25" s="74" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z25" s="117">
+        <v>4023435996</v>
+      </c>
+      <c r="AA25" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB25" s="84">
+        <v>44985</v>
+      </c>
+      <c r="AC25" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD25" s="84" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="K26" s="84">
+        <v>39462</v>
+      </c>
+      <c r="L26" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="M26" s="115" t="s">
+        <v>371</v>
+      </c>
+      <c r="N26" s="82">
+        <v>15</v>
+      </c>
+      <c r="O26" s="82">
+        <v>9</v>
+      </c>
+      <c r="P26" s="82">
+        <v>597</v>
+      </c>
+      <c r="Q26" s="82" t="s">
+        <v>293</v>
+      </c>
+      <c r="R26" s="82">
+        <v>89112625350</v>
+      </c>
+      <c r="S26" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="T26" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="U26" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="V26" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="W26" s="82">
+        <v>89219703060</v>
+      </c>
+      <c r="X26" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y26" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z26" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA26" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB26" s="84">
+        <v>42769</v>
+      </c>
+      <c r="AD26" s="84"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="82">
+        <v>17</v>
+      </c>
+      <c r="J27" s="82" t="s">
+        <v>380</v>
+      </c>
+      <c r="K27" s="84">
+        <v>40421</v>
+      </c>
+      <c r="L27" s="82" t="s">
+        <v>381</v>
+      </c>
+      <c r="M27" s="84"/>
+      <c r="N27" s="82">
+        <v>12</v>
+      </c>
+      <c r="O27" s="82">
+        <v>7</v>
+      </c>
+      <c r="P27" s="82">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="82" t="s">
+        <v>382</v>
+      </c>
+      <c r="R27" s="82">
+        <v>89312784188</v>
+      </c>
+      <c r="S27" s="82" t="s">
+        <v>234</v>
+      </c>
+      <c r="T27" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="U27" s="82" t="s">
+        <v>236</v>
+      </c>
+      <c r="V27" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="W27" s="82">
+        <v>9219572227</v>
+      </c>
+      <c r="X27" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y27" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="Z8" s="103" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA8" s="103" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB8" s="113">
-        <v>37239</v>
-      </c>
-      <c r="AC8" s="111" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD8" s="113" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="111">
-        <v>1</v>
-      </c>
-      <c r="G9" s="111">
-        <v>8</v>
-      </c>
-      <c r="H9" s="111">
-        <v>8</v>
-      </c>
-      <c r="J9" s="111" t="s">
-        <v>277</v>
-      </c>
-      <c r="K9" s="113">
-        <v>39916</v>
-      </c>
-      <c r="L9" s="157" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" s="113" t="s">
-        <v>278</v>
-      </c>
-      <c r="N9" s="111">
-        <v>13</v>
-      </c>
-      <c r="O9" s="111">
-        <v>8</v>
-      </c>
-      <c r="P9" s="111">
-        <v>533</v>
-      </c>
-      <c r="Q9" s="111" t="s">
-        <v>279</v>
-      </c>
-      <c r="R9" s="111">
-        <v>9218718088</v>
-      </c>
-      <c r="S9" s="111" t="s">
-        <v>280</v>
-      </c>
-      <c r="T9" s="111" t="s">
-        <v>281</v>
-      </c>
-      <c r="U9" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="V9" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="W9" s="111">
-        <v>9213290657</v>
-      </c>
-      <c r="X9" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y9" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z9" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA9" s="103" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB9" s="113">
-        <v>38819</v>
-      </c>
-      <c r="AC9" s="111" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD9" s="113" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="111" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="111" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="111">
-        <v>1</v>
-      </c>
-      <c r="F10" s="111">
-        <v>1</v>
-      </c>
-      <c r="G10" s="111">
-        <v>9</v>
-      </c>
-      <c r="H10" s="111">
-        <v>9</v>
-      </c>
-      <c r="J10" s="111" t="s">
-        <v>285</v>
-      </c>
-      <c r="K10" s="153">
-        <v>40070</v>
-      </c>
-      <c r="L10" s="111" t="s">
+      <c r="Z27" s="114">
+        <v>4002341319</v>
+      </c>
+      <c r="AA27" s="82" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB27" s="84">
+        <v>37392</v>
+      </c>
+      <c r="AC27" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="M10" s="153"/>
-      <c r="N10" s="111">
-        <v>13</v>
-      </c>
-      <c r="O10" s="111">
-        <v>8</v>
-      </c>
-      <c r="P10" s="111">
-        <v>518</v>
-      </c>
-      <c r="Q10" s="111" t="s">
-        <v>286</v>
-      </c>
-      <c r="R10" s="111">
-        <v>9213409406</v>
-      </c>
-      <c r="S10" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="T10" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="U10" s="103" t="s">
-        <v>287</v>
-      </c>
-      <c r="V10" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="W10" s="103">
-        <v>9817075769</v>
-      </c>
-      <c r="X10" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y10" s="103" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z10" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA10" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="AB10" s="113">
-        <v>43207</v>
-      </c>
-      <c r="AC10" s="111" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD10" s="153">
-        <v>40077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="102" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="102">
-        <v>1</v>
-      </c>
-      <c r="E11" s="102">
-        <v>1</v>
-      </c>
-      <c r="G11" s="111">
-        <v>23</v>
-      </c>
-      <c r="H11" s="111">
-        <v>16</v>
-      </c>
-      <c r="J11" s="102" t="s">
-        <v>292</v>
-      </c>
-      <c r="K11" s="113">
-        <v>38982</v>
-      </c>
-      <c r="L11" s="102">
-        <v>4020691039</v>
-      </c>
-      <c r="M11" s="113"/>
-      <c r="N11" s="102">
-        <v>16</v>
-      </c>
-      <c r="O11" s="111">
-        <v>11</v>
-      </c>
-      <c r="P11" s="111">
-        <v>586</v>
-      </c>
-      <c r="Q11" s="111" t="s">
-        <v>293</v>
-      </c>
-      <c r="R11" s="111">
-        <v>89818723635</v>
-      </c>
-      <c r="S11" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="T11" s="111" t="s">
-        <v>129</v>
-      </c>
-      <c r="U11" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>228</v>
-      </c>
-      <c r="W11" s="111">
-        <v>89818723635</v>
-      </c>
-      <c r="X11" s="111" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC11" s="111" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD11" s="113"/>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="111" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="111" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="111" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="111">
-        <v>1</v>
-      </c>
-      <c r="F12" s="111">
-        <v>1</v>
-      </c>
-      <c r="G12" s="111">
-        <v>11</v>
-      </c>
-      <c r="H12" s="111">
-        <v>11</v>
-      </c>
-      <c r="J12" s="111" t="s">
-        <v>295</v>
-      </c>
-      <c r="K12" s="113">
-        <v>40469</v>
-      </c>
-      <c r="L12" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="N12" s="111">
-        <v>12</v>
-      </c>
-      <c r="O12" s="111">
-        <v>6</v>
-      </c>
-      <c r="P12" s="111">
-        <v>617</v>
-      </c>
-      <c r="Q12" s="158" t="s">
-        <v>296</v>
-      </c>
-      <c r="R12" s="111">
-        <v>9045564762</v>
-      </c>
-      <c r="S12" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="T12" s="111" t="s">
-        <v>297</v>
-      </c>
-      <c r="U12" s="111" t="s">
-        <v>298</v>
-      </c>
-      <c r="V12" s="111" t="s">
-        <v>299</v>
-      </c>
-      <c r="W12" s="111">
-        <v>9030941182</v>
-      </c>
-      <c r="X12" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y12" s="111" t="s">
-        <v>300</v>
-      </c>
-      <c r="Z12" s="152">
-        <v>4017753196</v>
-      </c>
-      <c r="AA12" s="111" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB12" s="113">
-        <v>42838</v>
-      </c>
-      <c r="AC12" s="111" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD12" s="113" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="111">
-        <v>1</v>
-      </c>
-      <c r="G13" s="111">
-        <v>12</v>
-      </c>
-      <c r="H13" s="111">
-        <v>12</v>
-      </c>
-      <c r="J13" s="111" t="s">
-        <v>303</v>
-      </c>
-      <c r="K13" s="153">
-        <v>40195</v>
-      </c>
-      <c r="L13" s="111" t="s">
-        <v>193</v>
-      </c>
-      <c r="M13" s="153"/>
-      <c r="N13" s="111">
-        <v>12</v>
-      </c>
-      <c r="O13" s="111">
-        <v>8</v>
-      </c>
-      <c r="P13" s="111">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="111" t="s">
-        <v>304</v>
-      </c>
-      <c r="R13" s="111">
-        <v>9657737525</v>
-      </c>
-      <c r="S13" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="T13" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="U13" s="111" t="s">
-        <v>262</v>
-      </c>
-      <c r="V13" s="111" t="s">
-        <v>299</v>
-      </c>
-      <c r="W13" s="111">
-        <v>9657737525</v>
-      </c>
-      <c r="X13" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD13" s="153"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="111" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="111" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="111">
-        <v>1</v>
-      </c>
-      <c r="E14" s="111">
-        <v>1</v>
-      </c>
-      <c r="G14" s="111">
-        <v>15</v>
-      </c>
-      <c r="H14" s="111">
-        <v>15</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>305</v>
-      </c>
-      <c r="K14" s="113">
-        <v>39529</v>
-      </c>
-      <c r="L14" s="152">
-        <v>4022149794</v>
-      </c>
-      <c r="M14" s="153" t="s">
-        <v>306</v>
-      </c>
-      <c r="N14" s="111">
-        <v>14</v>
-      </c>
-      <c r="O14" s="111">
-        <v>9</v>
-      </c>
-      <c r="P14" s="111">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="111" t="s">
-        <v>307</v>
-      </c>
-      <c r="R14" s="111">
-        <v>9817032760</v>
-      </c>
-      <c r="S14" s="111" t="s">
-        <v>308</v>
-      </c>
-      <c r="T14" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="U14" s="111" t="s">
-        <v>309</v>
-      </c>
-      <c r="V14" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="W14" s="111">
-        <v>9111407222</v>
-      </c>
-      <c r="X14" s="111" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y14" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z14" s="103" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA14" s="153" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB14" s="113">
-        <v>44170</v>
-      </c>
-      <c r="AC14" s="111" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD14" s="113" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="102" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102">
-        <v>1</v>
-      </c>
-      <c r="F15" s="111">
-        <v>1</v>
-      </c>
-      <c r="G15" s="111">
-        <v>20</v>
-      </c>
-      <c r="J15" s="102" t="s">
-        <v>316</v>
-      </c>
-      <c r="K15" s="153">
-        <v>38989</v>
-      </c>
-      <c r="L15" s="159">
-        <v>4020684651</v>
-      </c>
-      <c r="M15" s="153"/>
-      <c r="N15" s="102">
-        <v>16</v>
-      </c>
-      <c r="O15" s="111">
-        <v>9</v>
-      </c>
-      <c r="P15" s="111">
-        <v>452</v>
-      </c>
-      <c r="Q15" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="R15" s="111">
-        <v>89213026506</v>
-      </c>
-      <c r="S15" s="111" t="s">
-        <v>317</v>
-      </c>
-      <c r="T15" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="U15" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="V15" s="111" t="s">
-        <v>299</v>
-      </c>
-      <c r="W15" s="111">
-        <v>89213026506</v>
-      </c>
-      <c r="X15" s="111" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y15" s="103" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z15" s="103">
-        <v>4015447975</v>
-      </c>
-      <c r="AA15" s="103" t="s">
-        <v>320</v>
-      </c>
-      <c r="AD15" s="153"/>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="111" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="111" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="111">
-        <v>1</v>
-      </c>
-      <c r="F16" s="111">
-        <v>1</v>
-      </c>
-      <c r="G16" s="111">
-        <v>14</v>
-      </c>
-      <c r="H16" s="111">
-        <v>14</v>
-      </c>
-      <c r="J16" s="111" t="s">
-        <v>321</v>
-      </c>
-      <c r="K16" s="113">
-        <v>39987</v>
-      </c>
-      <c r="L16" s="157" t="s">
-        <v>149</v>
-      </c>
-      <c r="M16" s="113"/>
-      <c r="N16" s="111">
-        <v>13</v>
-      </c>
-      <c r="O16" s="111">
-        <v>8</v>
-      </c>
-      <c r="P16" s="111">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="111" t="s">
-        <v>322</v>
-      </c>
-      <c r="R16" s="111">
-        <v>9819793731</v>
-      </c>
-      <c r="S16" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="T16" s="103" t="s">
-        <v>323</v>
-      </c>
-      <c r="U16" s="103" t="s">
-        <v>324</v>
-      </c>
-      <c r="V16" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="W16" s="111">
-        <v>9118110171</v>
-      </c>
-      <c r="X16" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y16" s="103" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z16" s="152">
-        <v>4004820373</v>
-      </c>
-      <c r="AA16" s="103" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB16" s="113">
-        <v>37903</v>
-      </c>
-      <c r="AC16" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD16" s="107">
-        <v>40004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="102" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102">
-        <v>1</v>
-      </c>
-      <c r="G17" s="111">
-        <v>16</v>
-      </c>
-      <c r="J17" s="111" t="s">
-        <v>328</v>
-      </c>
-      <c r="K17" s="160">
-        <v>38933</v>
-      </c>
-      <c r="L17" s="111">
-        <v>4020668443</v>
-      </c>
-      <c r="N17" s="111">
-        <v>16</v>
-      </c>
-      <c r="O17" s="111">
-        <v>11</v>
-      </c>
-      <c r="P17" s="111">
-        <v>30</v>
-      </c>
-      <c r="R17" s="102">
-        <v>89219583612</v>
-      </c>
-      <c r="T17" s="161" t="s">
-        <v>329</v>
-      </c>
-      <c r="U17" s="161" t="s">
-        <v>330</v>
-      </c>
-      <c r="V17" s="161" t="s">
-        <v>146</v>
-      </c>
-      <c r="W17" s="162">
-        <v>9213827100</v>
-      </c>
-      <c r="X17" s="161" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-    </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="111" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="111" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="111">
-        <v>1</v>
-      </c>
-      <c r="F18" s="111">
-        <v>1</v>
-      </c>
-      <c r="G18" s="111">
-        <v>4</v>
-      </c>
-      <c r="H18" s="111">
-        <v>4</v>
-      </c>
-      <c r="J18" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="K18" s="113">
-        <v>39857</v>
-      </c>
-      <c r="L18" s="152">
-        <v>4023439220</v>
-      </c>
-      <c r="M18" s="113" t="s">
-        <v>332</v>
-      </c>
-      <c r="N18" s="111">
-        <v>14</v>
-      </c>
-      <c r="O18" s="111">
-        <v>8</v>
-      </c>
-      <c r="P18" s="111">
-        <v>503</v>
-      </c>
-      <c r="R18" s="111">
-        <v>9818295984</v>
-      </c>
-      <c r="S18" s="111" t="s">
-        <v>317</v>
-      </c>
-      <c r="T18" s="111" t="s">
-        <v>333</v>
-      </c>
-      <c r="U18" s="111" t="s">
-        <v>334</v>
-      </c>
-      <c r="V18" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="W18" s="111">
-        <v>9213414725</v>
-      </c>
-      <c r="X18" s="111" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y18" s="103" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z18" s="103" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA18" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB18" s="113">
-        <v>44209</v>
-      </c>
-      <c r="AC18" s="111" t="s">
-        <v>337</v>
-      </c>
-      <c r="AD18" s="113" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="111" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="111">
-        <v>1</v>
-      </c>
-      <c r="G19" s="111">
-        <v>19</v>
-      </c>
-      <c r="K19" s="113">
-        <v>39810</v>
-      </c>
-      <c r="L19" s="157">
-        <v>4022372441</v>
-      </c>
-      <c r="N19" s="111">
-        <v>14</v>
-      </c>
-      <c r="O19" s="111">
-        <v>8</v>
-      </c>
-      <c r="P19" s="111">
-        <v>555</v>
-      </c>
-      <c r="R19" s="111">
-        <v>89200043637</v>
-      </c>
-      <c r="T19" s="111" t="s">
-        <v>339</v>
-      </c>
-      <c r="U19" s="111" t="s">
-        <v>340</v>
-      </c>
-      <c r="V19" s="111" t="s">
-        <v>341</v>
-      </c>
-      <c r="W19" s="159">
-        <v>9914876053</v>
-      </c>
-      <c r="X19" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="111" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" s="111" t="s">
-        <v>343</v>
-      </c>
-      <c r="C22" s="111" t="s">
-        <v>344</v>
-      </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102">
-        <v>3</v>
-      </c>
-      <c r="H22" s="102">
-        <v>3</v>
-      </c>
-      <c r="I22" s="102"/>
-      <c r="J22" s="111" t="s">
-        <v>345</v>
-      </c>
-      <c r="K22" s="113">
-        <v>39367</v>
-      </c>
-      <c r="L22" s="111" t="s">
-        <v>346</v>
-      </c>
-      <c r="M22" s="113" t="s">
-        <v>347</v>
-      </c>
-      <c r="N22" s="102">
-        <v>15</v>
-      </c>
-      <c r="O22" s="111">
-        <v>9</v>
-      </c>
-      <c r="P22" s="111">
-        <v>171</v>
-      </c>
-      <c r="Q22" s="158" t="s">
-        <v>348</v>
-      </c>
-      <c r="R22" s="111">
-        <v>9817122479</v>
-      </c>
-      <c r="S22" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="T22" s="111" t="s">
-        <v>349</v>
-      </c>
-      <c r="U22" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="V22" s="111" t="s">
-        <v>350</v>
-      </c>
-      <c r="W22" s="111">
-        <v>9052006465</v>
-      </c>
-      <c r="X22" s="111" t="s">
-        <v>351</v>
-      </c>
-      <c r="Y22" s="103" t="s">
-        <v>352</v>
-      </c>
-      <c r="Z22" s="103" t="s">
-        <v>353</v>
-      </c>
-      <c r="AA22" s="103" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB22" s="113">
-        <v>44370</v>
-      </c>
-      <c r="AC22" s="111" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD22" s="113" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="111" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" s="111" t="s">
-        <v>358</v>
-      </c>
-      <c r="C25" s="111" t="s">
-        <v>359</v>
-      </c>
-      <c r="G25" s="111">
-        <v>22</v>
-      </c>
-      <c r="H25" s="111">
-        <v>17</v>
-      </c>
-      <c r="J25" s="111" t="s">
-        <v>360</v>
-      </c>
-      <c r="K25" s="113">
-        <v>38917</v>
-      </c>
-      <c r="L25" s="102">
-        <v>4002634542</v>
-      </c>
-      <c r="M25" s="113"/>
-      <c r="N25" s="102">
-        <v>16</v>
-      </c>
-      <c r="O25" s="111">
-        <v>11</v>
-      </c>
-      <c r="P25" s="111">
-        <v>56</v>
-      </c>
-      <c r="Q25" s="111" t="s">
-        <v>293</v>
-      </c>
-      <c r="R25" s="111">
-        <v>89214136722</v>
-      </c>
-      <c r="S25" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="T25" s="111" t="s">
-        <v>362</v>
-      </c>
-      <c r="U25" s="111" t="s">
-        <v>130</v>
-      </c>
-      <c r="V25" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="W25" s="111">
-        <v>89217427984</v>
-      </c>
-      <c r="X25" s="111" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y25" s="103" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z25" s="155">
-        <v>4023435996</v>
-      </c>
-      <c r="AA25" s="103" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB25" s="113">
-        <v>44985</v>
-      </c>
-      <c r="AC25" s="111" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD25" s="113" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="111" t="s">
-        <v>368</v>
-      </c>
-      <c r="B26" s="111" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="111" t="s">
-        <v>369</v>
-      </c>
-      <c r="K26" s="113">
-        <v>39462</v>
-      </c>
-      <c r="L26" s="111" t="s">
-        <v>370</v>
-      </c>
-      <c r="M26" s="153" t="s">
-        <v>371</v>
-      </c>
-      <c r="N26" s="111">
-        <v>15</v>
-      </c>
-      <c r="O26" s="111">
-        <v>9</v>
-      </c>
-      <c r="P26" s="111">
-        <v>597</v>
-      </c>
-      <c r="Q26" s="111" t="s">
-        <v>293</v>
-      </c>
-      <c r="R26" s="111">
-        <v>89112625350</v>
-      </c>
-      <c r="S26" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="T26" s="111" t="s">
-        <v>372</v>
-      </c>
-      <c r="U26" s="111" t="s">
-        <v>298</v>
-      </c>
-      <c r="V26" s="111" t="s">
-        <v>373</v>
-      </c>
-      <c r="W26" s="111">
-        <v>89219703060</v>
-      </c>
-      <c r="X26" s="111" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y26" s="103" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z26" s="103" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA26" s="103" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB26" s="113">
-        <v>42769</v>
-      </c>
-      <c r="AD26" s="113"/>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="111" t="s">
-        <v>378</v>
-      </c>
-      <c r="B27" s="111" t="s">
-        <v>379</v>
-      </c>
-      <c r="C27" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="111">
-        <v>17</v>
-      </c>
-      <c r="J27" s="111" t="s">
-        <v>380</v>
-      </c>
-      <c r="K27" s="113">
-        <v>40421</v>
-      </c>
-      <c r="L27" s="111" t="s">
-        <v>381</v>
-      </c>
-      <c r="M27" s="113"/>
-      <c r="N27" s="111">
-        <v>12</v>
-      </c>
-      <c r="O27" s="111">
-        <v>7</v>
-      </c>
-      <c r="P27" s="111">
-        <v>63</v>
-      </c>
-      <c r="Q27" s="111" t="s">
-        <v>382</v>
-      </c>
-      <c r="R27" s="111">
-        <v>89312784188</v>
-      </c>
-      <c r="S27" s="111" t="s">
-        <v>234</v>
-      </c>
-      <c r="T27" s="111" t="s">
-        <v>383</v>
-      </c>
-      <c r="U27" s="111" t="s">
-        <v>236</v>
-      </c>
-      <c r="V27" s="111" t="s">
-        <v>350</v>
-      </c>
-      <c r="W27" s="111">
-        <v>9219572227</v>
-      </c>
-      <c r="X27" s="111" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y27" s="103" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z27" s="152">
-        <v>4002341319</v>
-      </c>
-      <c r="AA27" s="111" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB27" s="113">
-        <v>37392</v>
-      </c>
-      <c r="AC27" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD27" s="113"/>
+      <c r="AD27" s="84"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AD27" xr:uid="{00000000-0009-0000-0000-000008000000}"/>

--- a/Exp 2023/Exp_2023.xlsx
+++ b/Exp 2023/Exp_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b36106a05bf74bb/Документы/GitHub/Lab-processings/Exp 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_D08EC206F11C93153720B02AEB419BE58E666E0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A405E8-2A56-4903-8C12-CD355E929482}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="11_D08EC206F11C93153720B02AEB419BE58E666E0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5EBF7DE-4C23-443D-9774-AF515AB9FB2E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Марш 2" sheetId="15" r:id="rId1"/>
@@ -54,8 +54,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="444">
   <si>
     <t>СПИСОК ГРУППЫ</t>
   </si>
@@ -141,9 +139,6 @@
   </si>
   <si>
     <t xml:space="preserve">пом.рук </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приготовление пищи на костре и газовых плитах </t>
   </si>
   <si>
     <r>
@@ -1440,6 +1435,12 @@
   </si>
   <si>
     <t>Приготовление пищи на костре и газовом обрудовании</t>
+  </si>
+  <si>
+    <t>Приготовление пищи на костре и газовом оборудовании</t>
+  </si>
+  <si>
+    <t>Заместитель руководителя группы ________________/Гаврилова Е.О./</t>
   </si>
 </sst>
 </file>
@@ -2278,9 +2279,63 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2289,60 +2344,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2380,7 +2381,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2401,7 +2402,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2422,7 +2423,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2709,8 +2710,8 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
@@ -3460,7 +3461,7 @@
       <c r="G28" s="41"/>
       <c r="H28" s="136"/>
       <c r="I28" s="141" t="s">
-        <v>26</v>
+        <v>442</v>
       </c>
       <c r="J28" s="142"/>
       <c r="K28" s="142"/>
@@ -3469,7 +3470,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.6">
       <c r="A29" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -3479,7 +3480,7 @@
       <c r="G29" s="51"/>
       <c r="H29" s="137"/>
       <c r="I29" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -3487,7 +3488,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="134"/>
       <c r="D30" s="52"/>
@@ -3503,10 +3504,10 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="54" t="s">
         <v>30</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>31</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
@@ -3516,7 +3517,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="H32" s="8" t="s">
-        <v>32</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" ht="23.25" customHeight="1"/>
@@ -3539,7 +3540,7 @@
     <mergeCell ref="I28:M28"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.22916666666666699" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3565,23 +3566,23 @@
   <sheetData>
     <row r="1" spans="1:6" ht="57.6">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3591,7 +3592,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" s="2">
         <v>40100</v>
@@ -3600,12 +3601,12 @@
         <v>9119433692</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B4" s="2">
         <v>39367</v>
@@ -3614,12 +3615,12 @@
         <v>9817122479</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B5" s="2">
         <v>39849</v>
@@ -3628,12 +3629,12 @@
         <v>9291040939</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B6" s="6">
         <v>39166</v>
@@ -3642,12 +3643,12 @@
         <v>9522270284</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" s="2">
         <v>38917</v>
@@ -3656,12 +3657,12 @@
         <v>9214136722</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B8" s="2">
         <v>40363</v>
@@ -3670,12 +3671,12 @@
         <v>9219845986</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B9" s="2">
         <v>40421</v>
@@ -3684,12 +3685,12 @@
         <v>9312784188</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B10" s="2">
         <v>38982</v>
@@ -3698,12 +3699,12 @@
         <v>9818723635</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11" s="2">
         <v>40469</v>
@@ -3712,12 +3713,12 @@
         <v>9045564762</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B12" s="6">
         <v>40195</v>
@@ -3726,12 +3727,12 @@
         <v>9657737525</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="2">
         <v>39529</v>
@@ -3740,17 +3741,17 @@
         <v>9817032760</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B17" s="2">
         <v>39646</v>
@@ -3759,12 +3760,12 @@
         <v>89602540838</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B18" s="2">
         <v>40579</v>
@@ -3773,12 +3774,12 @@
         <v>89602540838</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B19" s="2">
         <v>39849</v>
@@ -3787,12 +3788,12 @@
         <v>89291040939</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B20" s="6">
         <v>39166</v>
@@ -3801,12 +3802,12 @@
         <v>89522270284</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B21" s="2">
         <v>38917</v>
@@ -3815,12 +3816,12 @@
         <v>89214136722</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B22" s="2">
         <v>40363</v>
@@ -3829,12 +3830,12 @@
         <v>89219845986</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B23" s="6">
         <v>39581</v>
@@ -3843,12 +3844,12 @@
         <v>89259175393</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B24" s="2">
         <v>39916</v>
@@ -3857,12 +3858,12 @@
         <v>89218718088</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B25" s="6">
         <v>40070</v>
@@ -3871,12 +3872,12 @@
         <v>89213409406</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1">
       <c r="A26" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B26" s="2">
         <v>38982</v>
@@ -3885,12 +3886,12 @@
         <v>89818723635</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1">
       <c r="A27" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B27" s="6">
         <v>40195</v>
@@ -3899,12 +3900,12 @@
         <v>89657737525</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B28" s="2">
         <v>39529</v>
@@ -3913,12 +3914,12 @@
         <v>89817032760</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1">
       <c r="A29" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B29" s="6">
         <v>38989</v>
@@ -3927,12 +3928,12 @@
         <v>89213026506</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B30" s="2">
         <v>39987</v>
@@ -3941,12 +3942,12 @@
         <v>89819793731</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1">
       <c r="A31" s="68" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B31" s="69">
         <v>38933</v>
@@ -3955,12 +3956,12 @@
         <v>89219583612</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1">
       <c r="A32" s="68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B32" s="72">
         <v>39810</v>
@@ -3969,7 +3970,7 @@
         <v>89200043637</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3999,30 +4000,30 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="C1" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="126" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" s="126" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" s="126" t="s">
         <v>407</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="F1" s="127" t="s">
         <v>408</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="126" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="126" t="s">
         <v>410</v>
-      </c>
-      <c r="B2" s="126" t="s">
-        <v>411</v>
       </c>
       <c r="C2" s="126"/>
       <c r="D2" s="126"/>
@@ -4269,30 +4270,30 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="124" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B14" s="126" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="126" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="126" t="s">
+      <c r="C15" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="126" t="s">
-        <v>84</v>
-      </c>
       <c r="D15" s="126" t="s">
+        <v>406</v>
+      </c>
+      <c r="E15" s="126" t="s">
         <v>407</v>
       </c>
-      <c r="E15" s="126" t="s">
+      <c r="F15" s="127" t="s">
         <v>408</v>
-      </c>
-      <c r="F15" s="127" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4599,7 +4600,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B30" s="74"/>
       <c r="C30" s="74"/>
@@ -4607,13 +4608,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="74" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" s="74" t="s">
         <v>414</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="C31" s="74" t="s">
         <v>415</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>416</v>
       </c>
       <c r="D31" s="84"/>
     </row>
@@ -4668,168 +4669,168 @@
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="144" t="s">
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-    </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="145" t="s">
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+    </row>
+    <row r="6" spans="1:14" ht="18">
+      <c r="A6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="H6" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-    </row>
-    <row r="6" spans="1:14" ht="18">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="H6" s="144" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="28" t="s">
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="155" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="146" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
+      <c r="H8" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="148" t="s">
-        <v>431</v>
-      </c>
-      <c r="B8" s="158" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
-      <c r="H8" s="19" t="s">
+    <row r="9" spans="1:14" ht="15.6">
+      <c r="A9" s="155"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="151"/>
+      <c r="H9" s="16" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.6">
-      <c r="A9" s="148"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
-      <c r="H9" s="16" t="s">
-        <v>42</v>
       </c>
       <c r="I9" s="8">
         <v>13</v>
       </c>
       <c r="J9" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45" customHeight="1">
+      <c r="A10" s="156" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="149" t="s">
+      <c r="B10" s="152" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="H10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="164" t="s">
-        <v>432</v>
-      </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="H10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="146" t="str">
+      <c r="J10" s="164" t="str">
         <f>'Информация для бумаг_2'!C3</f>
         <v>Санкт-Петербург-Кандалакша-научная база "Ряжков"-Лувеньга-Колвица-Санкт-Петербург</v>
       </c>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="149"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
       <c r="H11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="29">
         <v>20</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6">
@@ -4837,21 +4838,21 @@
         <v>45150</v>
       </c>
       <c r="B12" s="95" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="H12" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="150"/>
+      <c r="H12" s="157" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="157"/>
       <c r="J12" s="30">
         <f>'Информация для бумаг_2'!C2</f>
         <v>45140</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="32">
         <f>'Информация для бумаг_2'!D2</f>
@@ -4859,48 +4860,48 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="152" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+    </row>
+    <row r="14" spans="1:14" ht="31.05" customHeight="1">
+      <c r="A14" s="156"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="H14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="164" t="s">
-        <v>433</v>
-      </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-    </row>
-    <row r="14" spans="1:14" ht="31.05" customHeight="1">
-      <c r="A14" s="149"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="H14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="151" t="str">
+      <c r="K14" s="158" t="str">
         <f>'Информация для бумаг_2'!C21</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="92">
         <v>45159</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="159" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="K15" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="K15" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="L15" s="8">
         <f>'Информация для бумаг_2'!F21</f>
@@ -4909,17 +4910,17 @@
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1">
       <c r="A16" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="162"/>
+      <c r="H16" s="24" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="155"/>
-      <c r="H16" s="24" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4930,7 +4931,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="H17" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4943,19 +4944,19 @@
     </row>
     <row r="19" spans="1:14" ht="15.6">
       <c r="H19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="151" t="str">
+        <v>57</v>
+      </c>
+      <c r="K19" s="158" t="str">
         <f>'Информация для бумаг_2'!C22</f>
         <v>Гаврилова Елизавета Олеговна</v>
       </c>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
     </row>
     <row r="20" spans="1:14">
       <c r="K20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L20" s="8">
         <f>'Информация для бумаг_2'!F22</f>
@@ -4963,30 +4964,30 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="144" t="s">
+      <c r="H22" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H23" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
     </row>
     <row r="25" spans="1:14" ht="15.6">
       <c r="H25" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M25" s="8">
         <f>K29</f>
@@ -4999,65 +5000,65 @@
     </row>
     <row r="26" spans="1:14" ht="15.6">
       <c r="A26" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.6">
       <c r="H28" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.6">
       <c r="H29" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" s="8">
         <f>'Информация для бумаг_2'!C25</f>
         <v>2023</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.6">
       <c r="A30" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:14" ht="15.6">
       <c r="H31" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
       <c r="H32" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" s="8">
         <f>'Информация для бумаг_2'!C25</f>
         <v>2023</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="8:8" ht="15.6">
       <c r="H33" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -5067,14 +5068,14 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K19:N19"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="H22:N22"/>
   </mergeCells>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5105,39 +5106,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="94" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="94" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5693,7 +5694,7 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5702,7 +5703,7 @@
         <v>Гаврилова Елизавета Олеговна</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5744,12 +5745,12 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" s="77">
         <v>45140</v>
@@ -5761,58 +5762,58 @@
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D3" s="78"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="D4" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="E4" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="F4" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="G4" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="75" t="s">
-        <v>87</v>
-      </c>
       <c r="H4" s="79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="75" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="L4" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="M4" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="N4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="O4" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="75" t="s">
         <v>92</v>
-      </c>
-      <c r="O4" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="75" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5820,13 +5821,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="D5" s="82" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>96</v>
       </c>
       <c r="E5" s="82">
         <v>17</v>
@@ -5845,10 +5846,10 @@
         <v>89602540838</v>
       </c>
       <c r="K5" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="73" t="s">
         <v>97</v>
-      </c>
-      <c r="L5" s="73" t="s">
-        <v>98</v>
       </c>
       <c r="N5" s="82">
         <v>89632430934</v>
@@ -5865,13 +5866,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="82">
         <v>18</v>
@@ -5890,16 +5891,16 @@
         <v>89602540838</v>
       </c>
       <c r="K6" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="L6" s="73" t="s">
         <v>97</v>
-      </c>
-      <c r="L6" s="73" t="s">
-        <v>98</v>
       </c>
       <c r="N6" s="82">
         <v>89632430934</v>
       </c>
       <c r="O6" s="82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P6" s="84">
         <v>40579</v>
@@ -5910,13 +5911,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="D7" s="82" t="s">
         <v>102</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>103</v>
       </c>
       <c r="E7" s="82">
         <v>21</v>
@@ -5935,10 +5936,10 @@
         <v>89291040939</v>
       </c>
       <c r="K7" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="73" t="s">
         <v>104</v>
-      </c>
-      <c r="L7" s="73" t="s">
-        <v>105</v>
       </c>
       <c r="N7" s="82">
         <v>89052622652</v>
@@ -5955,13 +5956,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="D8" s="82" t="s">
         <v>107</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>108</v>
       </c>
       <c r="E8" s="82">
         <v>5</v>
@@ -5980,10 +5981,10 @@
         <v>89522270284</v>
       </c>
       <c r="K8" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="73" t="s">
         <v>109</v>
-      </c>
-      <c r="L8" s="73" t="s">
-        <v>110</v>
       </c>
       <c r="N8" s="82">
         <v>89213354865</v>
@@ -6000,13 +6001,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="82" t="s">
-        <v>113</v>
-      </c>
       <c r="D9" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="82">
         <v>7</v>
@@ -6025,10 +6026,10 @@
         <v>89259175393</v>
       </c>
       <c r="K9" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="73" t="s">
         <v>114</v>
-      </c>
-      <c r="L9" s="73" t="s">
-        <v>115</v>
       </c>
       <c r="N9" s="82">
         <v>89217427984</v>
@@ -6045,13 +6046,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="D10" s="82" t="s">
         <v>118</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>119</v>
       </c>
       <c r="E10" s="82">
         <v>8</v>
@@ -6070,10 +6071,10 @@
         <v>89218718088</v>
       </c>
       <c r="K10" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" s="73" t="s">
         <v>120</v>
-      </c>
-      <c r="L10" s="73" t="s">
-        <v>121</v>
       </c>
       <c r="N10" s="82">
         <v>89213290657</v>
@@ -6090,13 +6091,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="D11" s="82" t="s">
         <v>124</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>125</v>
       </c>
       <c r="E11" s="82">
         <v>9</v>
@@ -6115,16 +6116,16 @@
         <v>89213409406</v>
       </c>
       <c r="K11" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="73" t="s">
         <v>126</v>
-      </c>
-      <c r="L11" s="73" t="s">
-        <v>127</v>
       </c>
       <c r="N11" s="82">
         <v>89817075769</v>
       </c>
       <c r="O11" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P11" s="84">
         <v>40070</v>
@@ -6135,13 +6136,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="D12" s="82" t="s">
         <v>130</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>131</v>
       </c>
       <c r="E12" s="82">
         <v>23</v>
@@ -6160,10 +6161,10 @@
         <v>89818723635</v>
       </c>
       <c r="K12" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" s="73" t="s">
         <v>132</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>133</v>
       </c>
       <c r="N12" s="82">
         <v>89818723635</v>
@@ -6180,13 +6181,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="D13" s="82" t="s">
         <v>135</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>136</v>
       </c>
       <c r="E13" s="82">
         <v>15</v>
@@ -6205,10 +6206,10 @@
         <v>89817032760</v>
       </c>
       <c r="K13" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="73" t="s">
         <v>137</v>
-      </c>
-      <c r="L13" s="73" t="s">
-        <v>138</v>
       </c>
       <c r="N13" s="82">
         <v>89111407222</v>
@@ -6225,13 +6226,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="D14" s="82" t="s">
         <v>140</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>141</v>
       </c>
       <c r="E14" s="82">
         <v>20</v>
@@ -6250,10 +6251,10 @@
         <v>89213026506</v>
       </c>
       <c r="K14" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="73" t="s">
         <v>142</v>
-      </c>
-      <c r="L14" s="73" t="s">
-        <v>143</v>
       </c>
       <c r="N14" s="82">
         <v>89213026506</v>
@@ -6270,13 +6271,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="D15" s="82" t="s">
         <v>145</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>146</v>
       </c>
       <c r="E15" s="82">
         <v>14</v>
@@ -6295,16 +6296,16 @@
         <v>89819793731</v>
       </c>
       <c r="K15" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" s="73" t="s">
         <v>147</v>
-      </c>
-      <c r="L15" s="73" t="s">
-        <v>148</v>
       </c>
       <c r="N15" s="82">
         <v>89118110171</v>
       </c>
       <c r="O15" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P15" s="84">
         <v>39987</v>
@@ -6315,13 +6316,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="D16" s="82" t="s">
         <v>151</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>152</v>
       </c>
       <c r="E16" s="82">
         <v>16</v>
@@ -6340,10 +6341,10 @@
         <v>89219583612</v>
       </c>
       <c r="K16" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="73" t="s">
         <v>153</v>
-      </c>
-      <c r="L16" s="73" t="s">
-        <v>154</v>
       </c>
       <c r="N16" s="82">
         <v>89213827100</v>
@@ -6360,13 +6361,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="D17" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E17" s="82">
         <v>19</v>
@@ -6385,10 +6386,10 @@
         <v>89200043637</v>
       </c>
       <c r="K17" s="82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L17" s="73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N17" s="82">
         <v>89914876053</v>
@@ -6437,13 +6438,13 @@
     </row>
     <row r="21" spans="1:16">
       <c r="B21" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="85">
         <v>89217427984</v>
@@ -6451,13 +6452,13 @@
     </row>
     <row r="22" spans="1:16">
       <c r="B22" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="85" t="s">
-        <v>162</v>
-      </c>
       <c r="E22" s="76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="85">
         <v>89291047172</v>
@@ -6465,7 +6466,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="B24" s="74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="77">
         <v>45078</v>
@@ -6473,7 +6474,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="B25" s="74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="85">
         <v>2023</v>
@@ -6481,13 +6482,13 @@
     </row>
     <row r="26" spans="1:16">
       <c r="B26" s="74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="86"/>
     </row>
     <row r="28" spans="1:16">
       <c r="B28" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -6530,7 +6531,7 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -6595,7 +6596,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="107" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I2" s="107" t="s">
         <v>2</v>
@@ -6647,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K3" s="58" t="s">
         <v>17</v>
@@ -6692,10 +6693,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K4" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L4" s="59"/>
       <c r="M4" s="59" t="s">
@@ -6735,7 +6736,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="58" t="s">
         <v>23</v>
@@ -7205,7 +7206,7 @@
       <c r="G28" s="41"/>
       <c r="H28" s="136"/>
       <c r="I28" s="141" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J28" s="142"/>
       <c r="K28" s="142"/>
@@ -7214,7 +7215,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.6">
       <c r="A29" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -7224,7 +7225,7 @@
       <c r="G29" s="51"/>
       <c r="H29" s="137"/>
       <c r="I29" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
@@ -7232,7 +7233,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="134"/>
       <c r="D30" s="52"/>
@@ -7248,10 +7249,10 @@
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="54" t="s">
         <v>30</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>31</v>
       </c>
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
@@ -7261,7 +7262,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="H32" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="23.25" customHeight="1"/>
@@ -7315,168 +7316,168 @@
   <sheetData>
     <row r="1" spans="1:14" ht="12.75" customHeight="1">
       <c r="A1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
+      <c r="M1" s="154"/>
+      <c r="N1" s="154"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="144" t="s">
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A3" s="145"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-    </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="145" t="s">
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+    </row>
+    <row r="6" spans="1:14" ht="18">
+      <c r="A6" s="145"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="H6" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-    </row>
-    <row r="6" spans="1:14" ht="18">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="H6" s="144" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
+      <c r="N6" s="154"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="166" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B8" s="168" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
+        <v>425</v>
+      </c>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
       <c r="H8" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.6">
       <c r="A9" s="166"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="151"/>
       <c r="H9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="8">
         <v>9</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
       <c r="A10" s="167" t="s">
-        <v>423</v>
-      </c>
-      <c r="B10" s="165" t="s">
-        <v>425</v>
-      </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
+        <v>422</v>
+      </c>
+      <c r="B10" s="153" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
       <c r="H10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="146" t="str">
+        <v>44</v>
+      </c>
+      <c r="J10" s="164" t="str">
         <f>'Информация для бумаг_1'!C3</f>
         <v>Санкт-Петербург-Кандалакша-Лувеньга-Колвица-Санкт-Петербург</v>
       </c>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="167"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
       <c r="H11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="29">
         <v>13</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6">
@@ -7484,21 +7485,21 @@
         <v>45124</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="H12" s="150" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="150"/>
+      <c r="H12" s="157" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="157"/>
       <c r="J12" s="30">
         <f>'Информация для бумаг_1'!C2</f>
         <v>45116</v>
       </c>
       <c r="K12" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="32">
         <f>'Информация для бумаг_1'!D2</f>
@@ -7507,47 +7508,47 @@
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
       <c r="A13" s="167" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="165" t="s">
-        <v>425</v>
-      </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
+        <v>168</v>
+      </c>
+      <c r="B13" s="153" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
     </row>
     <row r="14" spans="1:14" ht="31.05" customHeight="1">
       <c r="A14" s="167"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
       <c r="H14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="151" t="str">
+        <v>50</v>
+      </c>
+      <c r="K14" s="158" t="str">
         <f>'Информация для бумаг_1'!C16</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="64">
         <v>45129</v>
       </c>
       <c r="B15" s="169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="169"/>
       <c r="D15" s="169"/>
       <c r="E15" s="169"/>
       <c r="F15" s="169"/>
       <c r="K15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="8">
         <f>'Информация для бумаг_1'!F16</f>
@@ -7556,22 +7557,22 @@
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1">
       <c r="A16" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="H16" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="H17" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -7584,19 +7585,19 @@
     </row>
     <row r="19" spans="1:14" ht="15.6">
       <c r="H19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="151" t="str">
+        <v>57</v>
+      </c>
+      <c r="K19" s="158" t="str">
         <f>'Информация для бумаг_1'!C17</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="158"/>
     </row>
     <row r="20" spans="1:14">
       <c r="K20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L20" s="8">
         <f>'Информация для бумаг_1'!F17</f>
@@ -7604,30 +7605,30 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="144" t="s">
+      <c r="H22" s="154" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" customHeight="1">
+      <c r="H23" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-    </row>
-    <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
     </row>
     <row r="25" spans="1:14" ht="15.6">
       <c r="H25" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M25" s="8">
         <f>K29</f>
@@ -7640,60 +7641,65 @@
     </row>
     <row r="26" spans="1:14" ht="15.6">
       <c r="A26" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.6">
       <c r="H28" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.6">
       <c r="H29" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" s="8">
         <f>'Информация для бумаг_1'!C20</f>
         <v>2023</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.6">
       <c r="A30" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:14" ht="15.6">
       <c r="H31" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.6">
       <c r="H32" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" s="8">
         <f>'Информация для бумаг_1'!C20</f>
         <v>2023</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="8:8" ht="15.6">
       <c r="H33" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -7707,11 +7713,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
   </mergeCells>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7751,12 +7752,12 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="B2" s="74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" s="77">
         <v>45116</v>
@@ -7768,58 +7769,58 @@
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" s="78"/>
     </row>
     <row r="4" spans="1:16">
       <c r="B4" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="D4" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="E4" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="F4" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="75" t="s">
+      <c r="G4" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="75" t="s">
-        <v>87</v>
-      </c>
       <c r="H4" s="79" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="75" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="L4" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="M4" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="N4" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="75" t="s">
+      <c r="O4" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="75" t="s">
         <v>92</v>
-      </c>
-      <c r="O4" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="75" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7827,13 +7828,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="D5" s="82" t="s">
         <v>172</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>173</v>
       </c>
       <c r="E5" s="82">
         <v>2</v>
@@ -7852,16 +7853,16 @@
         <v>89119433692</v>
       </c>
       <c r="K5" s="82" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="73" t="s">
         <v>174</v>
-      </c>
-      <c r="L5" s="73" t="s">
-        <v>175</v>
       </c>
       <c r="N5" s="82">
         <v>89119433692</v>
       </c>
       <c r="O5" s="82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P5" s="84">
         <v>40100</v>
@@ -7872,13 +7873,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="D6" s="82" t="s">
         <v>102</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>103</v>
       </c>
       <c r="E6" s="82">
         <v>21</v>
@@ -7897,10 +7898,10 @@
         <v>89291040939</v>
       </c>
       <c r="K6" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="73" t="s">
         <v>104</v>
-      </c>
-      <c r="L6" s="73" t="s">
-        <v>105</v>
       </c>
       <c r="N6" s="82">
         <v>89052622652</v>
@@ -7917,13 +7918,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="D7" s="82" t="s">
         <v>178</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>179</v>
       </c>
       <c r="E7" s="82">
         <v>6</v>
@@ -7942,16 +7943,16 @@
         <v>89219845986</v>
       </c>
       <c r="K7" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="73" t="s">
         <v>180</v>
-      </c>
-      <c r="L7" s="73" t="s">
-        <v>181</v>
       </c>
       <c r="N7" s="82">
         <v>89213323160</v>
       </c>
       <c r="O7" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P7" s="84">
         <v>40363</v>
@@ -7962,13 +7963,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="D8" s="82" t="s">
         <v>130</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>131</v>
       </c>
       <c r="E8" s="82">
         <v>23</v>
@@ -7987,10 +7988,10 @@
         <v>89818723635</v>
       </c>
       <c r="K8" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="73" t="s">
         <v>132</v>
-      </c>
-      <c r="L8" s="73" t="s">
-        <v>133</v>
       </c>
       <c r="N8" s="82">
         <v>89818723635</v>
@@ -8007,13 +8008,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="D9" s="82" t="s">
         <v>184</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>185</v>
       </c>
       <c r="E9" s="82">
         <v>11</v>
@@ -8032,16 +8033,16 @@
         <v>89045564762</v>
       </c>
       <c r="K9" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="73" t="s">
         <v>186</v>
-      </c>
-      <c r="L9" s="73" t="s">
-        <v>187</v>
       </c>
       <c r="N9" s="82">
         <v>89030941182</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P9" s="84">
         <v>40469</v>
@@ -8052,13 +8053,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="D10" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="82">
         <v>12</v>
@@ -8077,16 +8078,16 @@
         <v>89657737525</v>
       </c>
       <c r="K10" s="82" t="s">
+        <v>190</v>
+      </c>
+      <c r="L10" s="73" t="s">
         <v>191</v>
-      </c>
-      <c r="L10" s="73" t="s">
-        <v>192</v>
       </c>
       <c r="N10" s="82">
         <v>89657737525</v>
       </c>
       <c r="O10" s="82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P10" s="84">
         <v>40195</v>
@@ -8097,13 +8098,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="D11" s="82" t="s">
         <v>135</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>136</v>
       </c>
       <c r="E11" s="82">
         <v>15</v>
@@ -8122,10 +8123,10 @@
         <v>89817032760</v>
       </c>
       <c r="K11" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="73" t="s">
         <v>137</v>
-      </c>
-      <c r="L11" s="73" t="s">
-        <v>138</v>
       </c>
       <c r="N11" s="82">
         <v>89111407222</v>
@@ -8142,13 +8143,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="82" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="D12" s="82" t="s">
         <v>140</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>141</v>
       </c>
       <c r="E12" s="82">
         <v>20</v>
@@ -8167,10 +8168,10 @@
         <v>89213026506</v>
       </c>
       <c r="K12" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="73" t="s">
         <v>142</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>143</v>
       </c>
       <c r="N12" s="82">
         <v>89213026506</v>
@@ -8187,13 +8188,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="82" t="s">
-        <v>195</v>
-      </c>
       <c r="D13" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="82">
         <v>0</v>
@@ -8212,10 +8213,10 @@
         <v>89818295984</v>
       </c>
       <c r="K13" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L13" s="73" t="s">
         <v>196</v>
-      </c>
-      <c r="L13" s="73" t="s">
-        <v>197</v>
       </c>
       <c r="N13" s="82">
         <v>89213414725</v>
@@ -8245,13 +8246,13 @@
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="85">
         <v>89217427984</v>
@@ -8259,13 +8260,13 @@
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="85">
         <v>89679796720</v>
@@ -8273,7 +8274,7 @@
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="77">
         <v>45078</v>
@@ -8281,7 +8282,7 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="85">
         <v>2023</v>
@@ -8289,13 +8290,13 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="86"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -8357,39 +8358,39 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="I4" s="108" t="s">
         <v>76</v>
-      </c>
-      <c r="I4" s="108" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8841,7 +8842,7 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -8850,7 +8851,7 @@
         <v>Котельникова Валентина Сергеевна</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8904,46 +8905,46 @@
   <sheetData>
     <row r="1" spans="1:30" ht="57.6">
       <c r="A1" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="C1" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="110" t="s">
-        <v>84</v>
-      </c>
       <c r="D1" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="F1" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="G1" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="H1" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="111" t="s">
+      <c r="J1" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="K1" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="K1" s="111" t="s">
+      <c r="L1" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="L1" s="112" t="s">
+      <c r="M1" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="N1" s="111" t="s">
         <v>207</v>
-      </c>
-      <c r="N1" s="111" t="s">
-        <v>208</v>
       </c>
       <c r="O1" s="111" t="s">
         <v>6</v>
@@ -8952,57 +8953,57 @@
         <v>5</v>
       </c>
       <c r="Q1" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="R1" s="111" t="s">
+      <c r="S1" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="T1" s="111" t="s">
         <v>211</v>
       </c>
-      <c r="T1" s="111" t="s">
+      <c r="U1" s="111" t="s">
         <v>212</v>
       </c>
-      <c r="U1" s="111" t="s">
+      <c r="V1" s="111" t="s">
         <v>213</v>
       </c>
-      <c r="V1" s="111" t="s">
+      <c r="W1" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="W1" s="113" t="s">
+      <c r="X1" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="X1" s="111" t="s">
+      <c r="Y1" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="Y1" s="112" t="s">
+      <c r="Z1" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="Z1" s="112" t="s">
+      <c r="AA1" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="AA1" s="112" t="s">
+      <c r="AB1" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="AB1" s="112" t="s">
+      <c r="AC1" s="111" t="s">
         <v>220</v>
       </c>
-      <c r="AC1" s="111" t="s">
+      <c r="AD1" s="111" t="s">
         <v>221</v>
-      </c>
-      <c r="AD1" s="111" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="C2" s="82" t="s">
         <v>172</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>173</v>
       </c>
       <c r="D2" s="82">
         <v>1</v>
@@ -9017,16 +9018,16 @@
         <v>2</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K2" s="84">
         <v>40100</v>
       </c>
       <c r="L2" s="82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M2" s="84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N2" s="82">
         <v>13</v>
@@ -9038,57 +9039,57 @@
         <v>197</v>
       </c>
       <c r="Q2" s="82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R2" s="82">
         <v>9119433692</v>
       </c>
       <c r="S2" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="T2" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="T2" s="82" t="s">
+      <c r="U2" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="V2" s="82" t="s">
         <v>227</v>
-      </c>
-      <c r="U2" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="V2" s="82" t="s">
-        <v>228</v>
       </c>
       <c r="W2" s="82">
         <v>9119433692</v>
       </c>
       <c r="X2" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y2" s="82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z2" s="114">
         <v>4016637661</v>
       </c>
       <c r="AA2" s="82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AB2" s="84">
         <v>42648</v>
       </c>
       <c r="AC2" s="82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AD2" s="84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="C3" s="82" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>96</v>
       </c>
       <c r="E3" s="82">
         <v>1</v>
@@ -9100,7 +9101,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K3" s="84">
         <v>39646</v>
@@ -9109,7 +9110,7 @@
         <v>4022245584</v>
       </c>
       <c r="M3" s="115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N3" s="82">
         <v>14</v>
@@ -9121,37 +9122,37 @@
         <v>777</v>
       </c>
       <c r="Q3" s="82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R3" s="82">
         <v>9602540838</v>
       </c>
       <c r="S3" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="T3" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="T3" s="82" t="s">
+      <c r="U3" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="U3" s="82" t="s">
+      <c r="V3" s="82" t="s">
         <v>236</v>
-      </c>
-      <c r="V3" s="82" t="s">
-        <v>237</v>
       </c>
       <c r="W3" s="82">
         <v>9632430934</v>
       </c>
       <c r="X3" s="82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y3" s="82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z3" s="114">
         <v>4005763150</v>
       </c>
       <c r="AA3" s="82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB3" s="84">
         <v>38631</v>
@@ -9160,13 +9161,13 @@
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="82">
         <v>1</v>
@@ -9178,13 +9179,13 @@
         <v>18</v>
       </c>
       <c r="J4" s="82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K4" s="84">
         <v>40579</v>
       </c>
       <c r="L4" s="82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M4" s="84">
         <v>40595</v>
@@ -9199,37 +9200,37 @@
         <v>655</v>
       </c>
       <c r="Q4" s="82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R4" s="82">
         <v>9602540838</v>
       </c>
       <c r="S4" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="T4" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="T4" s="82" t="s">
+      <c r="U4" s="82" t="s">
         <v>235</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="V4" s="82" t="s">
         <v>236</v>
-      </c>
-      <c r="V4" s="82" t="s">
-        <v>237</v>
       </c>
       <c r="W4" s="82">
         <v>9632430934</v>
       </c>
       <c r="X4" s="82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y4" s="82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z4" s="114">
         <v>4005763150</v>
       </c>
       <c r="AA4" s="82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AB4" s="84">
         <v>38631</v>
@@ -9238,13 +9239,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="C5" s="82" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>103</v>
       </c>
       <c r="D5" s="82">
         <v>1</v>
@@ -9262,7 +9263,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K5" s="84">
         <v>39849</v>
@@ -9271,7 +9272,7 @@
         <v>4022381251</v>
       </c>
       <c r="M5" s="115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N5" s="82">
         <v>14</v>
@@ -9283,37 +9284,37 @@
         <v>56</v>
       </c>
       <c r="Q5" s="116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R5" s="82">
         <v>89291040939</v>
       </c>
       <c r="S5" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="T5" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="T5" s="82" t="s">
+      <c r="U5" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="U5" s="82" t="s">
+      <c r="V5" s="82" t="s">
         <v>246</v>
-      </c>
-      <c r="V5" s="82" t="s">
-        <v>247</v>
       </c>
       <c r="W5" s="82">
         <v>89052622652</v>
       </c>
       <c r="X5" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y5" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z5" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="Z5" s="74" t="s">
+      <c r="AA5" s="74" t="s">
         <v>249</v>
-      </c>
-      <c r="AA5" s="74" t="s">
-        <v>250</v>
       </c>
       <c r="AB5" s="84">
         <v>39323</v>
@@ -9322,13 +9323,13 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="C6" s="82" t="s">
         <v>107</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>108</v>
       </c>
       <c r="E6" s="82">
         <v>1</v>
@@ -9343,16 +9344,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K6" s="115">
         <v>39166</v>
       </c>
       <c r="L6" s="82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M6" s="115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N6" s="82">
         <v>16</v>
@@ -9364,57 +9365,57 @@
         <v>441</v>
       </c>
       <c r="Q6" s="82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R6" s="82">
         <v>9522270284</v>
       </c>
       <c r="S6" s="82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T6" s="82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U6" s="82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V6" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W6" s="82">
         <v>9213354865</v>
       </c>
       <c r="X6" s="82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y6" s="82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Z6" s="117">
         <v>4022173758</v>
       </c>
       <c r="AA6" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB6" s="84">
         <v>44714</v>
       </c>
       <c r="AC6" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD6" s="115" t="s">
         <v>256</v>
-      </c>
-      <c r="AD6" s="115" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="C7" s="82" t="s">
         <v>178</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>179</v>
       </c>
       <c r="D7" s="82">
         <v>1</v>
@@ -9429,13 +9430,13 @@
         <v>6</v>
       </c>
       <c r="J7" s="82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K7" s="84">
         <v>40363</v>
       </c>
       <c r="L7" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M7" s="84"/>
       <c r="N7" s="82">
@@ -9448,57 +9449,57 @@
         <v>92</v>
       </c>
       <c r="Q7" s="82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R7" s="82">
         <v>9219845986</v>
       </c>
       <c r="S7" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="T7" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="T7" s="82" t="s">
+      <c r="U7" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="U7" s="82" t="s">
+      <c r="V7" s="82" t="s">
         <v>262</v>
-      </c>
-      <c r="V7" s="82" t="s">
-        <v>263</v>
       </c>
       <c r="W7" s="82">
         <v>9213323160</v>
       </c>
       <c r="X7" s="82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y7" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z7" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="Z7" s="74" t="s">
+      <c r="AA7" s="74" t="s">
         <v>265</v>
-      </c>
-      <c r="AA7" s="74" t="s">
-        <v>266</v>
       </c>
       <c r="AB7" s="84">
         <v>39582</v>
       </c>
       <c r="AC7" s="82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AD7" s="84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>113</v>
-      </c>
       <c r="C8" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="82">
         <v>1</v>
@@ -9513,7 +9514,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="82" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K8" s="115">
         <v>39581</v>
@@ -9522,7 +9523,7 @@
         <v>4022166002</v>
       </c>
       <c r="M8" s="129" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N8" s="82">
         <v>15</v>
@@ -9534,57 +9535,57 @@
         <v>204</v>
       </c>
       <c r="Q8" s="82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R8" s="82">
         <v>9259175393</v>
       </c>
       <c r="S8" s="82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T8" s="82" t="s">
+        <v>269</v>
+      </c>
+      <c r="U8" s="82" t="s">
         <v>270</v>
       </c>
-      <c r="U8" s="82" t="s">
+      <c r="V8" s="82" t="s">
         <v>271</v>
-      </c>
-      <c r="V8" s="82" t="s">
-        <v>272</v>
       </c>
       <c r="W8" s="82">
         <v>9217427984</v>
       </c>
       <c r="X8" s="82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y8" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z8" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="Z8" s="74" t="s">
+      <c r="AA8" s="74" t="s">
         <v>274</v>
-      </c>
-      <c r="AA8" s="74" t="s">
-        <v>275</v>
       </c>
       <c r="AB8" s="84">
         <v>37239</v>
       </c>
       <c r="AC8" s="82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD8" s="84" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="C9" s="82" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>119</v>
       </c>
       <c r="E9" s="82">
         <v>1</v>
@@ -9596,7 +9597,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K9" s="84">
         <v>39916</v>
@@ -9605,7 +9606,7 @@
         <v>4023481571</v>
       </c>
       <c r="M9" s="129" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N9" s="82">
         <v>13</v>
@@ -9617,57 +9618,57 @@
         <v>533</v>
       </c>
       <c r="Q9" s="82" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R9" s="82">
         <v>9218718088</v>
       </c>
       <c r="S9" s="82" t="s">
+        <v>279</v>
+      </c>
+      <c r="T9" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="T9" s="82" t="s">
-        <v>281</v>
-      </c>
       <c r="U9" s="82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V9" s="82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W9" s="82">
         <v>9213290657</v>
       </c>
       <c r="X9" s="82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y9" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z9" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="Z9" s="74" t="s">
+      <c r="AA9" s="74" t="s">
         <v>283</v>
-      </c>
-      <c r="AA9" s="74" t="s">
-        <v>284</v>
       </c>
       <c r="AB9" s="84">
         <v>38819</v>
       </c>
       <c r="AC9" s="82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD9" s="84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="C10" s="82" t="s">
         <v>124</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>125</v>
       </c>
       <c r="E10" s="82">
         <v>1</v>
@@ -9682,13 +9683,13 @@
         <v>9</v>
       </c>
       <c r="J10" s="82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K10" s="115">
         <v>40070</v>
       </c>
       <c r="L10" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M10" s="115"/>
       <c r="N10" s="82">
@@ -9701,43 +9702,43 @@
         <v>518</v>
       </c>
       <c r="Q10" s="82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R10" s="82">
         <v>9213409406</v>
       </c>
       <c r="S10" s="82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T10" s="74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U10" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V10" s="74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="W10" s="74">
         <v>9817075769</v>
       </c>
       <c r="X10" s="82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y10" s="74" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z10" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="Z10" s="74" t="s">
+      <c r="AA10" s="74" t="s">
         <v>289</v>
-      </c>
-      <c r="AA10" s="74" t="s">
-        <v>290</v>
       </c>
       <c r="AB10" s="84">
         <v>43207</v>
       </c>
       <c r="AC10" s="82" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AD10" s="115">
         <v>40077</v>
@@ -9745,13 +9746,13 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="C11" s="73" t="s">
         <v>130</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>131</v>
       </c>
       <c r="D11" s="73">
         <v>1</v>
@@ -9766,7 +9767,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K11" s="84">
         <v>38982</v>
@@ -9785,43 +9786,43 @@
         <v>586</v>
       </c>
       <c r="Q11" s="82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R11" s="82">
         <v>89818723635</v>
       </c>
       <c r="S11" s="82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T11" s="82" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U11" s="82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V11" s="82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W11" s="82">
         <v>89818723635</v>
       </c>
       <c r="X11" s="82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC11" s="82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD11" s="84"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="82" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="C12" s="82" t="s">
         <v>184</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>185</v>
       </c>
       <c r="D12" s="82">
         <v>1</v>
@@ -9836,13 +9837,13 @@
         <v>11</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K12" s="84">
         <v>40469</v>
       </c>
       <c r="L12" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N12" s="82">
         <v>12</v>
@@ -9854,57 +9855,57 @@
         <v>617</v>
       </c>
       <c r="Q12" s="119" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R12" s="82">
         <v>9045564762</v>
       </c>
       <c r="S12" s="82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T12" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="U12" s="82" t="s">
         <v>297</v>
       </c>
-      <c r="U12" s="82" t="s">
+      <c r="V12" s="82" t="s">
         <v>298</v>
-      </c>
-      <c r="V12" s="82" t="s">
-        <v>299</v>
       </c>
       <c r="W12" s="82">
         <v>9030941182</v>
       </c>
       <c r="X12" s="82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y12" s="82" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Z12" s="114">
         <v>4017753196</v>
       </c>
       <c r="AA12" s="82" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB12" s="84">
         <v>42838</v>
       </c>
       <c r="AC12" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AD12" s="84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>190</v>
-      </c>
       <c r="C13" s="82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="82">
         <v>1</v>
@@ -9916,13 +9917,13 @@
         <v>12</v>
       </c>
       <c r="J13" s="82" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K13" s="115">
         <v>40195</v>
       </c>
       <c r="L13" s="82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M13" s="115"/>
       <c r="N13" s="82">
@@ -9935,40 +9936,40 @@
         <v>64</v>
       </c>
       <c r="Q13" s="82" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R13" s="82">
         <v>9657737525</v>
       </c>
       <c r="S13" s="82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T13" s="82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U13" s="82" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V13" s="82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W13" s="82">
         <v>9657737525</v>
       </c>
       <c r="X13" s="82" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AD13" s="115"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="C14" s="82" t="s">
         <v>135</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>136</v>
       </c>
       <c r="D14" s="82">
         <v>1</v>
@@ -9983,7 +9984,7 @@
         <v>15</v>
       </c>
       <c r="J14" s="82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K14" s="84">
         <v>39529</v>
@@ -9992,7 +9993,7 @@
         <v>4022149794</v>
       </c>
       <c r="M14" s="115" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N14" s="82">
         <v>14</v>
@@ -10004,57 +10005,57 @@
         <v>56</v>
       </c>
       <c r="Q14" s="82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R14" s="82">
         <v>9817032760</v>
       </c>
       <c r="S14" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="T14" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="U14" s="82" t="s">
         <v>308</v>
       </c>
-      <c r="T14" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="U14" s="82" t="s">
+      <c r="V14" s="82" t="s">
         <v>309</v>
-      </c>
-      <c r="V14" s="82" t="s">
-        <v>310</v>
       </c>
       <c r="W14" s="82">
         <v>9111407222</v>
       </c>
       <c r="X14" s="82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y14" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z14" s="74" t="s">
         <v>311</v>
       </c>
-      <c r="Z14" s="74" t="s">
+      <c r="AA14" s="115" t="s">
         <v>312</v>
-      </c>
-      <c r="AA14" s="115" t="s">
-        <v>313</v>
       </c>
       <c r="AB14" s="84">
         <v>44170</v>
       </c>
       <c r="AC14" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD14" s="84" t="s">
         <v>314</v>
-      </c>
-      <c r="AD14" s="84" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="C15" s="73" t="s">
         <v>140</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>141</v>
       </c>
       <c r="D15" s="73"/>
       <c r="E15" s="73">
@@ -10067,7 +10068,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K15" s="115">
         <v>38989</v>
@@ -10086,49 +10087,49 @@
         <v>452</v>
       </c>
       <c r="Q15" s="82" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R15" s="82">
         <v>89213026506</v>
       </c>
       <c r="S15" s="82" t="s">
+        <v>316</v>
+      </c>
+      <c r="T15" s="82" t="s">
         <v>317</v>
       </c>
-      <c r="T15" s="82" t="s">
-        <v>318</v>
-      </c>
       <c r="U15" s="82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V15" s="82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W15" s="82">
         <v>89213026506</v>
       </c>
       <c r="X15" s="82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y15" s="74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z15" s="74">
         <v>4015447975</v>
       </c>
       <c r="AA15" s="74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AD15" s="115"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="C16" s="82" t="s">
         <v>145</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>146</v>
       </c>
       <c r="E16" s="82">
         <v>1</v>
@@ -10143,13 +10144,13 @@
         <v>14</v>
       </c>
       <c r="J16" s="82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K16" s="84">
         <v>39987</v>
       </c>
       <c r="L16" s="118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M16" s="84"/>
       <c r="N16" s="82">
@@ -10162,43 +10163,43 @@
         <v>43</v>
       </c>
       <c r="Q16" s="82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R16" s="82">
         <v>9819793731</v>
       </c>
       <c r="S16" s="82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T16" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="U16" s="74" t="s">
         <v>323</v>
       </c>
-      <c r="U16" s="74" t="s">
+      <c r="V16" s="74" t="s">
         <v>324</v>
-      </c>
-      <c r="V16" s="74" t="s">
-        <v>325</v>
       </c>
       <c r="W16" s="82">
         <v>9118110171</v>
       </c>
       <c r="X16" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y16" s="74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Z16" s="114">
         <v>4004820373</v>
       </c>
       <c r="AA16" s="74" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AB16" s="84">
         <v>37903</v>
       </c>
       <c r="AC16" s="82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD16" s="78">
         <v>40004</v>
@@ -10206,13 +10207,13 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="C17" s="73" t="s">
         <v>151</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>152</v>
       </c>
       <c r="D17" s="73"/>
       <c r="E17" s="73">
@@ -10222,7 +10223,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="82" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K17" s="121">
         <v>38933</v>
@@ -10243,32 +10244,32 @@
         <v>89219583612</v>
       </c>
       <c r="T17" s="122" t="s">
+        <v>328</v>
+      </c>
+      <c r="U17" s="122" t="s">
         <v>329</v>
       </c>
-      <c r="U17" s="122" t="s">
-        <v>330</v>
-      </c>
       <c r="V17" s="122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W17" s="123">
         <v>9213827100</v>
       </c>
       <c r="X17" s="122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC17" s="121"/>
       <c r="AD17" s="121"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="82" t="s">
-        <v>195</v>
-      </c>
       <c r="C18" s="82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="82">
         <v>1</v>
@@ -10283,7 +10284,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="82" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K18" s="84">
         <v>39857</v>
@@ -10292,7 +10293,7 @@
         <v>4023439220</v>
       </c>
       <c r="M18" s="84" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N18" s="82">
         <v>14</v>
@@ -10307,51 +10308,51 @@
         <v>9818295984</v>
       </c>
       <c r="S18" s="82" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T18" s="82" t="s">
+        <v>332</v>
+      </c>
+      <c r="U18" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="U18" s="82" t="s">
-        <v>334</v>
-      </c>
       <c r="V18" s="82" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W18" s="82">
         <v>9213414725</v>
       </c>
       <c r="X18" s="82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y18" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z18" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="Z18" s="74" t="s">
-        <v>336</v>
-      </c>
       <c r="AA18" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB18" s="84">
         <v>44209</v>
       </c>
       <c r="AC18" s="82" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD18" s="84" t="s">
         <v>337</v>
-      </c>
-      <c r="AD18" s="84" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="C19" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E19" s="82">
         <v>1</v>
@@ -10360,7 +10361,7 @@
         <v>19</v>
       </c>
       <c r="J19" s="132" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K19" s="84">
         <v>39810</v>
@@ -10369,7 +10370,7 @@
         <v>4022372441</v>
       </c>
       <c r="M19" s="131" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N19" s="82">
         <v>14</v>
@@ -10384,32 +10385,32 @@
         <v>89200043637</v>
       </c>
       <c r="T19" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="U19" s="82" t="s">
         <v>339</v>
       </c>
-      <c r="U19" s="82" t="s">
+      <c r="V19" s="82" t="s">
         <v>340</v>
-      </c>
-      <c r="V19" s="82" t="s">
-        <v>341</v>
       </c>
       <c r="W19" s="120">
         <v>9914876053</v>
       </c>
       <c r="X19" s="82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC19" s="84"/>
       <c r="AD19" s="84"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="82" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="82" t="s">
         <v>342</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="C22" s="82" t="s">
         <v>343</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>344</v>
       </c>
       <c r="F22" s="73"/>
       <c r="G22" s="73">
@@ -10420,16 +10421,16 @@
       </c>
       <c r="I22" s="73"/>
       <c r="J22" s="82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K22" s="84">
         <v>39367</v>
       </c>
       <c r="L22" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="M22" s="84" t="s">
         <v>346</v>
-      </c>
-      <c r="M22" s="84" t="s">
-        <v>347</v>
       </c>
       <c r="N22" s="73">
         <v>15</v>
@@ -10441,57 +10442,57 @@
         <v>171</v>
       </c>
       <c r="Q22" s="119" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R22" s="82">
         <v>9817122479</v>
       </c>
       <c r="S22" s="82" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T22" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="U22" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="V22" s="82" t="s">
         <v>349</v>
-      </c>
-      <c r="U22" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="V22" s="82" t="s">
-        <v>350</v>
       </c>
       <c r="W22" s="82">
         <v>9052006465</v>
       </c>
       <c r="X22" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y22" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="Y22" s="74" t="s">
+      <c r="Z22" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="Z22" s="74" t="s">
+      <c r="AA22" s="74" t="s">
         <v>353</v>
-      </c>
-      <c r="AA22" s="74" t="s">
-        <v>354</v>
       </c>
       <c r="AB22" s="84">
         <v>44370</v>
       </c>
       <c r="AC22" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD22" s="84" t="s">
         <v>355</v>
-      </c>
-      <c r="AD22" s="84" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" s="82" t="s">
         <v>357</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="C25" s="82" t="s">
         <v>358</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>359</v>
       </c>
       <c r="G25" s="82">
         <v>22</v>
@@ -10500,7 +10501,7 @@
         <v>17</v>
       </c>
       <c r="J25" s="82" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K25" s="84">
         <v>38917</v>
@@ -10519,69 +10520,69 @@
         <v>56</v>
       </c>
       <c r="Q25" s="82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R25" s="82">
         <v>89214136722</v>
       </c>
       <c r="S25" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="T25" s="82" t="s">
         <v>361</v>
       </c>
-      <c r="T25" s="82" t="s">
-        <v>362</v>
-      </c>
       <c r="U25" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="V25" s="82" t="s">
         <v>130</v>
-      </c>
-      <c r="V25" s="82" t="s">
-        <v>131</v>
       </c>
       <c r="W25" s="82">
         <v>89217427984</v>
       </c>
       <c r="X25" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y25" s="74" t="s">
         <v>363</v>
-      </c>
-      <c r="Y25" s="74" t="s">
-        <v>364</v>
       </c>
       <c r="Z25" s="117">
         <v>4023435996</v>
       </c>
       <c r="AA25" s="74" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AB25" s="84">
         <v>44985</v>
       </c>
       <c r="AC25" s="82" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD25" s="84" t="s">
         <v>366</v>
-      </c>
-      <c r="AD25" s="84" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="82" t="s">
         <v>368</v>
-      </c>
-      <c r="B26" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="82" t="s">
-        <v>369</v>
       </c>
       <c r="K26" s="84">
         <v>39462</v>
       </c>
       <c r="L26" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="M26" s="115" t="s">
         <v>370</v>
-      </c>
-      <c r="M26" s="115" t="s">
-        <v>371</v>
       </c>
       <c r="N26" s="82">
         <v>15</v>
@@ -10593,37 +10594,37 @@
         <v>597</v>
       </c>
       <c r="Q26" s="82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="R26" s="82">
         <v>89112625350</v>
       </c>
       <c r="S26" s="82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T26" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="U26" s="82" t="s">
+        <v>297</v>
+      </c>
+      <c r="V26" s="82" t="s">
         <v>372</v>
-      </c>
-      <c r="U26" s="82" t="s">
-        <v>298</v>
-      </c>
-      <c r="V26" s="82" t="s">
-        <v>373</v>
       </c>
       <c r="W26" s="82">
         <v>89219703060</v>
       </c>
       <c r="X26" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y26" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="Y26" s="74" t="s">
+      <c r="Z26" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="Z26" s="74" t="s">
+      <c r="AA26" s="74" t="s">
         <v>376</v>
-      </c>
-      <c r="AA26" s="74" t="s">
-        <v>377</v>
       </c>
       <c r="AB26" s="84">
         <v>42769</v>
@@ -10632,25 +10633,25 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="82" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" s="82" t="s">
         <v>378</v>
       </c>
-      <c r="B27" s="82" t="s">
-        <v>379</v>
-      </c>
       <c r="C27" s="82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G27" s="82">
         <v>17</v>
       </c>
       <c r="J27" s="82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K27" s="84">
         <v>40421</v>
       </c>
       <c r="L27" s="82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M27" s="84"/>
       <c r="N27" s="82">
@@ -10663,43 +10664,43 @@
         <v>63</v>
       </c>
       <c r="Q27" s="82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R27" s="82">
         <v>89312784188</v>
       </c>
       <c r="S27" s="82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="T27" s="82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U27" s="82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="V27" s="82" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W27" s="82">
         <v>9219572227</v>
       </c>
       <c r="X27" s="82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Y27" s="74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z27" s="114">
         <v>4002341319</v>
       </c>
       <c r="AA27" s="82" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AB27" s="84">
         <v>37392</v>
       </c>
       <c r="AC27" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AD27" s="84"/>
     </row>

--- a/Exp 2023/Exp_2023.xlsx
+++ b/Exp 2023/Exp_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b36106a05bf74bb/Документы/GitHub/Lab-processings/Exp 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="11_D08EC206F11C93153720B02AEB419BE58E666E0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5EBF7DE-4C23-443D-9774-AF515AB9FB2E}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="11_D08EC206F11C93153720B02AEB419BE58E666E0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41C654E9-1979-4E25-B8A5-651CA9B780EA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Марш 2" sheetId="15" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="450">
   <si>
     <t>СПИСОК ГРУППЫ</t>
   </si>
@@ -1442,6 +1442,24 @@
   <si>
     <t>Заместитель руководителя группы ________________/Гаврилова Е.О./</t>
   </si>
+  <si>
+    <t>Покупка билетов</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург-Кандалакша</t>
+  </si>
+  <si>
+    <t>8 детских, 2 взрослых</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Перевод</t>
+  </si>
+  <si>
+    <t>Кандалакша-Санкт-Петербург</t>
+  </si>
 </sst>
 </file>
 
@@ -1454,12 +1472,20 @@
     <numFmt numFmtId="167" formatCode="[$-419]d\ mm\ yyyy;@"/>
     <numFmt numFmtId="168" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1927,436 +1953,439 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -2381,7 +2410,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2402,7 +2431,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2423,7 +2452,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Шаблон"/>
@@ -2441,10 +2470,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2710,7 +2735,7 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -4671,87 +4696,87 @@
       <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="154" t="s">
+      <c r="H1" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="154" t="s">
+      <c r="H2" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="163" t="s">
+      <c r="H4" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
     </row>
     <row r="6" spans="1:14" ht="18">
-      <c r="A6" s="145"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="H6" s="154" t="s">
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="H6" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="18" t="s">
@@ -4762,27 +4787,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="148" t="s">
         <v>430</v>
       </c>
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="158" t="s">
         <v>425</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
       <c r="H8" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.6">
-      <c r="A9" s="155"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151"/>
+      <c r="A9" s="148"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
       <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
@@ -4794,35 +4819,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="164" t="s">
         <v>431</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
       <c r="H10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="164" t="str">
+      <c r="J10" s="146" t="str">
         <f>'Информация для бумаг_2'!C3</f>
         <v>Санкт-Петербург-Кандалакша-научная база "Ряжков"-Лувеньга-Колвица-Санкт-Петербург</v>
       </c>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="156"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
+      <c r="A11" s="149"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
       <c r="H11" s="9" t="s">
         <v>45</v>
       </c>
@@ -4843,10 +4868,10 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="H12" s="157" t="s">
+      <c r="H12" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="157"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="30">
         <f>'Информация для бумаг_2'!C2</f>
         <v>45140</v>
@@ -4860,46 +4885,46 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="152" t="s">
+      <c r="B13" s="164" t="s">
         <v>432</v>
       </c>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
     </row>
     <row r="14" spans="1:14" ht="31.05" customHeight="1">
-      <c r="A14" s="156"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
+      <c r="A14" s="149"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
       <c r="H14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="158" t="str">
+      <c r="K14" s="151" t="str">
         <f>'Информация для бумаг_2'!C21</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="92">
         <v>45159</v>
       </c>
-      <c r="B15" s="159" t="s">
+      <c r="B15" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
       <c r="K15" s="9" t="s">
         <v>52</v>
       </c>
@@ -4912,13 +4937,13 @@
       <c r="A16" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="162"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="155"/>
       <c r="H16" s="24" t="s">
         <v>55</v>
       </c>
@@ -4946,13 +4971,13 @@
       <c r="H19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="158" t="str">
+      <c r="K19" s="151" t="str">
         <f>'Информация для бумаг_2'!C22</f>
         <v>Гаврилова Елизавета Олеговна</v>
       </c>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
     </row>
     <row r="20" spans="1:14">
       <c r="K20" s="9" t="s">
@@ -4964,26 +4989,26 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="154" t="s">
+      <c r="H22" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="154" t="s">
+      <c r="H23" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
     </row>
     <row r="25" spans="1:14" ht="15.6">
       <c r="H25" s="20" t="s">
@@ -5054,11 +5079,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="H22:N22"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -5068,11 +5093,11 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
   </mergeCells>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5088,7 +5113,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
@@ -7318,87 +7343,87 @@
       <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="154" t="s">
+      <c r="H1" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="154" t="s">
+      <c r="H2" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="144"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="163" t="s">
+      <c r="H4" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
-      <c r="N4" s="163"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="145"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
     </row>
     <row r="6" spans="1:14" ht="18">
-      <c r="A6" s="145"/>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="H6" s="154" t="s">
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="H6" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="18" t="s">
@@ -7415,21 +7440,21 @@
       <c r="B8" s="168" t="s">
         <v>425</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
       <c r="H8" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.6">
       <c r="A9" s="166"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151"/>
+      <c r="B9" s="161"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="163"/>
       <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
@@ -7444,32 +7469,32 @@
       <c r="A10" s="167" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="165" t="s">
         <v>424</v>
       </c>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
       <c r="H10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="164" t="str">
+      <c r="J10" s="146" t="str">
         <f>'Информация для бумаг_1'!C3</f>
         <v>Санкт-Петербург-Кандалакша-Лувеньга-Колвица-Санкт-Петербург</v>
       </c>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="167"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
       <c r="H11" s="9" t="s">
         <v>45</v>
       </c>
@@ -7490,10 +7515,10 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="H12" s="157" t="s">
+      <c r="H12" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="157"/>
+      <c r="I12" s="150"/>
       <c r="J12" s="30">
         <f>'Информация для бумаг_1'!C2</f>
         <v>45116</v>
@@ -7510,31 +7535,31 @@
       <c r="A13" s="167" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="165" t="s">
         <v>424</v>
       </c>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
     </row>
     <row r="14" spans="1:14" ht="31.05" customHeight="1">
       <c r="A14" s="167"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
       <c r="H14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="158" t="str">
+      <c r="K14" s="151" t="str">
         <f>'Информация для бумаг_1'!C16</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="64">
@@ -7587,13 +7612,13 @@
       <c r="H19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="158" t="str">
+      <c r="K19" s="151" t="str">
         <f>'Информация для бумаг_1'!C17</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
     </row>
     <row r="20" spans="1:14">
       <c r="K20" s="9" t="s">
@@ -7605,26 +7630,26 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="154" t="s">
+      <c r="H22" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="154" t="s">
+      <c r="H23" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
     </row>
     <row r="25" spans="1:14" ht="15.6">
       <c r="H25" s="20" t="s">
@@ -7695,11 +7720,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -7713,6 +7733,11 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
   </mergeCells>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7722,10 +7747,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="14.4"/>
@@ -8313,9 +8338,17 @@
       <c r="P24" s="90"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="88"/>
+      <c r="B25" s="170" t="s">
+        <v>444</v>
+      </c>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
+      <c r="E25" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>448</v>
+      </c>
       <c r="H25" s="89"/>
       <c r="I25" s="88"/>
       <c r="J25" s="89"/>
@@ -8324,6 +8357,40 @@
       <c r="N25" s="89"/>
       <c r="O25" s="88"/>
       <c r="P25" s="90"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="171">
+        <v>45116</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="E26" s="172">
+        <v>21991.200000000001</v>
+      </c>
+      <c r="F26" s="74">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="74" t="s">
+        <v>449</v>
+      </c>
+      <c r="C27" s="171">
+        <v>45130</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>446</v>
+      </c>
+      <c r="E27" s="74">
+        <v>23420.3</v>
+      </c>
+      <c r="F27" s="74">
+        <v>23430</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Exp 2023/Exp_2023.xlsx
+++ b/Exp 2023/Exp_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b36106a05bf74bb/Документы/GitHub/Lab-processings/Exp 2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="11_D08EC206F11C93153720B02AEB419BE58E666E0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41C654E9-1979-4E25-B8A5-651CA9B780EA}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="11_D08EC206F11C93153720B02AEB419BE58E666E0D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32A807EC-9847-4118-9C49-6791919306E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="782" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Марш 2" sheetId="15" r:id="rId1"/>
@@ -2272,120 +2272,120 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -2470,6 +2470,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2759,23 +2763,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
     </row>
     <row r="2" spans="1:14" ht="51.9" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -2845,7 +2849,7 @@
       <c r="G3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="138" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="66">
@@ -2892,7 +2896,7 @@
       <c r="G4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="136"/>
+      <c r="H4" s="139"/>
       <c r="I4" s="67">
         <v>2</v>
       </c>
@@ -2935,7 +2939,7 @@
       <c r="G5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="136"/>
+      <c r="H5" s="139"/>
       <c r="I5" s="66">
         <v>3</v>
       </c>
@@ -2980,7 +2984,7 @@
       <c r="G6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="136"/>
+      <c r="H6" s="139"/>
       <c r="I6" s="42"/>
       <c r="J6" s="57"/>
       <c r="K6" s="58"/>
@@ -3015,7 +3019,7 @@
       <c r="G7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="136"/>
+      <c r="H7" s="139"/>
       <c r="I7" s="37"/>
       <c r="J7" s="57"/>
       <c r="K7" s="58"/>
@@ -3050,7 +3054,7 @@
       <c r="G8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="136"/>
+      <c r="H8" s="139"/>
       <c r="N8" s="61"/>
     </row>
     <row r="9" spans="1:14" s="24" customFormat="1">
@@ -3080,7 +3084,7 @@
       <c r="G9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="136"/>
+      <c r="H9" s="139"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
@@ -3114,7 +3118,7 @@
       <c r="G10" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="136"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -3148,7 +3152,7 @@
       <c r="G11" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="136"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
@@ -3182,7 +3186,7 @@
       <c r="G12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="136"/>
+      <c r="H12" s="139"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
@@ -3216,7 +3220,7 @@
       <c r="G13" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="136"/>
+      <c r="H13" s="139"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
@@ -3250,7 +3254,7 @@
       <c r="G14" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="136"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
@@ -3284,7 +3288,7 @@
       <c r="G15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="136"/>
+      <c r="H15" s="139"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
@@ -3299,7 +3303,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="136"/>
+      <c r="H16" s="139"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
@@ -3314,7 +3318,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="40"/>
       <c r="G17" s="41"/>
-      <c r="H17" s="136"/>
+      <c r="H17" s="139"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
@@ -3329,7 +3333,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
-      <c r="H18" s="136"/>
+      <c r="H18" s="139"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
@@ -3344,7 +3348,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41"/>
-      <c r="H19" s="136"/>
+      <c r="H19" s="139"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
@@ -3359,7 +3363,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="136"/>
+      <c r="H20" s="139"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -3374,7 +3378,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
-      <c r="H21" s="136"/>
+      <c r="H21" s="139"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
@@ -3389,7 +3393,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="136"/>
+      <c r="H22" s="139"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
@@ -3404,7 +3408,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="136"/>
+      <c r="H23" s="139"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
@@ -3419,7 +3423,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="45"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="136"/>
+      <c r="H24" s="139"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
@@ -3434,7 +3438,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="45"/>
       <c r="G25" s="41"/>
-      <c r="H25" s="136"/>
+      <c r="H25" s="139"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
@@ -3444,7 +3448,7 @@
     <row r="26" spans="1:13" s="24" customFormat="1" ht="12">
       <c r="A26" s="46"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="136"/>
+      <c r="H26" s="139"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -3458,13 +3462,13 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C27" s="39"/>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="140"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="49"/>
       <c r="G27" s="41"/>
-      <c r="H27" s="136"/>
+      <c r="H27" s="139"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
@@ -3478,20 +3482,20 @@
         <v>Гаврилова Елизавета Олеговна</v>
       </c>
       <c r="C28" s="39"/>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="140"/>
+      <c r="E28" s="143"/>
       <c r="F28" s="49"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="141" t="s">
+      <c r="H28" s="139"/>
+      <c r="I28" s="144" t="s">
         <v>442</v>
       </c>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="143"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="146"/>
     </row>
     <row r="29" spans="1:13" ht="15.6">
       <c r="A29" s="50" t="s">
@@ -3503,7 +3507,7 @@
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
-      <c r="H29" s="137"/>
+      <c r="H29" s="140"/>
       <c r="I29" s="12" t="s">
         <v>27</v>
       </c>
@@ -3512,10 +3516,10 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="134"/>
+      <c r="B30" s="137"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -4696,87 +4700,87 @@
       <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="145" t="s">
+      <c r="H4" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:14" ht="18">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="H6" s="144" t="s">
+      <c r="A6" s="148"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="H6" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="18" t="s">
@@ -4787,27 +4791,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="158" t="s">
         <v>430</v>
       </c>
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="149" t="s">
         <v>425</v>
       </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
       <c r="H8" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.6">
-      <c r="A9" s="148"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="154"/>
       <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
@@ -4819,35 +4823,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="155" t="s">
         <v>431</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
       <c r="H10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="146" t="str">
+      <c r="J10" s="167" t="str">
         <f>'Информация для бумаг_2'!C3</f>
         <v>Санкт-Петербург-Кандалакша-научная база "Ряжков"-Лувеньга-Колвица-Санкт-Петербург</v>
       </c>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="149"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
       <c r="H11" s="9" t="s">
         <v>45</v>
       </c>
@@ -4868,10 +4872,10 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="H12" s="150" t="s">
+      <c r="H12" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="150"/>
+      <c r="I12" s="160"/>
       <c r="J12" s="30">
         <f>'Информация для бумаг_2'!C2</f>
         <v>45140</v>
@@ -4885,46 +4889,46 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="155" t="s">
         <v>432</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
     </row>
     <row r="14" spans="1:14" ht="31.05" customHeight="1">
-      <c r="A14" s="149"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
       <c r="H14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="151" t="str">
+      <c r="K14" s="161" t="str">
         <f>'Информация для бумаг_2'!C21</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="92">
         <v>45159</v>
       </c>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
       <c r="K15" s="9" t="s">
         <v>52</v>
       </c>
@@ -4937,13 +4941,13 @@
       <c r="A16" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="155"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="165"/>
       <c r="H16" s="24" t="s">
         <v>55</v>
       </c>
@@ -4971,13 +4975,13 @@
       <c r="H19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="151" t="str">
+      <c r="K19" s="161" t="str">
         <f>'Информация для бумаг_2'!C22</f>
         <v>Гаврилова Елизавета Олеговна</v>
       </c>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
     </row>
     <row r="20" spans="1:14">
       <c r="K20" s="9" t="s">
@@ -4989,26 +4993,26 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="144" t="s">
+      <c r="H22" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="144" t="s">
+      <c r="H23" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
     </row>
     <row r="25" spans="1:14" ht="15.6">
       <c r="H25" s="20" t="s">
@@ -5079,11 +5083,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:F6"/>
-    <mergeCell ref="B8:F9"/>
-    <mergeCell ref="B10:F11"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -5093,11 +5097,11 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="K19:N19"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="A2:F6"/>
+    <mergeCell ref="B8:F9"/>
+    <mergeCell ref="B10:F11"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="H22:N22"/>
   </mergeCells>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5112,8 +5116,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
@@ -5393,36 +5397,36 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_2'!B11," ",'Информация для бумаг_2'!C11," ",'Информация для бумаг_2'!D11)</f>
-        <v>Островский Виктор Владиславович</v>
+        <f>CONCATENATE('Информация для бумаг_2'!B16," ",'Информация для бумаг_2'!C16," ",'Информация для бумаг_2'!D16)</f>
+        <v>Нужин Илья Мулложонович</v>
       </c>
       <c r="C11" s="11">
-        <f>'Информация для бумаг_2'!H11</f>
-        <v>518</v>
+        <f>'Информация для бумаг_2'!H16</f>
+        <v>30</v>
       </c>
       <c r="D11" s="11">
-        <f>'Информация для бумаг_2'!I11</f>
-        <v>8</v>
+        <f>'Информация для бумаг_2'!I16</f>
+        <v>11</v>
       </c>
       <c r="E11" s="12">
-        <f>'Информация для бумаг_2'!J11</f>
-        <v>89213409406</v>
+        <f>'Информация для бумаг_2'!J16</f>
+        <v>89219583612</v>
       </c>
       <c r="F11" s="13" t="str">
-        <f>'Информация для бумаг_2'!K11</f>
-        <v>Ул. Шишкина, 58</v>
-      </c>
-      <c r="G11" s="11" t="str">
-        <f>'Информация для бумаг_2'!O11</f>
-        <v>II-АК 745451</v>
+        <f>'Информация для бумаг_2'!K16</f>
+        <v>Гаванская 2/97-36</v>
+      </c>
+      <c r="G11" s="11">
+        <f>'Информация для бумаг_2'!O16</f>
+        <v>4020668443</v>
       </c>
       <c r="H11" s="12" t="str">
-        <f>'Информация для бумаг_2'!L11</f>
-        <v>Островский Владислав Евгеньевич</v>
+        <f>'Информация для бумаг_2'!L16</f>
+        <v>Нужина Юлия Андреевна</v>
       </c>
       <c r="I11" s="11">
-        <f>'Информация для бумаг_2'!N11</f>
-        <v>89817075769</v>
+        <f>'Информация для бумаг_2'!N16</f>
+        <v>89213827100</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5430,36 +5434,36 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_2'!B12," ",'Информация для бумаг_2'!C12," ",'Информация для бумаг_2'!D12)</f>
-        <v>Сайчик Мария Владимировна</v>
+        <f>CONCATENATE('Информация для бумаг_2'!B11," ",'Информация для бумаг_2'!C11," ",'Информация для бумаг_2'!D11)</f>
+        <v>Островский Виктор Владиславович</v>
       </c>
       <c r="C12" s="11">
-        <f>'Информация для бумаг_2'!H12</f>
-        <v>586</v>
+        <f>'Информация для бумаг_2'!H11</f>
+        <v>518</v>
       </c>
       <c r="D12" s="11">
-        <f>'Информация для бумаг_2'!I12</f>
-        <v>11</v>
+        <f>'Информация для бумаг_2'!I11</f>
+        <v>8</v>
       </c>
       <c r="E12" s="12">
-        <f>'Информация для бумаг_2'!J12</f>
-        <v>89818723635</v>
+        <f>'Информация для бумаг_2'!J11</f>
+        <v>89213409406</v>
       </c>
       <c r="F12" s="13" t="str">
-        <f>'Информация для бумаг_2'!K12</f>
-        <v>Ул. Кораблестроителей, 39-831</v>
-      </c>
-      <c r="G12" s="11">
-        <f>'Информация для бумаг_2'!O12</f>
-        <v>4020691039</v>
+        <f>'Информация для бумаг_2'!K11</f>
+        <v>Ул. Шишкина, 58</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f>'Информация для бумаг_2'!O11</f>
+        <v>II-АК 745451</v>
       </c>
       <c r="H12" s="12" t="str">
-        <f>'Информация для бумаг_2'!L12</f>
-        <v>Сайчик Татьяна Борисовна</v>
+        <f>'Информация для бумаг_2'!L11</f>
+        <v>Островский Владислав Евгеньевич</v>
       </c>
       <c r="I12" s="11">
-        <f>'Информация для бумаг_2'!N12</f>
-        <v>89818723635</v>
+        <f>'Информация для бумаг_2'!N11</f>
+        <v>89817075769</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5467,36 +5471,36 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_2'!B13," ",'Информация для бумаг_2'!C13," ",'Информация для бумаг_2'!D13)</f>
-        <v>Шеламова Виктория Сергеевна</v>
+        <f>CONCATENATE('Информация для бумаг_2'!B12," ",'Информация для бумаг_2'!C12," ",'Информация для бумаг_2'!D12)</f>
+        <v>Сайчик Мария Владимировна</v>
       </c>
       <c r="C13" s="11">
-        <f>'Информация для бумаг_2'!H13</f>
-        <v>471</v>
+        <f>'Информация для бумаг_2'!H12</f>
+        <v>586</v>
       </c>
       <c r="D13" s="11">
-        <f>'Информация для бумаг_2'!I13</f>
-        <v>9</v>
+        <f>'Информация для бумаг_2'!I12</f>
+        <v>11</v>
       </c>
       <c r="E13" s="12">
-        <f>'Информация для бумаг_2'!J13</f>
-        <v>89817032760</v>
+        <f>'Информация для бумаг_2'!J12</f>
+        <v>89818723635</v>
       </c>
       <c r="F13" s="13" t="str">
-        <f>'Информация для бумаг_2'!K13</f>
-        <v>Приозерское шоссе, 16-46</v>
+        <f>'Информация для бумаг_2'!K12</f>
+        <v>Ул. Кораблестроителей, 39-831</v>
       </c>
       <c r="G13" s="11">
-        <f>'Информация для бумаг_2'!O13</f>
-        <v>4022149794</v>
+        <f>'Информация для бумаг_2'!O12</f>
+        <v>4020691039</v>
       </c>
       <c r="H13" s="12" t="str">
-        <f>'Информация для бумаг_2'!L13</f>
-        <v>Шеламова Галина Анатольевна</v>
+        <f>'Информация для бумаг_2'!L12</f>
+        <v>Сайчик Татьяна Борисовна</v>
       </c>
       <c r="I13" s="11">
-        <f>'Информация для бумаг_2'!N13</f>
-        <v>89111407222</v>
+        <f>'Информация для бумаг_2'!N12</f>
+        <v>89818723635</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5504,36 +5508,36 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_2'!B14," ",'Информация для бумаг_2'!C14," ",'Информация для бумаг_2'!D14)</f>
-        <v>Шилонцев Андрей Александрович</v>
+        <f>CONCATENATE('Информация для бумаг_2'!B17," ",'Информация для бумаг_2'!C17," ",'Информация для бумаг_2'!D17)</f>
+        <v>Тюпин Арсений Евгеньевич</v>
       </c>
       <c r="C14" s="11">
-        <f>'Информация для бумаг_2'!H14</f>
-        <v>452</v>
+        <f>'Информация для бумаг_2'!H17</f>
+        <v>555</v>
       </c>
       <c r="D14" s="11">
-        <f>'Информация для бумаг_2'!I14</f>
-        <v>9</v>
+        <f>'Информация для бумаг_2'!I17</f>
+        <v>8</v>
       </c>
       <c r="E14" s="12">
-        <f>'Информация для бумаг_2'!J14</f>
-        <v>89213026506</v>
+        <f>'Информация для бумаг_2'!J17</f>
+        <v>89200043637</v>
       </c>
       <c r="F14" s="13" t="str">
-        <f>'Информация для бумаг_2'!K14</f>
-        <v>Ленинский пр., 117-1-603</v>
+        <f>'Информация для бумаг_2'!K17</f>
+        <v>Комендантский пр., 23-1-112</v>
       </c>
       <c r="G14" s="11">
-        <f>'Информация для бумаг_2'!O14</f>
-        <v>4020684651</v>
+        <f>'Информация для бумаг_2'!O17</f>
+        <v>4022372441</v>
       </c>
       <c r="H14" s="12" t="str">
-        <f>'Информация для бумаг_2'!L14</f>
-        <v>Шилонцева Татьяна Александровна</v>
+        <f>'Информация для бумаг_2'!L17</f>
+        <v>Тюпина Полина Евгеньевна</v>
       </c>
       <c r="I14" s="11">
-        <f>'Информация для бумаг_2'!N14</f>
-        <v>89213026506</v>
+        <f>'Информация для бумаг_2'!N17</f>
+        <v>89914876053</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5541,36 +5545,36 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_2'!B15," ",'Информация для бумаг_2'!C15," ",'Информация для бумаг_2'!D15)</f>
-        <v>Шишкина Анна Андреевна</v>
+        <f>CONCATENATE('Информация для бумаг_2'!B13," ",'Информация для бумаг_2'!C13," ",'Информация для бумаг_2'!D13)</f>
+        <v>Шеламова Виктория Сергеевна</v>
       </c>
       <c r="C15" s="11">
-        <f>'Информация для бумаг_2'!H15</f>
-        <v>43</v>
+        <f>'Информация для бумаг_2'!H13</f>
+        <v>471</v>
       </c>
       <c r="D15" s="11">
-        <f>'Информация для бумаг_2'!I15</f>
-        <v>8</v>
+        <f>'Информация для бумаг_2'!I13</f>
+        <v>9</v>
       </c>
       <c r="E15" s="12">
-        <f>'Информация для бумаг_2'!J15</f>
-        <v>89819793731</v>
+        <f>'Информация для бумаг_2'!J13</f>
+        <v>89817032760</v>
       </c>
       <c r="F15" s="13" t="str">
-        <f>'Информация для бумаг_2'!K15</f>
-        <v>Пр. Сизова, 14-90</v>
-      </c>
-      <c r="G15" s="11" t="str">
-        <f>'Информация для бумаг_2'!O15</f>
-        <v>II-АК 731804</v>
+        <f>'Информация для бумаг_2'!K13</f>
+        <v>Приозерское шоссе, 16-46</v>
+      </c>
+      <c r="G15" s="11">
+        <f>'Информация для бумаг_2'!O13</f>
+        <v>4022149794</v>
       </c>
       <c r="H15" s="12" t="str">
-        <f>'Информация для бумаг_2'!L15</f>
-        <v>Шишкин  Андрей  Викторович</v>
+        <f>'Информация для бумаг_2'!L13</f>
+        <v>Шеламова Галина Анатольевна</v>
       </c>
       <c r="I15" s="11">
-        <f>'Информация для бумаг_2'!N15</f>
-        <v>89118110171</v>
+        <f>'Информация для бумаг_2'!N13</f>
+        <v>89111407222</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5578,36 +5582,36 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_2'!B16," ",'Информация для бумаг_2'!C16," ",'Информация для бумаг_2'!D16)</f>
-        <v>Нужин Илья Мулложонович</v>
+        <f>CONCATENATE('Информация для бумаг_2'!B14," ",'Информация для бумаг_2'!C14," ",'Информация для бумаг_2'!D14)</f>
+        <v>Шилонцев Андрей Александрович</v>
       </c>
       <c r="C16" s="11">
-        <f>'Информация для бумаг_2'!H16</f>
-        <v>30</v>
+        <f>'Информация для бумаг_2'!H14</f>
+        <v>452</v>
       </c>
       <c r="D16" s="11">
-        <f>'Информация для бумаг_2'!I16</f>
-        <v>11</v>
+        <f>'Информация для бумаг_2'!I14</f>
+        <v>9</v>
       </c>
       <c r="E16" s="12">
-        <f>'Информация для бумаг_2'!J16</f>
-        <v>89219583612</v>
+        <f>'Информация для бумаг_2'!J14</f>
+        <v>89213026506</v>
       </c>
       <c r="F16" s="13" t="str">
-        <f>'Информация для бумаг_2'!K16</f>
-        <v>Гаванская 2/97-36</v>
+        <f>'Информация для бумаг_2'!K14</f>
+        <v>Ленинский пр., 117-1-603</v>
       </c>
       <c r="G16" s="11">
-        <f>'Информация для бумаг_2'!O16</f>
-        <v>4020668443</v>
+        <f>'Информация для бумаг_2'!O14</f>
+        <v>4020684651</v>
       </c>
       <c r="H16" s="12" t="str">
-        <f>'Информация для бумаг_2'!L16</f>
-        <v>Нужина Юлия Андреевна</v>
+        <f>'Информация для бумаг_2'!L14</f>
+        <v>Шилонцева Татьяна Александровна</v>
       </c>
       <c r="I16" s="11">
-        <f>'Информация для бумаг_2'!N16</f>
-        <v>89213827100</v>
+        <f>'Информация для бумаг_2'!N14</f>
+        <v>89213026506</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5615,36 +5619,36 @@
         <v>13</v>
       </c>
       <c r="B17" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_2'!B17," ",'Информация для бумаг_2'!C17," ",'Информация для бумаг_2'!D17)</f>
-        <v>Тюпин Арсений Евгеньевич</v>
+        <f>CONCATENATE('Информация для бумаг_2'!B15," ",'Информация для бумаг_2'!C15," ",'Информация для бумаг_2'!D15)</f>
+        <v>Шишкина Анна Андреевна</v>
       </c>
       <c r="C17" s="11">
-        <f>'Информация для бумаг_2'!H17</f>
-        <v>555</v>
+        <f>'Информация для бумаг_2'!H15</f>
+        <v>43</v>
       </c>
       <c r="D17" s="11">
-        <f>'Информация для бумаг_2'!I17</f>
+        <f>'Информация для бумаг_2'!I15</f>
         <v>8</v>
       </c>
       <c r="E17" s="12">
-        <f>'Информация для бумаг_2'!J17</f>
-        <v>89200043637</v>
+        <f>'Информация для бумаг_2'!J15</f>
+        <v>89819793731</v>
       </c>
       <c r="F17" s="13" t="str">
-        <f>'Информация для бумаг_2'!K17</f>
-        <v>Комендантский пр., 23-1-112</v>
-      </c>
-      <c r="G17" s="11">
-        <f>'Информация для бумаг_2'!O17</f>
-        <v>4022372441</v>
+        <f>'Информация для бумаг_2'!K15</f>
+        <v>Пр. Сизова, 14-90</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f>'Информация для бумаг_2'!O15</f>
+        <v>II-АК 731804</v>
       </c>
       <c r="H17" s="12" t="str">
-        <f>'Информация для бумаг_2'!L17</f>
-        <v>Тюпина Полина Евгеньевна</v>
+        <f>'Информация для бумаг_2'!L15</f>
+        <v>Шишкин  Андрей  Викторович</v>
       </c>
       <c r="I17" s="11">
-        <f>'Информация для бумаг_2'!N17</f>
-        <v>89914876053</v>
+        <f>'Информация для бумаг_2'!N15</f>
+        <v>89118110171</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5732,6 +5736,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I17">
+    <sortCondition ref="B5:B17"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
@@ -6580,23 +6587,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138" t="s">
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
     </row>
     <row r="2" spans="1:14" ht="51.9" customHeight="1">
       <c r="A2" s="107" t="s">
@@ -6666,7 +6673,7 @@
       <c r="G3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="138" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="66">
@@ -6713,7 +6720,7 @@
       <c r="G4" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="136"/>
+      <c r="H4" s="139"/>
       <c r="I4" s="67">
         <v>2</v>
       </c>
@@ -6756,7 +6763,7 @@
       <c r="G5" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="136"/>
+      <c r="H5" s="139"/>
       <c r="I5" s="66">
         <v>3</v>
       </c>
@@ -6801,7 +6808,7 @@
       <c r="G6" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="136"/>
+      <c r="H6" s="139"/>
       <c r="I6" s="42"/>
       <c r="J6" s="57"/>
       <c r="K6" s="58"/>
@@ -6836,7 +6843,7 @@
       <c r="G7" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="136"/>
+      <c r="H7" s="139"/>
       <c r="I7" s="37"/>
       <c r="J7" s="57"/>
       <c r="K7" s="58"/>
@@ -6871,7 +6878,7 @@
       <c r="G8" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="136"/>
+      <c r="H8" s="139"/>
       <c r="N8" s="61"/>
     </row>
     <row r="9" spans="1:14" s="24" customFormat="1">
@@ -6901,7 +6908,7 @@
       <c r="G9" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="136"/>
+      <c r="H9" s="139"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
@@ -6935,7 +6942,7 @@
       <c r="G10" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="136"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -6969,7 +6976,7 @@
       <c r="G11" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="136"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
@@ -6984,7 +6991,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
-      <c r="H12" s="136"/>
+      <c r="H12" s="139"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
@@ -6999,7 +7006,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>
-      <c r="H13" s="136"/>
+      <c r="H13" s="139"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
@@ -7014,7 +7021,7 @@
       <c r="E14" s="12"/>
       <c r="F14" s="40"/>
       <c r="G14" s="41"/>
-      <c r="H14" s="136"/>
+      <c r="H14" s="139"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
@@ -7029,7 +7036,7 @@
       <c r="E15" s="12"/>
       <c r="F15" s="40"/>
       <c r="G15" s="41"/>
-      <c r="H15" s="136"/>
+      <c r="H15" s="139"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
@@ -7044,7 +7051,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="136"/>
+      <c r="H16" s="139"/>
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
@@ -7059,7 +7066,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="40"/>
       <c r="G17" s="41"/>
-      <c r="H17" s="136"/>
+      <c r="H17" s="139"/>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
@@ -7074,7 +7081,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
-      <c r="H18" s="136"/>
+      <c r="H18" s="139"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
@@ -7089,7 +7096,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41"/>
-      <c r="H19" s="136"/>
+      <c r="H19" s="139"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
@@ -7104,7 +7111,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
-      <c r="H20" s="136"/>
+      <c r="H20" s="139"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -7119,7 +7126,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
-      <c r="H21" s="136"/>
+      <c r="H21" s="139"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
@@ -7134,7 +7141,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
-      <c r="H22" s="136"/>
+      <c r="H22" s="139"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
@@ -7149,7 +7156,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="136"/>
+      <c r="H23" s="139"/>
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
@@ -7164,7 +7171,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="45"/>
       <c r="G24" s="41"/>
-      <c r="H24" s="136"/>
+      <c r="H24" s="139"/>
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
@@ -7179,7 +7186,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="45"/>
       <c r="G25" s="41"/>
-      <c r="H25" s="136"/>
+      <c r="H25" s="139"/>
       <c r="I25" s="42"/>
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
@@ -7189,7 +7196,7 @@
     <row r="26" spans="1:13" s="24" customFormat="1" ht="12">
       <c r="A26" s="46"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="136"/>
+      <c r="H26" s="139"/>
       <c r="I26" s="42"/>
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
@@ -7203,13 +7210,13 @@
         <v>Хайтов Вадим Михайлович</v>
       </c>
       <c r="C27" s="39"/>
-      <c r="D27" s="139" t="s">
+      <c r="D27" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="140"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="49"/>
       <c r="G27" s="41"/>
-      <c r="H27" s="136"/>
+      <c r="H27" s="139"/>
       <c r="I27" s="42"/>
       <c r="J27" s="42"/>
       <c r="K27" s="42"/>
@@ -7223,20 +7230,20 @@
         <v>Котельникова Валентина Сергеевна</v>
       </c>
       <c r="C28" s="39"/>
-      <c r="D28" s="139" t="s">
+      <c r="D28" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="140"/>
+      <c r="E28" s="143"/>
       <c r="F28" s="49"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="141" t="s">
+      <c r="H28" s="139"/>
+      <c r="I28" s="144" t="s">
         <v>441</v>
       </c>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="143"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="146"/>
     </row>
     <row r="29" spans="1:13" ht="15.6">
       <c r="A29" s="50" t="s">
@@ -7248,7 +7255,7 @@
       <c r="E29" s="51"/>
       <c r="F29" s="51"/>
       <c r="G29" s="51"/>
-      <c r="H29" s="137"/>
+      <c r="H29" s="140"/>
       <c r="I29" s="12" t="s">
         <v>27</v>
       </c>
@@ -7257,10 +7264,10 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="134"/>
+      <c r="B30" s="137"/>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -7343,87 +7350,87 @@
       <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
       <c r="G2" s="17"/>
-      <c r="H2" s="144" t="s">
+      <c r="H2" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
     </row>
     <row r="3" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="157"/>
-      <c r="F4" s="157"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="145" t="s">
+      <c r="H4" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
-      <c r="L4" s="145"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="145"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="157"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:14" ht="18">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="H6" s="144" t="s">
+      <c r="A6" s="148"/>
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="H6" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="18" t="s">
@@ -7434,27 +7441,27 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="169" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="168" t="s">
+      <c r="B8" s="171" t="s">
         <v>425</v>
       </c>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
       <c r="H8" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.6">
-      <c r="A9" s="166"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="163"/>
+      <c r="A9" s="169"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="154"/>
       <c r="H9" s="16" t="s">
         <v>41</v>
       </c>
@@ -7466,35 +7473,35 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="45" customHeight="1">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="170" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="156" t="s">
         <v>424</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
       <c r="H10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="146" t="str">
+      <c r="J10" s="167" t="str">
         <f>'Информация для бумаг_1'!C3</f>
         <v>Санкт-Петербург-Кандалакша-Лувеньга-Колвица-Санкт-Петербург</v>
       </c>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="167"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
       <c r="H11" s="9" t="s">
         <v>45</v>
       </c>
@@ -7515,10 +7522,10 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="H12" s="150" t="s">
+      <c r="H12" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="150"/>
+      <c r="I12" s="160"/>
       <c r="J12" s="30">
         <f>'Информация для бумаг_1'!C2</f>
         <v>45116</v>
@@ -7532,46 +7539,46 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="12.75" customHeight="1">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="170" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="156" t="s">
         <v>424</v>
       </c>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
     </row>
     <row r="14" spans="1:14" ht="31.05" customHeight="1">
-      <c r="A14" s="167"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
       <c r="H14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="151" t="str">
+      <c r="K14" s="161" t="str">
         <f>'Информация для бумаг_1'!C16</f>
         <v>Хайтов Вадим Михайлович</v>
       </c>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="64">
         <v>45129</v>
       </c>
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
       <c r="K15" s="9" t="s">
         <v>52</v>
       </c>
@@ -7612,13 +7619,13 @@
       <c r="H19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="151" t="str">
+      <c r="K19" s="161" t="str">
         <f>'Информация для бумаг_1'!C17</f>
         <v>Котельникова Валентина Сергеевна</v>
       </c>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
     </row>
     <row r="20" spans="1:14">
       <c r="K20" s="9" t="s">
@@ -7630,26 +7637,26 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H22" s="144" t="s">
+      <c r="H22" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1">
-      <c r="H23" s="144" t="s">
+      <c r="H23" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
     </row>
     <row r="25" spans="1:14" ht="15.6">
       <c r="H25" s="20" t="s">
@@ -7720,6 +7727,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="J10:N10"/>
     <mergeCell ref="H23:N23"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -7733,11 +7745,6 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="H22:N22"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="J10:N10"/>
   </mergeCells>
   <pageMargins left="0.38888888888888901" right="0.38888888888888901" top="0.38888888888888901" bottom="0.58888888888888902" header="0" footer="0.50902777777777797"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7749,7 +7756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -8338,7 +8345,7 @@
       <c r="P24" s="90"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="170" t="s">
+      <c r="B25" s="133" t="s">
         <v>444</v>
       </c>
       <c r="C25" s="88"/>
@@ -8362,13 +8369,13 @@
       <c r="B26" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="C26" s="171">
+      <c r="C26" s="134">
         <v>45116</v>
       </c>
       <c r="D26" s="74" t="s">
         <v>446</v>
       </c>
-      <c r="E26" s="172">
+      <c r="E26" s="135">
         <v>21991.200000000001</v>
       </c>
       <c r="F26" s="74">
@@ -8379,7 +8386,7 @@
       <c r="B27" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="C27" s="171">
+      <c r="C27" s="134">
         <v>45130</v>
       </c>
       <c r="D27" s="74" t="s">
@@ -8407,7 +8414,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B5" sqref="B5:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
@@ -8502,36 +8509,36 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_1'!B6," ",'Информация для бумаг_1'!C6," ",'Информация для бумаг_1'!D6)</f>
-        <v>Бритиков Александр Ильич</v>
+        <f>CONCATENATE('Информация для бумаг_1'!B13," ",'Информация для бумаг_1'!C13," ",'Информация для бумаг_1'!D13)</f>
+        <v>Бекасов Емельян Игоревич</v>
       </c>
       <c r="C6" s="11">
-        <f>'Информация для бумаг_1'!H6</f>
-        <v>56</v>
+        <f>'Информация для бумаг_1'!H13</f>
+        <v>503</v>
       </c>
       <c r="D6" s="11">
-        <f>'Информация для бумаг_1'!I6</f>
-        <v>9</v>
+        <f>'Информация для бумаг_1'!I13</f>
+        <v>8</v>
       </c>
       <c r="E6" s="12">
-        <f>'Информация для бумаг_1'!J6</f>
-        <v>89291040939</v>
+        <f>'Информация для бумаг_1'!J13</f>
+        <v>89818295984</v>
       </c>
       <c r="F6" s="13" t="str">
-        <f>'Информация для бумаг_1'!K6</f>
-        <v>Ул. Лахтинская, 20-36</v>
+        <f>'Информация для бумаг_1'!K13</f>
+        <v>Пр. Ветеранов, 3-167</v>
       </c>
       <c r="G6" s="11">
-        <f>'Информация для бумаг_1'!O6</f>
-        <v>4022381251</v>
+        <f>'Информация для бумаг_1'!O13</f>
+        <v>4023439220</v>
       </c>
       <c r="H6" s="12" t="str">
-        <f>'Информация для бумаг_1'!L6</f>
-        <v>Бритикова Ольга Николаевна</v>
+        <f>'Информация для бумаг_1'!L13</f>
+        <v>Калачева Мария  Анатольевна</v>
       </c>
       <c r="I6" s="11">
-        <f>'Информация для бумаг_1'!N6</f>
-        <v>89052622652</v>
+        <f>'Информация для бумаг_1'!N13</f>
+        <v>89213414725</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8539,36 +8546,36 @@
         <v>3</v>
       </c>
       <c r="B7" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_1'!B7," ",'Информация для бумаг_1'!C7," ",'Информация для бумаг_1'!D7)</f>
-        <v>Киселев Вениамин Алексеевич</v>
+        <f>CONCATENATE('Информация для бумаг_1'!B6," ",'Информация для бумаг_1'!C6," ",'Информация для бумаг_1'!D6)</f>
+        <v>Бритиков Александр Ильич</v>
       </c>
       <c r="C7" s="11">
-        <f>'Информация для бумаг_1'!H7</f>
-        <v>92</v>
+        <f>'Информация для бумаг_1'!H6</f>
+        <v>56</v>
       </c>
       <c r="D7" s="11">
-        <f>'Информация для бумаг_1'!I7</f>
-        <v>7</v>
+        <f>'Информация для бумаг_1'!I6</f>
+        <v>9</v>
       </c>
       <c r="E7" s="12">
-        <f>'Информация для бумаг_1'!J7</f>
-        <v>89219845986</v>
+        <f>'Информация для бумаг_1'!J6</f>
+        <v>89291040939</v>
       </c>
       <c r="F7" s="13" t="str">
-        <f>'Информация для бумаг_1'!K7</f>
-        <v>Пр. Тореза, 80-78</v>
-      </c>
-      <c r="G7" s="11" t="str">
-        <f>'Информация для бумаг_1'!O7</f>
-        <v>II-AK 798373</v>
+        <f>'Информация для бумаг_1'!K6</f>
+        <v>Ул. Лахтинская, 20-36</v>
+      </c>
+      <c r="G7" s="11">
+        <f>'Информация для бумаг_1'!O6</f>
+        <v>4022381251</v>
       </c>
       <c r="H7" s="12" t="str">
-        <f>'Информация для бумаг_1'!L7</f>
-        <v>Киселева Марина Игоревна</v>
+        <f>'Информация для бумаг_1'!L6</f>
+        <v>Бритикова Ольга Николаевна</v>
       </c>
       <c r="I7" s="11">
-        <f>'Информация для бумаг_1'!N7</f>
-        <v>89213323160</v>
+        <f>'Информация для бумаг_1'!N6</f>
+        <v>89052622652</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8576,36 +8583,36 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_1'!B8," ",'Информация для бумаг_1'!C8," ",'Информация для бумаг_1'!D8)</f>
-        <v>Сайчик Мария Владимировна</v>
+        <f>CONCATENATE('Информация для бумаг_1'!B7," ",'Информация для бумаг_1'!C7," ",'Информация для бумаг_1'!D7)</f>
+        <v>Киселев Вениамин Алексеевич</v>
       </c>
       <c r="C8" s="11">
-        <f>'Информация для бумаг_1'!H8</f>
-        <v>586</v>
+        <f>'Информация для бумаг_1'!H7</f>
+        <v>92</v>
       </c>
       <c r="D8" s="11">
-        <f>'Информация для бумаг_1'!I8</f>
-        <v>11</v>
+        <f>'Информация для бумаг_1'!I7</f>
+        <v>7</v>
       </c>
       <c r="E8" s="12">
-        <f>'Информация для бумаг_1'!J8</f>
-        <v>89818723635</v>
+        <f>'Информация для бумаг_1'!J7</f>
+        <v>89219845986</v>
       </c>
       <c r="F8" s="13" t="str">
-        <f>'Информация для бумаг_1'!K8</f>
-        <v>Ул. Кораблестроителей, 39-831</v>
-      </c>
-      <c r="G8" s="11">
-        <f>'Информация для бумаг_1'!O8</f>
-        <v>4020691039</v>
+        <f>'Информация для бумаг_1'!K7</f>
+        <v>Пр. Тореза, 80-78</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f>'Информация для бумаг_1'!O7</f>
+        <v>II-AK 798373</v>
       </c>
       <c r="H8" s="12" t="str">
-        <f>'Информация для бумаг_1'!L8</f>
-        <v>Сайчик Татьяна Борисовна</v>
+        <f>'Информация для бумаг_1'!L7</f>
+        <v>Киселева Марина Игоревна</v>
       </c>
       <c r="I8" s="11">
-        <f>'Информация для бумаг_1'!N8</f>
-        <v>89818723635</v>
+        <f>'Информация для бумаг_1'!N7</f>
+        <v>89213323160</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8613,36 +8620,36 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_1'!B9," ",'Информация для бумаг_1'!C9," ",'Информация для бумаг_1'!D9)</f>
-        <v>Тихонов Иван Андреевич</v>
+        <f>CONCATENATE('Информация для бумаг_1'!B8," ",'Информация для бумаг_1'!C8," ",'Информация для бумаг_1'!D8)</f>
+        <v>Сайчик Мария Владимировна</v>
       </c>
       <c r="C9" s="11">
-        <f>'Информация для бумаг_1'!H9</f>
-        <v>617</v>
+        <f>'Информация для бумаг_1'!H8</f>
+        <v>586</v>
       </c>
       <c r="D9" s="11">
-        <f>'Информация для бумаг_1'!I9</f>
-        <v>6</v>
+        <f>'Информация для бумаг_1'!I8</f>
+        <v>11</v>
       </c>
       <c r="E9" s="12">
-        <f>'Информация для бумаг_1'!J9</f>
-        <v>89045564762</v>
+        <f>'Информация для бумаг_1'!J8</f>
+        <v>89818723635</v>
       </c>
       <c r="F9" s="13" t="str">
-        <f>'Информация для бумаг_1'!K9</f>
-        <v>Ул. Щербакова, 23-47</v>
-      </c>
-      <c r="G9" s="11" t="str">
-        <f>'Информация для бумаг_1'!O9</f>
-        <v>II-АК 864038</v>
+        <f>'Информация для бумаг_1'!K8</f>
+        <v>Ул. Кораблестроителей, 39-831</v>
+      </c>
+      <c r="G9" s="11">
+        <f>'Информация для бумаг_1'!O8</f>
+        <v>4020691039</v>
       </c>
       <c r="H9" s="12" t="str">
-        <f>'Информация для бумаг_1'!L9</f>
-        <v>Тихонова Наталья Александровна</v>
+        <f>'Информация для бумаг_1'!L8</f>
+        <v>Сайчик Татьяна Борисовна</v>
       </c>
       <c r="I9" s="11">
-        <f>'Информация для бумаг_1'!N9</f>
-        <v>89030941182</v>
+        <f>'Информация для бумаг_1'!N8</f>
+        <v>89818723635</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -8650,36 +8657,36 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_1'!B10," ",'Информация для бумаг_1'!C10," ",'Информация для бумаг_1'!D10)</f>
-        <v>Федорова Ксения Сергеевна</v>
+        <f>CONCATENATE('Информация для бумаг_1'!B9," ",'Информация для бумаг_1'!C9," ",'Информация для бумаг_1'!D9)</f>
+        <v>Тихонов Иван Андреевич</v>
       </c>
       <c r="C10" s="11">
-        <f>'Информация для бумаг_1'!H10</f>
-        <v>64</v>
+        <f>'Информация для бумаг_1'!H9</f>
+        <v>617</v>
       </c>
       <c r="D10" s="11">
-        <f>'Информация для бумаг_1'!I10</f>
-        <v>8</v>
+        <f>'Информация для бумаг_1'!I9</f>
+        <v>6</v>
       </c>
       <c r="E10" s="12">
-        <f>'Информация для бумаг_1'!J10</f>
-        <v>89657737525</v>
+        <f>'Информация для бумаг_1'!J9</f>
+        <v>89045564762</v>
       </c>
       <c r="F10" s="13" t="str">
-        <f>'Информация для бумаг_1'!K10</f>
-        <v>Ул. Камышовая, 14А-163</v>
+        <f>'Информация для бумаг_1'!K9</f>
+        <v>Ул. Щербакова, 23-47</v>
       </c>
       <c r="G10" s="11" t="str">
-        <f>'Информация для бумаг_1'!O10</f>
-        <v>II-АК 789060</v>
+        <f>'Информация для бумаг_1'!O9</f>
+        <v>II-АК 864038</v>
       </c>
       <c r="H10" s="12" t="str">
-        <f>'Информация для бумаг_1'!L10</f>
-        <v>Федорова Марина Александровна</v>
+        <f>'Информация для бумаг_1'!L9</f>
+        <v>Тихонова Наталья Александровна</v>
       </c>
       <c r="I10" s="11">
-        <f>'Информация для бумаг_1'!N10</f>
-        <v>89657737525</v>
+        <f>'Информация для бумаг_1'!N9</f>
+        <v>89030941182</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8687,36 +8694,36 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_1'!B11," ",'Информация для бумаг_1'!C11," ",'Информация для бумаг_1'!D11)</f>
-        <v>Шеламова Виктория Сергеевна</v>
+        <f>CONCATENATE('Информация для бумаг_1'!B10," ",'Информация для бумаг_1'!C10," ",'Информация для бумаг_1'!D10)</f>
+        <v>Федорова Ксения Сергеевна</v>
       </c>
       <c r="C11" s="11">
-        <f>'Информация для бумаг_1'!H11</f>
-        <v>471</v>
+        <f>'Информация для бумаг_1'!H10</f>
+        <v>64</v>
       </c>
       <c r="D11" s="11">
-        <f>'Информация для бумаг_1'!I11</f>
-        <v>9</v>
+        <f>'Информация для бумаг_1'!I10</f>
+        <v>8</v>
       </c>
       <c r="E11" s="12">
-        <f>'Информация для бумаг_1'!J11</f>
-        <v>89817032760</v>
+        <f>'Информация для бумаг_1'!J10</f>
+        <v>89657737525</v>
       </c>
       <c r="F11" s="13" t="str">
-        <f>'Информация для бумаг_1'!K11</f>
-        <v>Приозерское шоссе, 16-46</v>
-      </c>
-      <c r="G11" s="11">
-        <f>'Информация для бумаг_1'!O11</f>
-        <v>4022149794</v>
+        <f>'Информация для бумаг_1'!K10</f>
+        <v>Ул. Камышовая, 14А-163</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f>'Информация для бумаг_1'!O10</f>
+        <v>II-АК 789060</v>
       </c>
       <c r="H11" s="12" t="str">
-        <f>'Информация для бумаг_1'!L11</f>
-        <v>Шеламова Галина Анатольевна</v>
+        <f>'Информация для бумаг_1'!L10</f>
+        <v>Федорова Марина Александровна</v>
       </c>
       <c r="I11" s="11">
-        <f>'Информация для бумаг_1'!N11</f>
-        <v>89111407222</v>
+        <f>'Информация для бумаг_1'!N10</f>
+        <v>89657737525</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8724,36 +8731,36 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_1'!B12," ",'Информация для бумаг_1'!C12," ",'Информация для бумаг_1'!D12)</f>
-        <v>Шилонцев Андрей Александрович</v>
+        <f>CONCATENATE('Информация для бумаг_1'!B11," ",'Информация для бумаг_1'!C11," ",'Информация для бумаг_1'!D11)</f>
+        <v>Шеламова Виктория Сергеевна</v>
       </c>
       <c r="C12" s="11">
-        <f>'Информация для бумаг_1'!H12</f>
-        <v>452</v>
+        <f>'Информация для бумаг_1'!H11</f>
+        <v>471</v>
       </c>
       <c r="D12" s="11">
-        <f>'Информация для бумаг_1'!I12</f>
+        <f>'Информация для бумаг_1'!I11</f>
         <v>9</v>
       </c>
       <c r="E12" s="12">
-        <f>'Информация для бумаг_1'!J12</f>
-        <v>89213026506</v>
+        <f>'Информация для бумаг_1'!J11</f>
+        <v>89817032760</v>
       </c>
       <c r="F12" s="13" t="str">
-        <f>'Информация для бумаг_1'!K12</f>
-        <v>Ленинский пр., 117-1-603</v>
+        <f>'Информация для бумаг_1'!K11</f>
+        <v>Приозерское шоссе, 16-46</v>
       </c>
       <c r="G12" s="11">
-        <f>'Информация для бумаг_1'!O12</f>
-        <v>4020684651</v>
+        <f>'Информация для бумаг_1'!O11</f>
+        <v>4022149794</v>
       </c>
       <c r="H12" s="12" t="str">
-        <f>'Информация для бумаг_1'!L12</f>
-        <v>Шилонцева Татьяна Александровна</v>
+        <f>'Информация для бумаг_1'!L11</f>
+        <v>Шеламова Галина Анатольевна</v>
       </c>
       <c r="I12" s="11">
-        <f>'Информация для бумаг_1'!N12</f>
-        <v>89213026506</v>
+        <f>'Информация для бумаг_1'!N11</f>
+        <v>89111407222</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8761,36 +8768,36 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="str">
-        <f>CONCATENATE('Информация для бумаг_1'!B13," ",'Информация для бумаг_1'!C13," ",'Информация для бумаг_1'!D13)</f>
-        <v>Бекасов Емельян Игоревич</v>
+        <f>CONCATENATE('Информация для бумаг_1'!B12," ",'Информация для бумаг_1'!C12," ",'Информация для бумаг_1'!D12)</f>
+        <v>Шилонцев Андрей Александрович</v>
       </c>
       <c r="C13" s="11">
-        <f>'Информация для бумаг_1'!H13</f>
-        <v>503</v>
+        <f>'Информация для бумаг_1'!H12</f>
+        <v>452</v>
       </c>
       <c r="D13" s="11">
-        <f>'Информация для бумаг_1'!I13</f>
-        <v>8</v>
+        <f>'Информация для бумаг_1'!I12</f>
+        <v>9</v>
       </c>
       <c r="E13" s="12">
-        <f>'Информация для бумаг_1'!J13</f>
-        <v>89818295984</v>
+        <f>'Информация для бумаг_1'!J12</f>
+        <v>89213026506</v>
       </c>
       <c r="F13" s="13" t="str">
-        <f>'Информация для бумаг_1'!K13</f>
-        <v>Пр. Ветеранов, 3-167</v>
+        <f>'Информация для бумаг_1'!K12</f>
+        <v>Ленинский пр., 117-1-603</v>
       </c>
       <c r="G13" s="11">
-        <f>'Информация для бумаг_1'!O13</f>
-        <v>4023439220</v>
+        <f>'Информация для бумаг_1'!O12</f>
+        <v>4020684651</v>
       </c>
       <c r="H13" s="12" t="str">
-        <f>'Информация для бумаг_1'!L13</f>
-        <v>Калачева Мария  Анатольевна</v>
+        <f>'Информация для бумаг_1'!L12</f>
+        <v>Шилонцева Татьяна Александровна</v>
       </c>
       <c r="I13" s="11">
-        <f>'Информация для бумаг_1'!N13</f>
-        <v>89213414725</v>
+        <f>'Информация для бумаг_1'!N12</f>
+        <v>89213026506</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8922,8 +8929,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:I13">
+    <sortCondition ref="B5:B13"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Exp 2023/Exp_2023.xlsx
+++ b/Exp 2023/Exp_2023.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="782" firstSheet="6" activeTab="12"/>
+    <workbookView windowWidth="22368" windowHeight="9264" tabRatio="782" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Марш 2" sheetId="15" r:id="rId1"/>
@@ -1490,16 +1490,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="[$-419]d\ mm\ yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="182" formatCode="#\ ##0"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="181" formatCode="#\ ##0"/>
+    <numFmt numFmtId="182" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
     <numFmt numFmtId="183" formatCode="#\ ##0.00"/>
     <numFmt numFmtId="184" formatCode="dd\.mmm"/>
-    <numFmt numFmtId="185" formatCode="[$-FC19]dd\ mm\ yyyy\ &quot;г&quot;/;@"/>
+    <numFmt numFmtId="185" formatCode="[$-419]d\ mm\ yyyy;@"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1677,9 +1677,20 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1694,9 +1705,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1718,15 +1728,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1734,60 +1736,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1808,8 +1757,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1823,12 +1826,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1875,31 +1875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,7 +1893,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,25 +1959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1959,67 +1971,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2037,13 +2007,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2055,7 +2043,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2235,6 +2235,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2245,6 +2254,54 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2275,217 +2332,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2494,7 +2494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2510,9 +2510,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2522,7 +2522,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2538,8 +2538,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2553,7 +2553,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2567,14 +2567,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2596,7 +2596,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2615,7 +2615,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2635,7 +2635,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2665,7 +2665,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2694,18 +2694,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="185" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="185" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2718,7 +2718,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="51" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2826,13 +2826,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4772,12 +4772,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:I28"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.66666666666667" defaultRowHeight="14.4"/>
@@ -4903,7 +4903,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" hidden="1" spans="1:30">
       <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:30">
+    <row r="3" spans="1:30">
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
@@ -5011,6 +5011,9 @@
       <c r="G3" s="3">
         <v>17</v>
       </c>
+      <c r="I3" s="3">
+        <v>20000</v>
+      </c>
       <c r="J3" s="3" t="s">
         <v>290</v>
       </c>
@@ -5070,7 +5073,7 @@
       </c>
       <c r="AD3" s="8"/>
     </row>
-    <row r="4" hidden="1" spans="1:30">
+    <row r="4" spans="1:30">
       <c r="A4" s="3" t="s">
         <v>102</v>
       </c>
@@ -5088,6 +5091,9 @@
       </c>
       <c r="G4" s="3">
         <v>18</v>
+      </c>
+      <c r="I4" s="3">
+        <v>20000</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>299</v>
@@ -5174,7 +5180,8 @@
         <v>18</v>
       </c>
       <c r="I5" s="3">
-        <v>15000</v>
+        <f>15000+20000</f>
+        <v>35000</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>300</v>
@@ -5235,7 +5242,7 @@
       </c>
       <c r="AD5" s="8"/>
     </row>
-    <row r="6" hidden="1" spans="1:30">
+    <row r="6" spans="1:30">
       <c r="A6" s="3" t="s">
         <v>114</v>
       </c>
@@ -5257,6 +5264,9 @@
       <c r="H6" s="3">
         <v>5</v>
       </c>
+      <c r="I6" s="3">
+        <v>20000</v>
+      </c>
       <c r="J6" s="3" t="s">
         <v>310</v>
       </c>
@@ -5321,7 +5331,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" hidden="1" spans="1:30">
       <c r="A7" s="3" t="s">
         <v>191</v>
       </c>
@@ -5408,7 +5418,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:30">
+    <row r="8" spans="1:30">
       <c r="A8" s="3" t="s">
         <v>119</v>
       </c>
@@ -5494,7 +5504,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:30">
+    <row r="9" spans="1:30">
       <c r="A9" s="3" t="s">
         <v>123</v>
       </c>
@@ -5577,7 +5587,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:30">
+    <row r="10" spans="1:30">
       <c r="A10" s="3" t="s">
         <v>128</v>
       </c>
@@ -5598,6 +5608,9 @@
       </c>
       <c r="H10" s="3">
         <v>9</v>
+      </c>
+      <c r="I10" s="3">
+        <v>20000</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>349</v>
@@ -5734,7 +5747,7 @@
       </c>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" hidden="1" spans="1:30">
       <c r="A12" s="3" t="s">
         <v>197</v>
       </c>
@@ -5820,7 +5833,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" hidden="1" spans="1:30">
       <c r="A13" s="3" t="s">
         <v>203</v>
       </c>
@@ -5910,7 +5923,8 @@
         <v>15</v>
       </c>
       <c r="I14" s="3">
-        <v>15000</v>
+        <f>15000+20000</f>
+        <v>35000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>369</v>
@@ -5976,7 +5990,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:30">
+    <row r="15" spans="1:30">
       <c r="A15" s="6" t="s">
         <v>144</v>
       </c>
@@ -6050,7 +6064,7 @@
       </c>
       <c r="AD15" s="10"/>
     </row>
-    <row r="16" hidden="1" spans="1:30">
+    <row r="16" spans="1:30">
       <c r="A16" s="3" t="s">
         <v>149</v>
       </c>
@@ -6071,6 +6085,9 @@
       </c>
       <c r="H16" s="3">
         <v>14</v>
+      </c>
+      <c r="I16" s="3">
+        <v>20000</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>385</v>
@@ -6134,7 +6151,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:30">
+    <row r="17" spans="1:30">
       <c r="A17" s="6" t="s">
         <v>155</v>
       </c>
@@ -6151,6 +6168,9 @@
       <c r="G17" s="3">
         <v>16</v>
       </c>
+      <c r="I17" s="3">
+        <v>20000</v>
+      </c>
       <c r="J17" s="3" t="s">
         <v>392</v>
       </c>
@@ -6190,7 +6210,7 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" hidden="1" spans="1:30">
       <c r="A18" s="3" t="s">
         <v>208</v>
       </c>
@@ -6276,7 +6296,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:30">
+    <row r="19" spans="1:30">
       <c r="A19" s="3" t="s">
         <v>160</v>
       </c>
@@ -6291,6 +6311,9 @@
       </c>
       <c r="G19" s="3">
         <v>19</v>
+      </c>
+      <c r="I19" s="3">
+        <v>20000</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>403</v>
@@ -6642,10 +6665,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AD27">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>
@@ -6841,7 +6864,7 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
